--- a/Excel/pet.战宠.xlsx
+++ b/Excel/pet.战宠.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8701C872-6CC1-4F00-9E78-45F86A1E5BCD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F7450E-7E4A-43CA-88D8-387C2F54DDDA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -438,322 +438,6 @@
   </si>
   <si>
     <t>属性值7</t>
-  </si>
-  <si>
-    <r>
-      <t>p</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>et1</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>p</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>et2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>p</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>et3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>p</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>et4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>p</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>et5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>p</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>et6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>p</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>et7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>p</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>et8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>p</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>et9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>p</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>et10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>p</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>et11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>p</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>et12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>p</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>et13</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
   </si>
   <si>
     <t>蓝1-1星</t>
@@ -2550,6 +2234,49 @@
   <si>
     <t>expSum</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pet201</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pet202</t>
+  </si>
+  <si>
+    <t>pet203</t>
+  </si>
+  <si>
+    <t>pet301</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pet302</t>
+  </si>
+  <si>
+    <t>pet303</t>
+  </si>
+  <si>
+    <t>pet401</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pet402</t>
+  </si>
+  <si>
+    <t>pet403</t>
+  </si>
+  <si>
+    <t>pet501</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pet502</t>
+  </si>
+  <si>
+    <t>pet503</t>
+  </si>
+  <si>
+    <t>pet504</t>
   </si>
 </sst>
 </file>
@@ -3104,17 +2831,17 @@
     </row>
     <row r="2" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="2" t="b">
@@ -3123,17 +2850,17 @@
     </row>
     <row r="3" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="3" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="b">
@@ -3142,14 +2869,14 @@
     </row>
     <row r="4" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>7</v>
@@ -3161,14 +2888,14 @@
     </row>
     <row r="5" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>7</v>
@@ -3180,17 +2907,17 @@
     </row>
     <row r="6" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="3" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="b">
@@ -3199,17 +2926,17 @@
     </row>
     <row r="7" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="3" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="b">
@@ -3218,17 +2945,17 @@
     </row>
     <row r="8" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="3" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="b">
@@ -3237,11 +2964,11 @@
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="3" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>8</v>
@@ -3265,8 +2992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9208CFCD-4669-42A0-9520-736E110DAC55}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3290,10 +3017,10 @@
         <v>65</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>10</v>
@@ -3336,7 +3063,7 @@
         <v>66</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>67</v>
@@ -3365,7 +3092,7 @@
         <v>68</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>125</v>
+        <v>341</v>
       </c>
       <c r="G4" s="2">
         <v>40</v>
@@ -3388,7 +3115,7 @@
         <v>69</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>126</v>
+        <v>342</v>
       </c>
       <c r="G5" s="2">
         <v>40</v>
@@ -3411,7 +3138,7 @@
         <v>70</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>127</v>
+        <v>343</v>
       </c>
       <c r="G6" s="2">
         <v>40</v>
@@ -3434,7 +3161,7 @@
         <v>71</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>128</v>
+        <v>344</v>
       </c>
       <c r="G7" s="2">
         <v>40</v>
@@ -3457,7 +3184,7 @@
         <v>72</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>129</v>
+        <v>345</v>
       </c>
       <c r="G8" s="2">
         <v>40</v>
@@ -3480,7 +3207,7 @@
         <v>73</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>130</v>
+        <v>346</v>
       </c>
       <c r="G9" s="2">
         <v>40</v>
@@ -3503,7 +3230,7 @@
         <v>74</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>131</v>
+        <v>347</v>
       </c>
       <c r="G10" s="2">
         <v>40</v>
@@ -3526,7 +3253,7 @@
         <v>75</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>132</v>
+        <v>348</v>
       </c>
       <c r="G11" s="2">
         <v>40</v>
@@ -3549,7 +3276,7 @@
         <v>76</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>133</v>
+        <v>349</v>
       </c>
       <c r="G12" s="2">
         <v>40</v>
@@ -3572,7 +3299,7 @@
         <v>77</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>134</v>
+        <v>350</v>
       </c>
       <c r="G13" s="2">
         <v>40</v>
@@ -3595,7 +3322,7 @@
         <v>78</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>135</v>
+        <v>351</v>
       </c>
       <c r="G14" s="2">
         <v>40</v>
@@ -3618,7 +3345,7 @@
         <v>79</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>136</v>
+        <v>352</v>
       </c>
       <c r="G15" s="2">
         <v>40</v>
@@ -3641,7 +3368,7 @@
         <v>80</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>137</v>
+        <v>353</v>
       </c>
       <c r="G16" s="2">
         <v>40</v>
@@ -3658,7 +3385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8129F7A6-8448-4D0B-B468-EBD746E50D98}">
   <dimension ref="A1:J403"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -3680,26 +3407,26 @@
         <v>9</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="5" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -3739,24 +3466,24 @@
         <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -3781,7 +3508,7 @@
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I4" s="2">
         <v>0</v>
@@ -3812,7 +3539,7 @@
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I5" s="2">
         <v>0</v>
@@ -3843,7 +3570,7 @@
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I6" s="2">
         <v>0</v>
@@ -3874,7 +3601,7 @@
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I7" s="2">
         <v>0</v>
@@ -3905,7 +3632,7 @@
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I8" s="2">
         <v>0</v>
@@ -3936,7 +3663,7 @@
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I9" s="2">
         <v>0</v>
@@ -3967,7 +3694,7 @@
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I10" s="2">
         <v>0</v>
@@ -3998,7 +3725,7 @@
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I11" s="2">
         <v>0</v>
@@ -4029,7 +3756,7 @@
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I12" s="2">
         <v>0</v>
@@ -4060,7 +3787,7 @@
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I13" s="2">
         <v>0</v>
@@ -4091,7 +3818,7 @@
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I14" s="2">
         <v>0</v>
@@ -4122,7 +3849,7 @@
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I15" s="2">
         <v>0</v>
@@ -4153,7 +3880,7 @@
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I16" s="2">
         <v>0</v>
@@ -4184,7 +3911,7 @@
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I17" s="2">
         <v>0</v>
@@ -4215,7 +3942,7 @@
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I18" s="2">
         <v>0</v>
@@ -4246,7 +3973,7 @@
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I19" s="2">
         <v>0</v>
@@ -4277,7 +4004,7 @@
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I20" s="2">
         <v>0</v>
@@ -4308,7 +4035,7 @@
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I21" s="2">
         <v>0</v>
@@ -4339,7 +4066,7 @@
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I22" s="2">
         <v>0</v>
@@ -4370,7 +4097,7 @@
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I23" s="2">
         <v>0</v>
@@ -4401,7 +4128,7 @@
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I24" s="2">
         <v>0</v>
@@ -4432,7 +4159,7 @@
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I25" s="2">
         <v>0</v>
@@ -4463,7 +4190,7 @@
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I26" s="2">
         <v>0</v>
@@ -4494,7 +4221,7 @@
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I27" s="2">
         <v>0</v>
@@ -4525,7 +4252,7 @@
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I28" s="2">
         <v>0</v>
@@ -4556,7 +4283,7 @@
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I29" s="2">
         <v>0</v>
@@ -4587,7 +4314,7 @@
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I30" s="2">
         <v>0</v>
@@ -4618,7 +4345,7 @@
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I31" s="2">
         <v>0</v>
@@ -4649,7 +4376,7 @@
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I32" s="2">
         <v>0</v>
@@ -4680,7 +4407,7 @@
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I33" s="2">
         <v>0</v>
@@ -4711,7 +4438,7 @@
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I34" s="2">
         <v>0</v>
@@ -4742,7 +4469,7 @@
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I35" s="2">
         <v>0</v>
@@ -4773,7 +4500,7 @@
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I36" s="2">
         <v>0</v>
@@ -4804,7 +4531,7 @@
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I37" s="2">
         <v>0</v>
@@ -4835,7 +4562,7 @@
       </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I38" s="2">
         <v>0</v>
@@ -4866,7 +4593,7 @@
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I39" s="2">
         <v>0</v>
@@ -4897,7 +4624,7 @@
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I40" s="2">
         <v>0</v>
@@ -4928,7 +4655,7 @@
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I41" s="2">
         <v>0</v>
@@ -4959,7 +4686,7 @@
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I42" s="2">
         <v>0</v>
@@ -4990,7 +4717,7 @@
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I43" s="2">
         <v>0</v>
@@ -5021,7 +4748,7 @@
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I44" s="2">
         <v>0</v>
@@ -5052,7 +4779,7 @@
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I45" s="2">
         <v>0</v>
@@ -5083,7 +4810,7 @@
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I46" s="2">
         <v>0</v>
@@ -5114,7 +4841,7 @@
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I47" s="2">
         <v>0</v>
@@ -5145,7 +4872,7 @@
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I48" s="2">
         <v>0</v>
@@ -5176,7 +4903,7 @@
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I49" s="2">
         <v>0</v>
@@ -5207,7 +4934,7 @@
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I50" s="2">
         <v>0</v>
@@ -5238,7 +4965,7 @@
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I51" s="2">
         <v>0</v>
@@ -5269,7 +4996,7 @@
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I52" s="2">
         <v>0</v>
@@ -5300,7 +5027,7 @@
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I53" s="2">
         <v>0</v>
@@ -5331,7 +5058,7 @@
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I54" s="2">
         <v>0</v>
@@ -5362,7 +5089,7 @@
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I55" s="2">
         <v>0</v>
@@ -5393,7 +5120,7 @@
       </c>
       <c r="G56" s="2"/>
       <c r="H56" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I56" s="2">
         <v>0</v>
@@ -5424,7 +5151,7 @@
       </c>
       <c r="G57" s="2"/>
       <c r="H57" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I57" s="2">
         <v>0</v>
@@ -5455,7 +5182,7 @@
       </c>
       <c r="G58" s="2"/>
       <c r="H58" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I58" s="2">
         <v>0</v>
@@ -5486,7 +5213,7 @@
       </c>
       <c r="G59" s="2"/>
       <c r="H59" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I59" s="2">
         <v>0</v>
@@ -5517,7 +5244,7 @@
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I60" s="2">
         <v>0</v>
@@ -5548,7 +5275,7 @@
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I61" s="2">
         <v>0</v>
@@ -5579,7 +5306,7 @@
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I62" s="2">
         <v>0</v>
@@ -5610,7 +5337,7 @@
       </c>
       <c r="G63" s="2"/>
       <c r="H63" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I63" s="2">
         <v>0</v>
@@ -5641,7 +5368,7 @@
       </c>
       <c r="G64" s="2"/>
       <c r="H64" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I64" s="2">
         <v>0</v>
@@ -5672,7 +5399,7 @@
       </c>
       <c r="G65" s="2"/>
       <c r="H65" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I65" s="2">
         <v>0</v>
@@ -5703,7 +5430,7 @@
       </c>
       <c r="G66" s="2"/>
       <c r="H66" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I66" s="2">
         <v>0</v>
@@ -5734,7 +5461,7 @@
       </c>
       <c r="G67" s="2"/>
       <c r="H67" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I67" s="2">
         <v>0</v>
@@ -5765,7 +5492,7 @@
       </c>
       <c r="G68" s="2"/>
       <c r="H68" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I68" s="2">
         <v>0</v>
@@ -5796,7 +5523,7 @@
       </c>
       <c r="G69" s="2"/>
       <c r="H69" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I69" s="2">
         <v>0</v>
@@ -5827,7 +5554,7 @@
       </c>
       <c r="G70" s="2"/>
       <c r="H70" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I70" s="2">
         <v>0</v>
@@ -5858,7 +5585,7 @@
       </c>
       <c r="G71" s="2"/>
       <c r="H71" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I71" s="2">
         <v>0</v>
@@ -5889,7 +5616,7 @@
       </c>
       <c r="G72" s="2"/>
       <c r="H72" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I72" s="2">
         <v>0</v>
@@ -5920,7 +5647,7 @@
       </c>
       <c r="G73" s="2"/>
       <c r="H73" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I73" s="2">
         <v>0</v>
@@ -5951,7 +5678,7 @@
       </c>
       <c r="G74" s="2"/>
       <c r="H74" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I74" s="2">
         <v>0</v>
@@ -5982,7 +5709,7 @@
       </c>
       <c r="G75" s="2"/>
       <c r="H75" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I75" s="2">
         <v>0</v>
@@ -6013,7 +5740,7 @@
       </c>
       <c r="G76" s="2"/>
       <c r="H76" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I76" s="2">
         <v>0</v>
@@ -6044,7 +5771,7 @@
       </c>
       <c r="G77" s="2"/>
       <c r="H77" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I77" s="2">
         <v>0</v>
@@ -6075,7 +5802,7 @@
       </c>
       <c r="G78" s="2"/>
       <c r="H78" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I78" s="2">
         <v>0</v>
@@ -6106,7 +5833,7 @@
       </c>
       <c r="G79" s="2"/>
       <c r="H79" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I79" s="2">
         <v>0</v>
@@ -6137,7 +5864,7 @@
       </c>
       <c r="G80" s="2"/>
       <c r="H80" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I80" s="2">
         <v>0</v>
@@ -6168,7 +5895,7 @@
       </c>
       <c r="G81" s="2"/>
       <c r="H81" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I81" s="2">
         <v>0</v>
@@ -6199,7 +5926,7 @@
       </c>
       <c r="G82" s="2"/>
       <c r="H82" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I82" s="2">
         <v>0</v>
@@ -6230,7 +5957,7 @@
       </c>
       <c r="G83" s="2"/>
       <c r="H83" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I83" s="2">
         <v>0</v>
@@ -6261,7 +5988,7 @@
       </c>
       <c r="G84" s="2"/>
       <c r="H84" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I84" s="2">
         <v>0</v>
@@ -6292,7 +6019,7 @@
       </c>
       <c r="G85" s="2"/>
       <c r="H85" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I85" s="2">
         <v>0</v>
@@ -6323,7 +6050,7 @@
       </c>
       <c r="G86" s="2"/>
       <c r="H86" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I86" s="2">
         <v>0</v>
@@ -6354,7 +6081,7 @@
       </c>
       <c r="G87" s="2"/>
       <c r="H87" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I87" s="2">
         <v>0</v>
@@ -6385,7 +6112,7 @@
       </c>
       <c r="G88" s="2"/>
       <c r="H88" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I88" s="2">
         <v>0</v>
@@ -6416,7 +6143,7 @@
       </c>
       <c r="G89" s="2"/>
       <c r="H89" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I89" s="2">
         <v>0</v>
@@ -6447,7 +6174,7 @@
       </c>
       <c r="G90" s="2"/>
       <c r="H90" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I90" s="2">
         <v>0</v>
@@ -6478,7 +6205,7 @@
       </c>
       <c r="G91" s="2"/>
       <c r="H91" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I91" s="2">
         <v>0</v>
@@ -6509,7 +6236,7 @@
       </c>
       <c r="G92" s="2"/>
       <c r="H92" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I92" s="2">
         <v>0</v>
@@ -6540,7 +6267,7 @@
       </c>
       <c r="G93" s="2"/>
       <c r="H93" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I93" s="2">
         <v>0</v>
@@ -6571,7 +6298,7 @@
       </c>
       <c r="G94" s="2"/>
       <c r="H94" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I94" s="2">
         <v>0</v>
@@ -6602,7 +6329,7 @@
       </c>
       <c r="G95" s="2"/>
       <c r="H95" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I95" s="2">
         <v>0</v>
@@ -6633,7 +6360,7 @@
       </c>
       <c r="G96" s="2"/>
       <c r="H96" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I96" s="2">
         <v>0</v>
@@ -6664,7 +6391,7 @@
       </c>
       <c r="G97" s="2"/>
       <c r="H97" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I97" s="2">
         <v>0</v>
@@ -6695,7 +6422,7 @@
       </c>
       <c r="G98" s="2"/>
       <c r="H98" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I98" s="2">
         <v>0</v>
@@ -6726,7 +6453,7 @@
       </c>
       <c r="G99" s="2"/>
       <c r="H99" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I99" s="2">
         <v>0</v>
@@ -6757,7 +6484,7 @@
       </c>
       <c r="G100" s="2"/>
       <c r="H100" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I100" s="2">
         <v>0</v>
@@ -6788,7 +6515,7 @@
       </c>
       <c r="G101" s="2"/>
       <c r="H101" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I101" s="2">
         <v>0</v>
@@ -6819,7 +6546,7 @@
       </c>
       <c r="G102" s="2"/>
       <c r="H102" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I102" s="2">
         <v>0</v>
@@ -6850,7 +6577,7 @@
       </c>
       <c r="G103" s="2"/>
       <c r="H103" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I103" s="2">
         <v>0</v>
@@ -6881,7 +6608,7 @@
       </c>
       <c r="G104" s="2"/>
       <c r="H104" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I104" s="2">
         <v>0</v>
@@ -6912,7 +6639,7 @@
       </c>
       <c r="G105" s="2"/>
       <c r="H105" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I105" s="2">
         <v>0</v>
@@ -6943,7 +6670,7 @@
       </c>
       <c r="G106" s="2"/>
       <c r="H106" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I106" s="2">
         <v>0</v>
@@ -6974,7 +6701,7 @@
       </c>
       <c r="G107" s="2"/>
       <c r="H107" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I107" s="2">
         <v>0</v>
@@ -7005,7 +6732,7 @@
       </c>
       <c r="G108" s="2"/>
       <c r="H108" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I108" s="2">
         <v>0</v>
@@ -7036,7 +6763,7 @@
       </c>
       <c r="G109" s="2"/>
       <c r="H109" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I109" s="2">
         <v>0</v>
@@ -7067,7 +6794,7 @@
       </c>
       <c r="G110" s="2"/>
       <c r="H110" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I110" s="2">
         <v>0</v>
@@ -7098,7 +6825,7 @@
       </c>
       <c r="G111" s="2"/>
       <c r="H111" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I111" s="2">
         <v>0</v>
@@ -7129,7 +6856,7 @@
       </c>
       <c r="G112" s="2"/>
       <c r="H112" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I112" s="2">
         <v>0</v>
@@ -7160,7 +6887,7 @@
       </c>
       <c r="G113" s="2"/>
       <c r="H113" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I113" s="2">
         <v>0</v>
@@ -7191,7 +6918,7 @@
       </c>
       <c r="G114" s="2"/>
       <c r="H114" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I114" s="2">
         <v>0</v>
@@ -7222,7 +6949,7 @@
       </c>
       <c r="G115" s="2"/>
       <c r="H115" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I115" s="2">
         <v>0</v>
@@ -7253,7 +6980,7 @@
       </c>
       <c r="G116" s="2"/>
       <c r="H116" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I116" s="2">
         <v>0</v>
@@ -7284,7 +7011,7 @@
       </c>
       <c r="G117" s="2"/>
       <c r="H117" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I117" s="2">
         <v>0</v>
@@ -7315,7 +7042,7 @@
       </c>
       <c r="G118" s="2"/>
       <c r="H118" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I118" s="2">
         <v>0</v>
@@ -7346,7 +7073,7 @@
       </c>
       <c r="G119" s="2"/>
       <c r="H119" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I119" s="2">
         <v>0</v>
@@ -7377,7 +7104,7 @@
       </c>
       <c r="G120" s="2"/>
       <c r="H120" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I120" s="2">
         <v>0</v>
@@ -7408,7 +7135,7 @@
       </c>
       <c r="G121" s="2"/>
       <c r="H121" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I121" s="2">
         <v>0</v>
@@ -7439,7 +7166,7 @@
       </c>
       <c r="G122" s="2"/>
       <c r="H122" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I122" s="2">
         <v>0</v>
@@ -7470,7 +7197,7 @@
       </c>
       <c r="G123" s="2"/>
       <c r="H123" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I123" s="2">
         <v>0</v>
@@ -7501,7 +7228,7 @@
       </c>
       <c r="G124" s="2"/>
       <c r="H124" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I124" s="2">
         <v>0</v>
@@ -7532,7 +7259,7 @@
       </c>
       <c r="G125" s="2"/>
       <c r="H125" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I125" s="2">
         <v>0</v>
@@ -7563,7 +7290,7 @@
       </c>
       <c r="G126" s="2"/>
       <c r="H126" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I126" s="2">
         <v>0</v>
@@ -7594,7 +7321,7 @@
       </c>
       <c r="G127" s="2"/>
       <c r="H127" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I127" s="2">
         <v>0</v>
@@ -7625,7 +7352,7 @@
       </c>
       <c r="G128" s="2"/>
       <c r="H128" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I128" s="2">
         <v>0</v>
@@ -7656,7 +7383,7 @@
       </c>
       <c r="G129" s="2"/>
       <c r="H129" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I129" s="2">
         <v>0</v>
@@ -7687,7 +7414,7 @@
       </c>
       <c r="G130" s="2"/>
       <c r="H130" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I130" s="2">
         <v>0</v>
@@ -7718,7 +7445,7 @@
       </c>
       <c r="G131" s="2"/>
       <c r="H131" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I131" s="2">
         <v>0</v>
@@ -7749,7 +7476,7 @@
       </c>
       <c r="G132" s="2"/>
       <c r="H132" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I132" s="2">
         <v>0</v>
@@ -7780,7 +7507,7 @@
       </c>
       <c r="G133" s="2"/>
       <c r="H133" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I133" s="2">
         <v>0</v>
@@ -7811,7 +7538,7 @@
       </c>
       <c r="G134" s="2"/>
       <c r="H134" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I134" s="2">
         <v>0</v>
@@ -7842,7 +7569,7 @@
       </c>
       <c r="G135" s="2"/>
       <c r="H135" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I135" s="2">
         <v>0</v>
@@ -7873,7 +7600,7 @@
       </c>
       <c r="G136" s="2"/>
       <c r="H136" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I136" s="2">
         <v>0</v>
@@ -7904,7 +7631,7 @@
       </c>
       <c r="G137" s="2"/>
       <c r="H137" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I137" s="2">
         <v>0</v>
@@ -7935,7 +7662,7 @@
       </c>
       <c r="G138" s="2"/>
       <c r="H138" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I138" s="2">
         <v>0</v>
@@ -7966,7 +7693,7 @@
       </c>
       <c r="G139" s="2"/>
       <c r="H139" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I139" s="2">
         <v>0</v>
@@ -7997,7 +7724,7 @@
       </c>
       <c r="G140" s="2"/>
       <c r="H140" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I140" s="2">
         <v>0</v>
@@ -8028,7 +7755,7 @@
       </c>
       <c r="G141" s="2"/>
       <c r="H141" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I141" s="2">
         <v>0</v>
@@ -8059,7 +7786,7 @@
       </c>
       <c r="G142" s="2"/>
       <c r="H142" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I142" s="2">
         <v>0</v>
@@ -8090,7 +7817,7 @@
       </c>
       <c r="G143" s="2"/>
       <c r="H143" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I143" s="2">
         <v>0</v>
@@ -8121,7 +7848,7 @@
       </c>
       <c r="G144" s="2"/>
       <c r="H144" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I144" s="2">
         <v>0</v>
@@ -8152,7 +7879,7 @@
       </c>
       <c r="G145" s="2"/>
       <c r="H145" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I145" s="2">
         <v>0</v>
@@ -8183,7 +7910,7 @@
       </c>
       <c r="G146" s="2"/>
       <c r="H146" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I146" s="2">
         <v>0</v>
@@ -8214,7 +7941,7 @@
       </c>
       <c r="G147" s="2"/>
       <c r="H147" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I147" s="2">
         <v>0</v>
@@ -8245,7 +7972,7 @@
       </c>
       <c r="G148" s="2"/>
       <c r="H148" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I148" s="2">
         <v>0</v>
@@ -8276,7 +8003,7 @@
       </c>
       <c r="G149" s="2"/>
       <c r="H149" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I149" s="2">
         <v>0</v>
@@ -8307,7 +8034,7 @@
       </c>
       <c r="G150" s="2"/>
       <c r="H150" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I150" s="2">
         <v>0</v>
@@ -8338,7 +8065,7 @@
       </c>
       <c r="G151" s="2"/>
       <c r="H151" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I151" s="2">
         <v>0</v>
@@ -8369,7 +8096,7 @@
       </c>
       <c r="G152" s="2"/>
       <c r="H152" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I152" s="2">
         <v>0</v>
@@ -8400,7 +8127,7 @@
       </c>
       <c r="G153" s="2"/>
       <c r="H153" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I153" s="2">
         <v>0</v>
@@ -8431,7 +8158,7 @@
       </c>
       <c r="G154" s="2"/>
       <c r="H154" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I154" s="2">
         <v>0</v>
@@ -8462,7 +8189,7 @@
       </c>
       <c r="G155" s="2"/>
       <c r="H155" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I155" s="2">
         <v>0</v>
@@ -8493,7 +8220,7 @@
       </c>
       <c r="G156" s="2"/>
       <c r="H156" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I156" s="2">
         <v>0</v>
@@ -8524,7 +8251,7 @@
       </c>
       <c r="G157" s="2"/>
       <c r="H157" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I157" s="2">
         <v>0</v>
@@ -8555,7 +8282,7 @@
       </c>
       <c r="G158" s="2"/>
       <c r="H158" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I158" s="2">
         <v>0</v>
@@ -8586,7 +8313,7 @@
       </c>
       <c r="G159" s="2"/>
       <c r="H159" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I159" s="2">
         <v>0</v>
@@ -8617,7 +8344,7 @@
       </c>
       <c r="G160" s="2"/>
       <c r="H160" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I160" s="2">
         <v>0</v>
@@ -8648,7 +8375,7 @@
       </c>
       <c r="G161" s="2"/>
       <c r="H161" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I161" s="2">
         <v>0</v>
@@ -8679,7 +8406,7 @@
       </c>
       <c r="G162" s="2"/>
       <c r="H162" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I162" s="2">
         <v>0</v>
@@ -8710,7 +8437,7 @@
       </c>
       <c r="G163" s="2"/>
       <c r="H163" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I163" s="2">
         <v>0</v>
@@ -8741,7 +8468,7 @@
       </c>
       <c r="G164" s="2"/>
       <c r="H164" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I164" s="2">
         <v>0</v>
@@ -8772,7 +8499,7 @@
       </c>
       <c r="G165" s="2"/>
       <c r="H165" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I165" s="2">
         <v>0</v>
@@ -8803,7 +8530,7 @@
       </c>
       <c r="G166" s="2"/>
       <c r="H166" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I166" s="2">
         <v>0</v>
@@ -8834,7 +8561,7 @@
       </c>
       <c r="G167" s="2"/>
       <c r="H167" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I167" s="2">
         <v>0</v>
@@ -8865,7 +8592,7 @@
       </c>
       <c r="G168" s="2"/>
       <c r="H168" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I168" s="2">
         <v>0</v>
@@ -8896,7 +8623,7 @@
       </c>
       <c r="G169" s="2"/>
       <c r="H169" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I169" s="2">
         <v>0</v>
@@ -8927,7 +8654,7 @@
       </c>
       <c r="G170" s="2"/>
       <c r="H170" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I170" s="2">
         <v>0</v>
@@ -8958,7 +8685,7 @@
       </c>
       <c r="G171" s="2"/>
       <c r="H171" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I171" s="2">
         <v>0</v>
@@ -8989,7 +8716,7 @@
       </c>
       <c r="G172" s="2"/>
       <c r="H172" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I172" s="2">
         <v>0</v>
@@ -9020,7 +8747,7 @@
       </c>
       <c r="G173" s="2"/>
       <c r="H173" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I173" s="2">
         <v>0</v>
@@ -9051,7 +8778,7 @@
       </c>
       <c r="G174" s="2"/>
       <c r="H174" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I174" s="2">
         <v>0</v>
@@ -9082,7 +8809,7 @@
       </c>
       <c r="G175" s="2"/>
       <c r="H175" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I175" s="2">
         <v>0</v>
@@ -9113,7 +8840,7 @@
       </c>
       <c r="G176" s="2"/>
       <c r="H176" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I176" s="2">
         <v>0</v>
@@ -9144,7 +8871,7 @@
       </c>
       <c r="G177" s="2"/>
       <c r="H177" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I177" s="2">
         <v>0</v>
@@ -9175,7 +8902,7 @@
       </c>
       <c r="G178" s="2"/>
       <c r="H178" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I178" s="2">
         <v>0</v>
@@ -9206,7 +8933,7 @@
       </c>
       <c r="G179" s="2"/>
       <c r="H179" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I179" s="2">
         <v>0</v>
@@ -9237,7 +8964,7 @@
       </c>
       <c r="G180" s="2"/>
       <c r="H180" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I180" s="2">
         <v>0</v>
@@ -9268,7 +8995,7 @@
       </c>
       <c r="G181" s="2"/>
       <c r="H181" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I181" s="2">
         <v>0</v>
@@ -9299,7 +9026,7 @@
       </c>
       <c r="G182" s="2"/>
       <c r="H182" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I182" s="2">
         <v>0</v>
@@ -9330,7 +9057,7 @@
       </c>
       <c r="G183" s="2"/>
       <c r="H183" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I183" s="2">
         <v>0</v>
@@ -9361,7 +9088,7 @@
       </c>
       <c r="G184" s="2"/>
       <c r="H184" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I184" s="2">
         <v>0</v>
@@ -9392,7 +9119,7 @@
       </c>
       <c r="G185" s="2"/>
       <c r="H185" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I185" s="2">
         <v>0</v>
@@ -9423,7 +9150,7 @@
       </c>
       <c r="G186" s="2"/>
       <c r="H186" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I186" s="2">
         <v>0</v>
@@ -9454,7 +9181,7 @@
       </c>
       <c r="G187" s="2"/>
       <c r="H187" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I187" s="2">
         <v>0</v>
@@ -9485,7 +9212,7 @@
       </c>
       <c r="G188" s="2"/>
       <c r="H188" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I188" s="2">
         <v>0</v>
@@ -9516,7 +9243,7 @@
       </c>
       <c r="G189" s="2"/>
       <c r="H189" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I189" s="2">
         <v>0</v>
@@ -9547,7 +9274,7 @@
       </c>
       <c r="G190" s="2"/>
       <c r="H190" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I190" s="2">
         <v>0</v>
@@ -9578,7 +9305,7 @@
       </c>
       <c r="G191" s="2"/>
       <c r="H191" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I191" s="2">
         <v>0</v>
@@ -9609,7 +9336,7 @@
       </c>
       <c r="G192" s="2"/>
       <c r="H192" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I192" s="2">
         <v>0</v>
@@ -9640,7 +9367,7 @@
       </c>
       <c r="G193" s="2"/>
       <c r="H193" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I193" s="2">
         <v>0</v>
@@ -9671,7 +9398,7 @@
       </c>
       <c r="G194" s="2"/>
       <c r="H194" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I194" s="2">
         <v>0</v>
@@ -9702,7 +9429,7 @@
       </c>
       <c r="G195" s="2"/>
       <c r="H195" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I195" s="2">
         <v>0</v>
@@ -9733,7 +9460,7 @@
       </c>
       <c r="G196" s="2"/>
       <c r="H196" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I196" s="2">
         <v>0</v>
@@ -9764,7 +9491,7 @@
       </c>
       <c r="G197" s="2"/>
       <c r="H197" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I197" s="2">
         <v>0</v>
@@ -9795,7 +9522,7 @@
       </c>
       <c r="G198" s="2"/>
       <c r="H198" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I198" s="2">
         <v>0</v>
@@ -9826,7 +9553,7 @@
       </c>
       <c r="G199" s="2"/>
       <c r="H199" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I199" s="2">
         <v>0</v>
@@ -9857,7 +9584,7 @@
       </c>
       <c r="G200" s="2"/>
       <c r="H200" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I200" s="2">
         <v>0</v>
@@ -9888,7 +9615,7 @@
       </c>
       <c r="G201" s="2"/>
       <c r="H201" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I201" s="2">
         <v>0</v>
@@ -9919,7 +9646,7 @@
       </c>
       <c r="G202" s="2"/>
       <c r="H202" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I202" s="2">
         <v>0</v>
@@ -9950,7 +9677,7 @@
       </c>
       <c r="G203" s="2"/>
       <c r="H203" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I203" s="2">
         <v>0</v>
@@ -9981,7 +9708,7 @@
       </c>
       <c r="G204" s="2"/>
       <c r="H204" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I204" s="2">
         <v>0</v>
@@ -10012,7 +9739,7 @@
       </c>
       <c r="G205" s="2"/>
       <c r="H205" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I205" s="2">
         <v>0</v>
@@ -10043,7 +9770,7 @@
       </c>
       <c r="G206" s="2"/>
       <c r="H206" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I206" s="2">
         <v>0</v>
@@ -10074,7 +9801,7 @@
       </c>
       <c r="G207" s="2"/>
       <c r="H207" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I207" s="2">
         <v>0</v>
@@ -10105,7 +9832,7 @@
       </c>
       <c r="G208" s="2"/>
       <c r="H208" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I208" s="2">
         <v>0</v>
@@ -10136,7 +9863,7 @@
       </c>
       <c r="G209" s="2"/>
       <c r="H209" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I209" s="2">
         <v>0</v>
@@ -10167,7 +9894,7 @@
       </c>
       <c r="G210" s="2"/>
       <c r="H210" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I210" s="2">
         <v>0</v>
@@ -10198,7 +9925,7 @@
       </c>
       <c r="G211" s="2"/>
       <c r="H211" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I211" s="2">
         <v>0</v>
@@ -10229,7 +9956,7 @@
       </c>
       <c r="G212" s="2"/>
       <c r="H212" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I212" s="2">
         <v>0</v>
@@ -10260,7 +9987,7 @@
       </c>
       <c r="G213" s="2"/>
       <c r="H213" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I213" s="2">
         <v>0</v>
@@ -10291,7 +10018,7 @@
       </c>
       <c r="G214" s="2"/>
       <c r="H214" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I214" s="2">
         <v>0</v>
@@ -10322,7 +10049,7 @@
       </c>
       <c r="G215" s="2"/>
       <c r="H215" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I215" s="2">
         <v>0</v>
@@ -10353,7 +10080,7 @@
       </c>
       <c r="G216" s="2"/>
       <c r="H216" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I216" s="2">
         <v>0</v>
@@ -10384,7 +10111,7 @@
       </c>
       <c r="G217" s="2"/>
       <c r="H217" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I217" s="2">
         <v>0</v>
@@ -10415,7 +10142,7 @@
       </c>
       <c r="G218" s="2"/>
       <c r="H218" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I218" s="2">
         <v>0</v>
@@ -10446,7 +10173,7 @@
       </c>
       <c r="G219" s="2"/>
       <c r="H219" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I219" s="2">
         <v>0</v>
@@ -10477,7 +10204,7 @@
       </c>
       <c r="G220" s="2"/>
       <c r="H220" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I220" s="2">
         <v>0</v>
@@ -10508,7 +10235,7 @@
       </c>
       <c r="G221" s="2"/>
       <c r="H221" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I221" s="2">
         <v>0</v>
@@ -10539,7 +10266,7 @@
       </c>
       <c r="G222" s="2"/>
       <c r="H222" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I222" s="2">
         <v>0</v>
@@ -10570,7 +10297,7 @@
       </c>
       <c r="G223" s="2"/>
       <c r="H223" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I223" s="2">
         <v>0</v>
@@ -10601,7 +10328,7 @@
       </c>
       <c r="G224" s="2"/>
       <c r="H224" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I224" s="2">
         <v>0</v>
@@ -10632,7 +10359,7 @@
       </c>
       <c r="G225" s="2"/>
       <c r="H225" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I225" s="2">
         <v>0</v>
@@ -10663,7 +10390,7 @@
       </c>
       <c r="G226" s="2"/>
       <c r="H226" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I226" s="2">
         <v>0</v>
@@ -10694,7 +10421,7 @@
       </c>
       <c r="G227" s="2"/>
       <c r="H227" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I227" s="2">
         <v>0</v>
@@ -10725,7 +10452,7 @@
       </c>
       <c r="G228" s="2"/>
       <c r="H228" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I228" s="2">
         <v>0</v>
@@ -10756,7 +10483,7 @@
       </c>
       <c r="G229" s="2"/>
       <c r="H229" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I229" s="2">
         <v>0</v>
@@ -10787,7 +10514,7 @@
       </c>
       <c r="G230" s="2"/>
       <c r="H230" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I230" s="2">
         <v>0</v>
@@ -10818,7 +10545,7 @@
       </c>
       <c r="G231" s="2"/>
       <c r="H231" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I231" s="2">
         <v>0</v>
@@ -10849,7 +10576,7 @@
       </c>
       <c r="G232" s="2"/>
       <c r="H232" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I232" s="2">
         <v>0</v>
@@ -10880,7 +10607,7 @@
       </c>
       <c r="G233" s="2"/>
       <c r="H233" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I233" s="2">
         <v>0</v>
@@ -10911,7 +10638,7 @@
       </c>
       <c r="G234" s="2"/>
       <c r="H234" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I234" s="2">
         <v>0</v>
@@ -10942,7 +10669,7 @@
       </c>
       <c r="G235" s="2"/>
       <c r="H235" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I235" s="2">
         <v>0</v>
@@ -10973,7 +10700,7 @@
       </c>
       <c r="G236" s="2"/>
       <c r="H236" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I236" s="2">
         <v>0</v>
@@ -11004,7 +10731,7 @@
       </c>
       <c r="G237" s="2"/>
       <c r="H237" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I237" s="2">
         <v>0</v>
@@ -11035,7 +10762,7 @@
       </c>
       <c r="G238" s="2"/>
       <c r="H238" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I238" s="2">
         <v>0</v>
@@ -11066,7 +10793,7 @@
       </c>
       <c r="G239" s="2"/>
       <c r="H239" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I239" s="2">
         <v>0</v>
@@ -11097,7 +10824,7 @@
       </c>
       <c r="G240" s="2"/>
       <c r="H240" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I240" s="2">
         <v>0</v>
@@ -11128,7 +10855,7 @@
       </c>
       <c r="G241" s="2"/>
       <c r="H241" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I241" s="2">
         <v>0</v>
@@ -11159,7 +10886,7 @@
       </c>
       <c r="G242" s="2"/>
       <c r="H242" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I242" s="2">
         <v>0</v>
@@ -11190,7 +10917,7 @@
       </c>
       <c r="G243" s="2"/>
       <c r="H243" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I243" s="2">
         <v>0</v>
@@ -11221,7 +10948,7 @@
       </c>
       <c r="G244" s="2"/>
       <c r="H244" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I244" s="2">
         <v>0</v>
@@ -11252,7 +10979,7 @@
       </c>
       <c r="G245" s="2"/>
       <c r="H245" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I245" s="2">
         <v>0</v>
@@ -11283,7 +11010,7 @@
       </c>
       <c r="G246" s="2"/>
       <c r="H246" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I246" s="2">
         <v>0</v>
@@ -11314,7 +11041,7 @@
       </c>
       <c r="G247" s="2"/>
       <c r="H247" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I247" s="2">
         <v>0</v>
@@ -11345,7 +11072,7 @@
       </c>
       <c r="G248" s="2"/>
       <c r="H248" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I248" s="2">
         <v>0</v>
@@ -11376,7 +11103,7 @@
       </c>
       <c r="G249" s="2"/>
       <c r="H249" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I249" s="2">
         <v>0</v>
@@ -11407,7 +11134,7 @@
       </c>
       <c r="G250" s="2"/>
       <c r="H250" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I250" s="2">
         <v>0</v>
@@ -11438,7 +11165,7 @@
       </c>
       <c r="G251" s="2"/>
       <c r="H251" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I251" s="2">
         <v>0</v>
@@ -11469,7 +11196,7 @@
       </c>
       <c r="G252" s="2"/>
       <c r="H252" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I252" s="2">
         <v>0</v>
@@ -11500,7 +11227,7 @@
       </c>
       <c r="G253" s="2"/>
       <c r="H253" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I253" s="2">
         <v>0</v>
@@ -11531,7 +11258,7 @@
       </c>
       <c r="G254" s="2"/>
       <c r="H254" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I254" s="2">
         <v>0</v>
@@ -11562,7 +11289,7 @@
       </c>
       <c r="G255" s="2"/>
       <c r="H255" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I255" s="2">
         <v>0</v>
@@ -11593,7 +11320,7 @@
       </c>
       <c r="G256" s="2"/>
       <c r="H256" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I256" s="2">
         <v>0</v>
@@ -11624,7 +11351,7 @@
       </c>
       <c r="G257" s="2"/>
       <c r="H257" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I257" s="2">
         <v>0</v>
@@ -11655,7 +11382,7 @@
       </c>
       <c r="G258" s="2"/>
       <c r="H258" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I258" s="2">
         <v>0</v>
@@ -11686,7 +11413,7 @@
       </c>
       <c r="G259" s="2"/>
       <c r="H259" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I259" s="2">
         <v>0</v>
@@ -11717,7 +11444,7 @@
       </c>
       <c r="G260" s="2"/>
       <c r="H260" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I260" s="2">
         <v>0</v>
@@ -11748,7 +11475,7 @@
       </c>
       <c r="G261" s="2"/>
       <c r="H261" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I261" s="2">
         <v>0</v>
@@ -11779,7 +11506,7 @@
       </c>
       <c r="G262" s="2"/>
       <c r="H262" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I262" s="2">
         <v>0</v>
@@ -11810,7 +11537,7 @@
       </c>
       <c r="G263" s="2"/>
       <c r="H263" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I263" s="2">
         <v>0</v>
@@ -11841,7 +11568,7 @@
       </c>
       <c r="G264" s="2"/>
       <c r="H264" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I264" s="2">
         <v>0</v>
@@ -11872,7 +11599,7 @@
       </c>
       <c r="G265" s="2"/>
       <c r="H265" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I265" s="2">
         <v>0</v>
@@ -11903,7 +11630,7 @@
       </c>
       <c r="G266" s="2"/>
       <c r="H266" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I266" s="2">
         <v>0</v>
@@ -11934,7 +11661,7 @@
       </c>
       <c r="G267" s="2"/>
       <c r="H267" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I267" s="2">
         <v>0</v>
@@ -11965,7 +11692,7 @@
       </c>
       <c r="G268" s="2"/>
       <c r="H268" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I268" s="2">
         <v>0</v>
@@ -11996,7 +11723,7 @@
       </c>
       <c r="G269" s="2"/>
       <c r="H269" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I269" s="2">
         <v>0</v>
@@ -12027,7 +11754,7 @@
       </c>
       <c r="G270" s="2"/>
       <c r="H270" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I270" s="2">
         <v>0</v>
@@ -12058,7 +11785,7 @@
       </c>
       <c r="G271" s="2"/>
       <c r="H271" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I271" s="2">
         <v>0</v>
@@ -12089,7 +11816,7 @@
       </c>
       <c r="G272" s="2"/>
       <c r="H272" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I272" s="2">
         <v>0</v>
@@ -12120,7 +11847,7 @@
       </c>
       <c r="G273" s="2"/>
       <c r="H273" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I273" s="2">
         <v>0</v>
@@ -12151,7 +11878,7 @@
       </c>
       <c r="G274" s="2"/>
       <c r="H274" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I274" s="2">
         <v>0</v>
@@ -12182,7 +11909,7 @@
       </c>
       <c r="G275" s="2"/>
       <c r="H275" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I275" s="2">
         <v>0</v>
@@ -12213,7 +11940,7 @@
       </c>
       <c r="G276" s="2"/>
       <c r="H276" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I276" s="2">
         <v>0</v>
@@ -12244,7 +11971,7 @@
       </c>
       <c r="G277" s="2"/>
       <c r="H277" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I277" s="2">
         <v>0</v>
@@ -12275,7 +12002,7 @@
       </c>
       <c r="G278" s="2"/>
       <c r="H278" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I278" s="2">
         <v>0</v>
@@ -12306,7 +12033,7 @@
       </c>
       <c r="G279" s="2"/>
       <c r="H279" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I279" s="2">
         <v>0</v>
@@ -12337,7 +12064,7 @@
       </c>
       <c r="G280" s="2"/>
       <c r="H280" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I280" s="2">
         <v>0</v>
@@ -12368,7 +12095,7 @@
       </c>
       <c r="G281" s="2"/>
       <c r="H281" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I281" s="2">
         <v>0</v>
@@ -12399,7 +12126,7 @@
       </c>
       <c r="G282" s="2"/>
       <c r="H282" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I282" s="2">
         <v>0</v>
@@ -12430,7 +12157,7 @@
       </c>
       <c r="G283" s="2"/>
       <c r="H283" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I283" s="2">
         <v>0</v>
@@ -12461,7 +12188,7 @@
       </c>
       <c r="G284" s="2"/>
       <c r="H284" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I284" s="2">
         <v>0</v>
@@ -12492,7 +12219,7 @@
       </c>
       <c r="G285" s="2"/>
       <c r="H285" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I285" s="2">
         <v>0</v>
@@ -12523,7 +12250,7 @@
       </c>
       <c r="G286" s="2"/>
       <c r="H286" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I286" s="2">
         <v>0</v>
@@ -12554,7 +12281,7 @@
       </c>
       <c r="G287" s="2"/>
       <c r="H287" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I287" s="2">
         <v>0</v>
@@ -12585,7 +12312,7 @@
       </c>
       <c r="G288" s="2"/>
       <c r="H288" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I288" s="2">
         <v>0</v>
@@ -12616,7 +12343,7 @@
       </c>
       <c r="G289" s="2"/>
       <c r="H289" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I289" s="2">
         <v>0</v>
@@ -12647,7 +12374,7 @@
       </c>
       <c r="G290" s="2"/>
       <c r="H290" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I290" s="2">
         <v>0</v>
@@ -12678,7 +12405,7 @@
       </c>
       <c r="G291" s="2"/>
       <c r="H291" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I291" s="2">
         <v>0</v>
@@ -12709,7 +12436,7 @@
       </c>
       <c r="G292" s="2"/>
       <c r="H292" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I292" s="2">
         <v>0</v>
@@ -12740,7 +12467,7 @@
       </c>
       <c r="G293" s="2"/>
       <c r="H293" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I293" s="2">
         <v>0</v>
@@ -12771,7 +12498,7 @@
       </c>
       <c r="G294" s="2"/>
       <c r="H294" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I294" s="2">
         <v>0</v>
@@ -12802,7 +12529,7 @@
       </c>
       <c r="G295" s="2"/>
       <c r="H295" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I295" s="2">
         <v>0</v>
@@ -12833,7 +12560,7 @@
       </c>
       <c r="G296" s="2"/>
       <c r="H296" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I296" s="2">
         <v>0</v>
@@ -12864,7 +12591,7 @@
       </c>
       <c r="G297" s="2"/>
       <c r="H297" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I297" s="2">
         <v>0</v>
@@ -12895,7 +12622,7 @@
       </c>
       <c r="G298" s="2"/>
       <c r="H298" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I298" s="2">
         <v>0</v>
@@ -12926,7 +12653,7 @@
       </c>
       <c r="G299" s="2"/>
       <c r="H299" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I299" s="2">
         <v>0</v>
@@ -12957,7 +12684,7 @@
       </c>
       <c r="G300" s="2"/>
       <c r="H300" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I300" s="2">
         <v>0</v>
@@ -12988,7 +12715,7 @@
       </c>
       <c r="G301" s="2"/>
       <c r="H301" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I301" s="2">
         <v>0</v>
@@ -13019,7 +12746,7 @@
       </c>
       <c r="G302" s="2"/>
       <c r="H302" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I302" s="2">
         <v>0</v>
@@ -13050,7 +12777,7 @@
       </c>
       <c r="G303" s="2"/>
       <c r="H303" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I303" s="2">
         <v>0</v>
@@ -13081,7 +12808,7 @@
       </c>
       <c r="G304" s="2"/>
       <c r="H304" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I304" s="2">
         <v>0</v>
@@ -13112,7 +12839,7 @@
       </c>
       <c r="G305" s="2"/>
       <c r="H305" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I305" s="2">
         <v>0</v>
@@ -13143,7 +12870,7 @@
       </c>
       <c r="G306" s="2"/>
       <c r="H306" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I306" s="2">
         <v>0</v>
@@ -13174,7 +12901,7 @@
       </c>
       <c r="G307" s="2"/>
       <c r="H307" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I307" s="2">
         <v>0</v>
@@ -13205,7 +12932,7 @@
       </c>
       <c r="G308" s="2"/>
       <c r="H308" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I308" s="2">
         <v>0</v>
@@ -13236,7 +12963,7 @@
       </c>
       <c r="G309" s="2"/>
       <c r="H309" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I309" s="2">
         <v>0</v>
@@ -13267,7 +12994,7 @@
       </c>
       <c r="G310" s="2"/>
       <c r="H310" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I310" s="2">
         <v>0</v>
@@ -13298,7 +13025,7 @@
       </c>
       <c r="G311" s="2"/>
       <c r="H311" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I311" s="2">
         <v>0</v>
@@ -13329,7 +13056,7 @@
       </c>
       <c r="G312" s="2"/>
       <c r="H312" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I312" s="2">
         <v>0</v>
@@ -13360,7 +13087,7 @@
       </c>
       <c r="G313" s="2"/>
       <c r="H313" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I313" s="2">
         <v>0</v>
@@ -13391,7 +13118,7 @@
       </c>
       <c r="G314" s="2"/>
       <c r="H314" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I314" s="2">
         <v>0</v>
@@ -13422,7 +13149,7 @@
       </c>
       <c r="G315" s="2"/>
       <c r="H315" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I315" s="2">
         <v>0</v>
@@ -13453,7 +13180,7 @@
       </c>
       <c r="G316" s="2"/>
       <c r="H316" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I316" s="2">
         <v>0</v>
@@ -13484,7 +13211,7 @@
       </c>
       <c r="G317" s="2"/>
       <c r="H317" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I317" s="2">
         <v>0</v>
@@ -13515,7 +13242,7 @@
       </c>
       <c r="G318" s="2"/>
       <c r="H318" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I318" s="2">
         <v>0</v>
@@ -13546,7 +13273,7 @@
       </c>
       <c r="G319" s="2"/>
       <c r="H319" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I319" s="2">
         <v>0</v>
@@ -13577,7 +13304,7 @@
       </c>
       <c r="G320" s="2"/>
       <c r="H320" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I320" s="2">
         <v>0</v>
@@ -13608,7 +13335,7 @@
       </c>
       <c r="G321" s="2"/>
       <c r="H321" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I321" s="2">
         <v>0</v>
@@ -13639,7 +13366,7 @@
       </c>
       <c r="G322" s="2"/>
       <c r="H322" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I322" s="2">
         <v>0</v>
@@ -13670,7 +13397,7 @@
       </c>
       <c r="G323" s="2"/>
       <c r="H323" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I323" s="2">
         <v>0</v>
@@ -13701,7 +13428,7 @@
       </c>
       <c r="G324" s="2"/>
       <c r="H324" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I324" s="2">
         <v>0</v>
@@ -13732,7 +13459,7 @@
       </c>
       <c r="G325" s="2"/>
       <c r="H325" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I325" s="2">
         <v>0</v>
@@ -13763,7 +13490,7 @@
       </c>
       <c r="G326" s="2"/>
       <c r="H326" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I326" s="2">
         <v>0</v>
@@ -13794,7 +13521,7 @@
       </c>
       <c r="G327" s="2"/>
       <c r="H327" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I327" s="2">
         <v>0</v>
@@ -13825,7 +13552,7 @@
       </c>
       <c r="G328" s="2"/>
       <c r="H328" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I328" s="2">
         <v>0</v>
@@ -13856,7 +13583,7 @@
       </c>
       <c r="G329" s="2"/>
       <c r="H329" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I329" s="2">
         <v>0</v>
@@ -13887,7 +13614,7 @@
       </c>
       <c r="G330" s="2"/>
       <c r="H330" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I330" s="2">
         <v>0</v>
@@ -13918,7 +13645,7 @@
       </c>
       <c r="G331" s="2"/>
       <c r="H331" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I331" s="2">
         <v>0</v>
@@ -13949,7 +13676,7 @@
       </c>
       <c r="G332" s="2"/>
       <c r="H332" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I332" s="2">
         <v>0</v>
@@ -13980,7 +13707,7 @@
       </c>
       <c r="G333" s="2"/>
       <c r="H333" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I333" s="2">
         <v>0</v>
@@ -14011,7 +13738,7 @@
       </c>
       <c r="G334" s="2"/>
       <c r="H334" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I334" s="2">
         <v>0</v>
@@ -14042,7 +13769,7 @@
       </c>
       <c r="G335" s="2"/>
       <c r="H335" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I335" s="2">
         <v>0</v>
@@ -14073,7 +13800,7 @@
       </c>
       <c r="G336" s="2"/>
       <c r="H336" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I336" s="2">
         <v>0</v>
@@ -14104,7 +13831,7 @@
       </c>
       <c r="G337" s="2"/>
       <c r="H337" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I337" s="2">
         <v>0</v>
@@ -14135,7 +13862,7 @@
       </c>
       <c r="G338" s="2"/>
       <c r="H338" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I338" s="2">
         <v>0</v>
@@ -14166,7 +13893,7 @@
       </c>
       <c r="G339" s="2"/>
       <c r="H339" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I339" s="2">
         <v>0</v>
@@ -14197,7 +13924,7 @@
       </c>
       <c r="G340" s="2"/>
       <c r="H340" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I340" s="2">
         <v>0</v>
@@ -14228,7 +13955,7 @@
       </c>
       <c r="G341" s="2"/>
       <c r="H341" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I341" s="2">
         <v>0</v>
@@ -14259,7 +13986,7 @@
       </c>
       <c r="G342" s="2"/>
       <c r="H342" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I342" s="2">
         <v>0</v>
@@ -14290,7 +14017,7 @@
       </c>
       <c r="G343" s="2"/>
       <c r="H343" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I343" s="2">
         <v>0</v>
@@ -14321,7 +14048,7 @@
       </c>
       <c r="G344" s="2"/>
       <c r="H344" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I344" s="2">
         <v>0</v>
@@ -14352,7 +14079,7 @@
       </c>
       <c r="G345" s="2"/>
       <c r="H345" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I345" s="2">
         <v>0</v>
@@ -14383,7 +14110,7 @@
       </c>
       <c r="G346" s="2"/>
       <c r="H346" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I346" s="2">
         <v>0</v>
@@ -14414,7 +14141,7 @@
       </c>
       <c r="G347" s="2"/>
       <c r="H347" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I347" s="2">
         <v>0</v>
@@ -14445,7 +14172,7 @@
       </c>
       <c r="G348" s="2"/>
       <c r="H348" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I348" s="2">
         <v>0</v>
@@ -14476,7 +14203,7 @@
       </c>
       <c r="G349" s="2"/>
       <c r="H349" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I349" s="2">
         <v>0</v>
@@ -14507,7 +14234,7 @@
       </c>
       <c r="G350" s="2"/>
       <c r="H350" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I350" s="2">
         <v>0</v>
@@ -14538,7 +14265,7 @@
       </c>
       <c r="G351" s="2"/>
       <c r="H351" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I351" s="2">
         <v>0</v>
@@ -14569,7 +14296,7 @@
       </c>
       <c r="G352" s="2"/>
       <c r="H352" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I352" s="2">
         <v>0</v>
@@ -14600,7 +14327,7 @@
       </c>
       <c r="G353" s="2"/>
       <c r="H353" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I353" s="2">
         <v>0</v>
@@ -14631,7 +14358,7 @@
       </c>
       <c r="G354" s="2"/>
       <c r="H354" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I354" s="2">
         <v>0</v>
@@ -14662,7 +14389,7 @@
       </c>
       <c r="G355" s="2"/>
       <c r="H355" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I355" s="2">
         <v>0</v>
@@ -14693,7 +14420,7 @@
       </c>
       <c r="G356" s="2"/>
       <c r="H356" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I356" s="2">
         <v>0</v>
@@ -14724,7 +14451,7 @@
       </c>
       <c r="G357" s="2"/>
       <c r="H357" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I357" s="2">
         <v>0</v>
@@ -14755,7 +14482,7 @@
       </c>
       <c r="G358" s="2"/>
       <c r="H358" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I358" s="2">
         <v>0</v>
@@ -14786,7 +14513,7 @@
       </c>
       <c r="G359" s="2"/>
       <c r="H359" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I359" s="2">
         <v>0</v>
@@ -14817,7 +14544,7 @@
       </c>
       <c r="G360" s="2"/>
       <c r="H360" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I360" s="2">
         <v>0</v>
@@ -14848,7 +14575,7 @@
       </c>
       <c r="G361" s="2"/>
       <c r="H361" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I361" s="2">
         <v>0</v>
@@ -14879,7 +14606,7 @@
       </c>
       <c r="G362" s="2"/>
       <c r="H362" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I362" s="2">
         <v>0</v>
@@ -14910,7 +14637,7 @@
       </c>
       <c r="G363" s="2"/>
       <c r="H363" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I363" s="2">
         <v>0</v>
@@ -14941,7 +14668,7 @@
       </c>
       <c r="G364" s="2"/>
       <c r="H364" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I364" s="2">
         <v>0</v>
@@ -14972,7 +14699,7 @@
       </c>
       <c r="G365" s="2"/>
       <c r="H365" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I365" s="2">
         <v>0</v>
@@ -15003,7 +14730,7 @@
       </c>
       <c r="G366" s="2"/>
       <c r="H366" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I366" s="2">
         <v>0</v>
@@ -15034,7 +14761,7 @@
       </c>
       <c r="G367" s="2"/>
       <c r="H367" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I367" s="2">
         <v>0</v>
@@ -15065,7 +14792,7 @@
       </c>
       <c r="G368" s="2"/>
       <c r="H368" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I368" s="2">
         <v>0</v>
@@ -15096,7 +14823,7 @@
       </c>
       <c r="G369" s="2"/>
       <c r="H369" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I369" s="2">
         <v>0</v>
@@ -15127,7 +14854,7 @@
       </c>
       <c r="G370" s="2"/>
       <c r="H370" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I370" s="2">
         <v>0</v>
@@ -15158,7 +14885,7 @@
       </c>
       <c r="G371" s="2"/>
       <c r="H371" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I371" s="2">
         <v>0</v>
@@ -15189,7 +14916,7 @@
       </c>
       <c r="G372" s="2"/>
       <c r="H372" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I372" s="2">
         <v>0</v>
@@ -15220,7 +14947,7 @@
       </c>
       <c r="G373" s="2"/>
       <c r="H373" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I373" s="2">
         <v>0</v>
@@ -15251,7 +14978,7 @@
       </c>
       <c r="G374" s="2"/>
       <c r="H374" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I374" s="2">
         <v>0</v>
@@ -15282,7 +15009,7 @@
       </c>
       <c r="G375" s="2"/>
       <c r="H375" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I375" s="2">
         <v>0</v>
@@ -15313,7 +15040,7 @@
       </c>
       <c r="G376" s="2"/>
       <c r="H376" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I376" s="2">
         <v>0</v>
@@ -15344,7 +15071,7 @@
       </c>
       <c r="G377" s="2"/>
       <c r="H377" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I377" s="2">
         <v>0</v>
@@ -15375,7 +15102,7 @@
       </c>
       <c r="G378" s="2"/>
       <c r="H378" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I378" s="2">
         <v>0</v>
@@ -15406,7 +15133,7 @@
       </c>
       <c r="G379" s="2"/>
       <c r="H379" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I379" s="2">
         <v>0</v>
@@ -15437,7 +15164,7 @@
       </c>
       <c r="G380" s="2"/>
       <c r="H380" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I380" s="2">
         <v>0</v>
@@ -15468,7 +15195,7 @@
       </c>
       <c r="G381" s="2"/>
       <c r="H381" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I381" s="2">
         <v>0</v>
@@ -15499,7 +15226,7 @@
       </c>
       <c r="G382" s="2"/>
       <c r="H382" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I382" s="2">
         <v>0</v>
@@ -15530,7 +15257,7 @@
       </c>
       <c r="G383" s="2"/>
       <c r="H383" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I383" s="2">
         <v>0</v>
@@ -15561,7 +15288,7 @@
       </c>
       <c r="G384" s="2"/>
       <c r="H384" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I384" s="2">
         <v>0</v>
@@ -15592,7 +15319,7 @@
       </c>
       <c r="G385" s="2"/>
       <c r="H385" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I385" s="2">
         <v>0</v>
@@ -15623,7 +15350,7 @@
       </c>
       <c r="G386" s="2"/>
       <c r="H386" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I386" s="2">
         <v>0</v>
@@ -15654,7 +15381,7 @@
       </c>
       <c r="G387" s="2"/>
       <c r="H387" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I387" s="2">
         <v>0</v>
@@ -15685,7 +15412,7 @@
       </c>
       <c r="G388" s="2"/>
       <c r="H388" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I388" s="2">
         <v>0</v>
@@ -15716,7 +15443,7 @@
       </c>
       <c r="G389" s="2"/>
       <c r="H389" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I389" s="2">
         <v>0</v>
@@ -15747,7 +15474,7 @@
       </c>
       <c r="G390" s="2"/>
       <c r="H390" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I390" s="2">
         <v>0</v>
@@ -15778,7 +15505,7 @@
       </c>
       <c r="G391" s="2"/>
       <c r="H391" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I391" s="2">
         <v>0</v>
@@ -15809,7 +15536,7 @@
       </c>
       <c r="G392" s="2"/>
       <c r="H392" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I392" s="2">
         <v>0</v>
@@ -15840,7 +15567,7 @@
       </c>
       <c r="G393" s="2"/>
       <c r="H393" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I393" s="2">
         <v>0</v>
@@ -15871,7 +15598,7 @@
       </c>
       <c r="G394" s="2"/>
       <c r="H394" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I394" s="2">
         <v>0</v>
@@ -15902,7 +15629,7 @@
       </c>
       <c r="G395" s="2"/>
       <c r="H395" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I395" s="2">
         <v>0</v>
@@ -15933,7 +15660,7 @@
       </c>
       <c r="G396" s="2"/>
       <c r="H396" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I396" s="2">
         <v>0</v>
@@ -15964,7 +15691,7 @@
       </c>
       <c r="G397" s="2"/>
       <c r="H397" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I397" s="2">
         <v>0</v>
@@ -15995,7 +15722,7 @@
       </c>
       <c r="G398" s="2"/>
       <c r="H398" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I398" s="2">
         <v>0</v>
@@ -16026,7 +15753,7 @@
       </c>
       <c r="G399" s="2"/>
       <c r="H399" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I399" s="2">
         <v>0</v>
@@ -16057,7 +15784,7 @@
       </c>
       <c r="G400" s="2"/>
       <c r="H400" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I400" s="2">
         <v>0</v>
@@ -16088,7 +15815,7 @@
       </c>
       <c r="G401" s="2"/>
       <c r="H401" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I401" s="2">
         <v>0</v>
@@ -16119,7 +15846,7 @@
       </c>
       <c r="G402" s="2"/>
       <c r="H402" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I402" s="2">
         <v>0</v>
@@ -16150,7 +15877,7 @@
       </c>
       <c r="G403" s="2"/>
       <c r="H403" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I403" s="2">
         <v>0</v>
@@ -16616,22 +16343,22 @@
         <v>101</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="G4" s="2">
         <v>30</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>32</v>
@@ -16710,22 +16437,22 @@
         <v>101</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E5" s="2">
         <v>2</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="G5" s="2">
         <v>45</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>32</v>
@@ -16804,22 +16531,22 @@
         <v>101</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E6" s="2">
         <v>3</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="G6" s="2">
         <v>60</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>32</v>
@@ -16898,22 +16625,22 @@
         <v>101</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E7" s="2">
         <v>4</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="G7" s="2">
         <v>80</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>32</v>
@@ -16992,22 +16719,22 @@
         <v>101</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E8" s="2">
         <v>5</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="G8" s="2">
         <v>100</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>32</v>
@@ -17086,22 +16813,22 @@
         <v>102</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="G9" s="2">
         <v>30</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>32</v>
@@ -17180,22 +16907,22 @@
         <v>102</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E10" s="2">
         <v>2</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="G10" s="2">
         <v>45</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>32</v>
@@ -17274,22 +17001,22 @@
         <v>102</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E11" s="2">
         <v>3</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="G11" s="2">
         <v>60</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>32</v>
@@ -17368,22 +17095,22 @@
         <v>102</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E12" s="2">
         <v>4</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="G12" s="2">
         <v>80</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>32</v>
@@ -17462,22 +17189,22 @@
         <v>102</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E13" s="2">
         <v>5</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="G13" s="2">
         <v>100</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>32</v>
@@ -17556,22 +17283,22 @@
         <v>103</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="G14" s="2">
         <v>30</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>32</v>
@@ -17672,22 +17399,22 @@
         <v>103</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E15" s="2">
         <v>2</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="G15" s="2">
         <v>45</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>32</v>
@@ -17788,22 +17515,22 @@
         <v>103</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E16" s="2">
         <v>3</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="G16" s="2">
         <v>60</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>32</v>
@@ -17904,22 +17631,22 @@
         <v>103</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E17" s="2">
         <v>4</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="G17" s="2">
         <v>80</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>32</v>
@@ -18020,22 +17747,22 @@
         <v>103</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E18" s="2">
         <v>5</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="G18" s="2">
         <v>100</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>32</v>
@@ -18136,22 +17863,22 @@
         <v>201</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E19" s="2">
         <v>1</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="G19" s="2">
         <v>50</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>32</v>
@@ -18252,22 +17979,22 @@
         <v>201</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E20" s="2">
         <v>2</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="G20" s="2">
         <v>75</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>32</v>
@@ -18368,22 +18095,22 @@
         <v>201</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E21" s="2">
         <v>3</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="G21" s="2">
         <v>100</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>32</v>
@@ -18484,22 +18211,22 @@
         <v>201</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E22" s="2">
         <v>4</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="G22" s="2">
         <v>135</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>32</v>
@@ -18600,22 +18327,22 @@
         <v>201</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E23" s="2">
         <v>5</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="G23" s="2">
         <v>150</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>32</v>
@@ -18716,22 +18443,22 @@
         <v>202</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E24" s="2">
         <v>1</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="G24" s="2">
         <v>50</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>32</v>
@@ -18810,22 +18537,22 @@
         <v>202</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E25" s="2">
         <v>2</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="G25" s="2">
         <v>75</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>32</v>
@@ -18904,22 +18631,22 @@
         <v>202</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E26" s="2">
         <v>3</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="G26" s="2">
         <v>100</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>32</v>
@@ -18998,22 +18725,22 @@
         <v>202</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E27" s="2">
         <v>4</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="G27" s="2">
         <v>135</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>32</v>
@@ -19092,22 +18819,22 @@
         <v>202</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E28" s="2">
         <v>5</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="G28" s="2">
         <v>150</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>32</v>
@@ -19186,22 +18913,22 @@
         <v>203</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E29" s="2">
         <v>1</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="G29" s="2">
         <v>50</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>32</v>
@@ -19280,22 +19007,22 @@
         <v>203</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E30" s="2">
         <v>2</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="G30" s="2">
         <v>75</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>32</v>
@@ -19374,22 +19101,22 @@
         <v>203</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E31" s="2">
         <v>3</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="G31" s="2">
         <v>100</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>32</v>
@@ -19468,22 +19195,22 @@
         <v>203</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E32" s="2">
         <v>4</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="G32" s="2">
         <v>135</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>32</v>
@@ -19562,22 +19289,22 @@
         <v>203</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E33" s="2">
         <v>5</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="G33" s="2">
         <v>150</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>32</v>
@@ -19656,22 +19383,22 @@
         <v>301</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E34" s="2">
         <v>1</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="G34" s="2">
         <v>80</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>32</v>
@@ -19750,22 +19477,22 @@
         <v>301</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E35" s="2">
         <v>2</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="G35" s="2">
         <v>120</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>32</v>
@@ -19844,22 +19571,22 @@
         <v>301</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E36" s="2">
         <v>3</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="G36" s="2">
         <v>160</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>32</v>
@@ -19938,22 +19665,22 @@
         <v>301</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E37" s="2">
         <v>4</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="G37" s="2">
         <v>200</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>32</v>
@@ -20032,22 +19759,22 @@
         <v>301</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E38" s="2">
         <v>5</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="G38" s="2">
         <v>250</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>32</v>
@@ -20126,22 +19853,22 @@
         <v>302</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E39" s="2">
         <v>1</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="G39" s="2">
         <v>80</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>32</v>
@@ -20220,22 +19947,22 @@
         <v>302</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E40" s="2">
         <v>2</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="G40" s="2">
         <v>120</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>32</v>
@@ -20314,22 +20041,22 @@
         <v>302</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E41" s="2">
         <v>3</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="G41" s="2">
         <v>160</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>32</v>
@@ -20408,22 +20135,22 @@
         <v>302</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E42" s="2">
         <v>4</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="G42" s="2">
         <v>200</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>32</v>
@@ -20502,22 +20229,22 @@
         <v>302</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E43" s="2">
         <v>5</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="G43" s="2">
         <v>250</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>32</v>
@@ -20596,22 +20323,22 @@
         <v>303</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E44" s="2">
         <v>1</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="G44" s="2">
         <v>80</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>32</v>
@@ -20712,22 +20439,22 @@
         <v>303</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E45" s="2">
         <v>2</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="G45" s="2">
         <v>120</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>32</v>
@@ -20828,22 +20555,22 @@
         <v>303</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E46" s="2">
         <v>3</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="G46" s="2">
         <v>160</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>32</v>
@@ -20944,22 +20671,22 @@
         <v>303</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E47" s="2">
         <v>4</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="G47" s="2">
         <v>200</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>32</v>
@@ -21060,22 +20787,22 @@
         <v>303</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E48" s="2">
         <v>5</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="G48" s="2">
         <v>250</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>32</v>
@@ -21176,22 +20903,22 @@
         <v>401</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E49" s="2">
         <v>1</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="G49" s="2">
         <v>120</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>32</v>
@@ -21292,22 +21019,22 @@
         <v>401</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E50" s="2">
         <v>2</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="G50" s="2">
         <v>160</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>32</v>
@@ -21408,22 +21135,22 @@
         <v>401</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E51" s="2">
         <v>3</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="G51" s="2">
         <v>200</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>32</v>
@@ -21524,22 +21251,22 @@
         <v>401</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E52" s="2">
         <v>4</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="G52" s="2">
         <v>250</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>32</v>
@@ -21640,22 +21367,22 @@
         <v>401</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E53" s="2">
         <v>5</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="G53" s="2">
         <v>300</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>32</v>
@@ -21756,22 +21483,22 @@
         <v>402</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E54" s="2">
         <v>1</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="G54" s="2">
         <v>120</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>32</v>
@@ -21872,22 +21599,22 @@
         <v>402</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E55" s="2">
         <v>2</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="G55" s="2">
         <v>160</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>32</v>
@@ -21988,22 +21715,22 @@
         <v>402</v>
       </c>
       <c r="C56" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>204</v>
       </c>
       <c r="E56" s="2">
         <v>3</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="G56" s="2">
         <v>200</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>32</v>
@@ -22104,22 +21831,22 @@
         <v>402</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E57" s="2">
         <v>4</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="G57" s="2">
         <v>250</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>32</v>
@@ -22220,22 +21947,22 @@
         <v>402</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E58" s="2">
         <v>5</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="G58" s="2">
         <v>300</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="I58" s="2" t="s">
         <v>32</v>
@@ -22336,22 +22063,22 @@
         <v>403</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E59" s="2">
         <v>1</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="G59" s="2">
         <v>120</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="I59" s="2" t="s">
         <v>32</v>
@@ -22452,22 +22179,22 @@
         <v>403</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E60" s="2">
         <v>2</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="G60" s="2">
         <v>160</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>32</v>
@@ -22568,22 +22295,22 @@
         <v>403</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E61" s="2">
         <v>3</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="G61" s="2">
         <v>200</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>32</v>
@@ -22684,22 +22411,22 @@
         <v>403</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E62" s="2">
         <v>4</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="G62" s="2">
         <v>250</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>32</v>
@@ -22800,22 +22527,22 @@
         <v>403</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E63" s="2">
         <v>5</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="G63" s="2">
         <v>300</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>32</v>
@@ -22916,22 +22643,22 @@
         <v>404</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E64" s="2">
         <v>1</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="G64" s="2">
         <v>120</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="I64" s="2" t="s">
         <v>32</v>
@@ -23032,22 +22759,22 @@
         <v>404</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E65" s="2">
         <v>2</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="G65" s="2">
         <v>160</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="I65" s="2" t="s">
         <v>32</v>
@@ -23148,22 +22875,22 @@
         <v>404</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E66" s="2">
         <v>3</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="G66" s="2">
         <v>200</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="I66" s="2" t="s">
         <v>32</v>
@@ -23264,22 +22991,22 @@
         <v>404</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E67" s="2">
         <v>4</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="G67" s="2">
         <v>250</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="I67" s="2" t="s">
         <v>32</v>
@@ -23380,22 +23107,22 @@
         <v>404</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E68" s="2">
         <v>5</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="G68" s="2">
         <v>300</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="I68" s="2" t="s">
         <v>32</v>
@@ -23833,54 +23560,54 @@
         <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="B2" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="C2" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="F2" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="G2" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="H2" t="s">
         <v>29</v>
@@ -23889,39 +23616,39 @@
         <v>29</v>
       </c>
       <c r="J2" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>258</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -23935,7 +23662,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="E4" s="2">
         <v>10101</v>
@@ -23944,7 +23671,7 @@
         <v>102</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
@@ -23956,7 +23683,7 @@
         <v>30</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -23970,7 +23697,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="E5" s="2">
         <v>10102</v>
@@ -23979,7 +23706,7 @@
         <v>103</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
@@ -23991,7 +23718,7 @@
         <v>50</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -24005,7 +23732,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="E6" s="2">
         <v>10103</v>
@@ -24014,7 +23741,7 @@
         <v>202</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
@@ -24026,7 +23753,7 @@
         <v>35</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -24040,7 +23767,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="E7" s="2">
         <v>10104</v>
@@ -24049,7 +23776,7 @@
         <v>301</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="H7" s="2">
         <v>0</v>
@@ -24061,7 +23788,7 @@
         <v>85</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -24075,7 +23802,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="E8" s="2">
         <v>10201</v>
@@ -24084,7 +23811,7 @@
         <v>101</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
@@ -24096,7 +23823,7 @@
         <v>30</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -24110,7 +23837,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="E9" s="2">
         <v>10202</v>
@@ -24119,7 +23846,7 @@
         <v>103</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
@@ -24131,7 +23858,7 @@
         <v>50</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -24145,7 +23872,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="E10" s="2">
         <v>10203</v>
@@ -24154,7 +23881,7 @@
         <v>203</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="H10" s="2">
         <v>0</v>
@@ -24166,7 +23893,7 @@
         <v>35</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -24180,7 +23907,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="E11" s="2">
         <v>10204</v>
@@ -24189,7 +23916,7 @@
         <v>302</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="H11" s="2">
         <v>0</v>
@@ -24201,7 +23928,7 @@
         <v>85</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -24215,7 +23942,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="E12" s="2">
         <v>10301</v>
@@ -24224,7 +23951,7 @@
         <v>201</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="H12" s="2">
         <v>0</v>
@@ -24236,7 +23963,7 @@
         <v>35</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -24250,7 +23977,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="E13" s="2">
         <v>10302</v>
@@ -24259,7 +23986,7 @@
         <v>202</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="H13" s="2">
         <v>0</v>
@@ -24271,7 +23998,7 @@
         <v>70</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -24285,7 +24012,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="E14" s="2">
         <v>10303</v>
@@ -24294,7 +24021,7 @@
         <v>203</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
@@ -24306,7 +24033,7 @@
         <v>35</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -24320,7 +24047,7 @@
         <v>4</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="E15" s="2">
         <v>10304</v>
@@ -24329,7 +24056,7 @@
         <v>303</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
@@ -24341,7 +24068,7 @@
         <v>85</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -24355,7 +24082,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="E16" s="2">
         <v>20101</v>
@@ -24364,7 +24091,7 @@
         <v>202</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="H16" s="2">
         <v>0</v>
@@ -24376,7 +24103,7 @@
         <v>35</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -24390,7 +24117,7 @@
         <v>2</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="E17" s="2">
         <v>20102</v>
@@ -24399,7 +24126,7 @@
         <v>203</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="H17" s="2">
         <v>0</v>
@@ -24411,7 +24138,7 @@
         <v>70</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -24425,7 +24152,7 @@
         <v>3</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="E18" s="2">
         <v>20103</v>
@@ -24434,7 +24161,7 @@
         <v>303</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="H18" s="2">
         <v>0</v>
@@ -24446,7 +24173,7 @@
         <v>35</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -24460,7 +24187,7 @@
         <v>4</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="E19" s="2">
         <v>20104</v>
@@ -24469,7 +24196,7 @@
         <v>402</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="H19" s="2">
         <v>0</v>
@@ -24481,7 +24208,7 @@
         <v>85</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -24495,7 +24222,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="E20" s="2">
         <v>20201</v>
@@ -24504,7 +24231,7 @@
         <v>201</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="H20" s="2">
         <v>0</v>
@@ -24516,7 +24243,7 @@
         <v>35</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -24530,7 +24257,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="E21" s="2">
         <v>20202</v>
@@ -24539,7 +24266,7 @@
         <v>203</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="H21" s="2">
         <v>0</v>
@@ -24551,7 +24278,7 @@
         <v>70</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -24565,7 +24292,7 @@
         <v>3</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="E22" s="2">
         <v>20203</v>
@@ -24574,7 +24301,7 @@
         <v>301</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="H22" s="2">
         <v>0</v>
@@ -24586,7 +24313,7 @@
         <v>40</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -24600,7 +24327,7 @@
         <v>4</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="E23" s="2">
         <v>20204</v>
@@ -24609,7 +24336,7 @@
         <v>302</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="H23" s="2">
         <v>0</v>
@@ -24621,7 +24348,7 @@
         <v>100</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -24635,7 +24362,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="E24" s="2">
         <v>20301</v>
@@ -24644,7 +24371,7 @@
         <v>201</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="H24" s="2">
         <v>0</v>
@@ -24656,7 +24383,7 @@
         <v>35</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -24670,7 +24397,7 @@
         <v>2</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="E25" s="2">
         <v>20302</v>
@@ -24679,7 +24406,7 @@
         <v>202</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="H25" s="2">
         <v>0</v>
@@ -24691,7 +24418,7 @@
         <v>70</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -24705,7 +24432,7 @@
         <v>3</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="E26" s="2">
         <v>20303</v>
@@ -24714,7 +24441,7 @@
         <v>301</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="H26" s="2">
         <v>0</v>
@@ -24726,7 +24453,7 @@
         <v>40</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -24740,7 +24467,7 @@
         <v>4</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="E27" s="2">
         <v>20304</v>
@@ -24749,7 +24476,7 @@
         <v>302</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="H27" s="2">
         <v>0</v>
@@ -24761,7 +24488,7 @@
         <v>85</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -24775,7 +24502,7 @@
         <v>1</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="E28" s="2">
         <v>30101</v>
@@ -24784,7 +24511,7 @@
         <v>302</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="H28" s="2">
         <v>0</v>
@@ -24796,7 +24523,7 @@
         <v>35</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -24810,7 +24537,7 @@
         <v>2</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="E29" s="2">
         <v>30102</v>
@@ -24819,7 +24546,7 @@
         <v>303</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="H29" s="2">
         <v>0</v>
@@ -24831,7 +24558,7 @@
         <v>70</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -24845,7 +24572,7 @@
         <v>3</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="E30" s="2">
         <v>30103</v>
@@ -24854,7 +24581,7 @@
         <v>401</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="H30" s="2">
         <v>0</v>
@@ -24866,7 +24593,7 @@
         <v>40</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -24880,7 +24607,7 @@
         <v>4</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="E31" s="2">
         <v>30104</v>
@@ -24889,7 +24616,7 @@
         <v>403</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="H31" s="2">
         <v>0</v>
@@ -24901,7 +24628,7 @@
         <v>85</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -24915,7 +24642,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="E32" s="2">
         <v>30201</v>
@@ -24924,7 +24651,7 @@
         <v>301</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="H32" s="2">
         <v>0</v>
@@ -24936,7 +24663,7 @@
         <v>40</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -24950,7 +24677,7 @@
         <v>2</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="E33" s="2">
         <v>30202</v>
@@ -24959,7 +24686,7 @@
         <v>303</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="H33" s="2">
         <v>0</v>
@@ -24971,7 +24698,7 @@
         <v>85</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -24985,7 +24712,7 @@
         <v>3</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="E34" s="2">
         <v>30203</v>
@@ -24994,7 +24721,7 @@
         <v>201</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="H34" s="2">
         <v>0</v>
@@ -25006,7 +24733,7 @@
         <v>50</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -25020,7 +24747,7 @@
         <v>4</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="E35" s="2">
         <v>30204</v>
@@ -25029,7 +24756,7 @@
         <v>402</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="H35" s="2">
         <v>0</v>
@@ -25041,7 +24768,7 @@
         <v>100</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -25055,7 +24782,7 @@
         <v>1</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="E36" s="2">
         <v>30301</v>
@@ -25064,7 +24791,7 @@
         <v>301</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="H36" s="2">
         <v>0</v>
@@ -25076,7 +24803,7 @@
         <v>40</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -25090,7 +24817,7 @@
         <v>2</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="E37" s="2">
         <v>30302</v>
@@ -25099,7 +24826,7 @@
         <v>302</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="H37" s="2">
         <v>0</v>
@@ -25111,7 +24838,7 @@
         <v>85</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -25125,7 +24852,7 @@
         <v>3</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="E38" s="2">
         <v>30303</v>
@@ -25134,7 +24861,7 @@
         <v>401</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="H38" s="2">
         <v>0</v>
@@ -25146,7 +24873,7 @@
         <v>35</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -25160,7 +24887,7 @@
         <v>4</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="E39" s="2">
         <v>30304</v>
@@ -25169,7 +24896,7 @@
         <v>404</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="H39" s="2">
         <v>0</v>
@@ -25181,7 +24908,7 @@
         <v>100</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -25195,7 +24922,7 @@
         <v>1</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="E40" s="2">
         <v>40101</v>
@@ -25204,7 +24931,7 @@
         <v>303</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="H40" s="2">
         <v>0</v>
@@ -25216,7 +24943,7 @@
         <v>40</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -25230,7 +24957,7 @@
         <v>2</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="E41" s="2">
         <v>40102</v>
@@ -25239,7 +24966,7 @@
         <v>402</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="H41" s="2">
         <v>0</v>
@@ -25251,7 +24978,7 @@
         <v>85</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -25265,7 +24992,7 @@
         <v>3</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="E42" s="2">
         <v>40103</v>
@@ -25274,7 +25001,7 @@
         <v>403</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="H42" s="2">
         <v>0</v>
@@ -25286,7 +25013,7 @@
         <v>50</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -25300,7 +25027,7 @@
         <v>4</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="E43" s="2">
         <v>40104</v>
@@ -25309,7 +25036,7 @@
         <v>404</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="H43" s="2">
         <v>0</v>
@@ -25321,7 +25048,7 @@
         <v>100</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -25335,7 +25062,7 @@
         <v>1</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="E44" s="2">
         <v>40201</v>
@@ -25344,7 +25071,7 @@
         <v>303</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="H44" s="2">
         <v>0</v>
@@ -25356,7 +25083,7 @@
         <v>40</v>
       </c>
       <c r="M44" s="6" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -25370,7 +25097,7 @@
         <v>2</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="E45" s="2">
         <v>40202</v>
@@ -25379,7 +25106,7 @@
         <v>301</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="H45" s="2">
         <v>0</v>
@@ -25391,7 +25118,7 @@
         <v>85</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -25405,7 +25132,7 @@
         <v>3</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="E46" s="2">
         <v>40203</v>
@@ -25414,7 +25141,7 @@
         <v>401</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="H46" s="2">
         <v>0</v>
@@ -25426,7 +25153,7 @@
         <v>50</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -25440,7 +25167,7 @@
         <v>4</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="E47" s="2">
         <v>40204</v>
@@ -25449,7 +25176,7 @@
         <v>403</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="H47" s="2">
         <v>0</v>
@@ -25461,7 +25188,7 @@
         <v>100</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -25475,7 +25202,7 @@
         <v>1</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="E48" s="2">
         <v>40301</v>
@@ -25484,7 +25211,7 @@
         <v>303</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="H48" s="2">
         <v>0</v>
@@ -25496,7 +25223,7 @@
         <v>40</v>
       </c>
       <c r="M48" s="6" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -25510,7 +25237,7 @@
         <v>2</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="E49" s="2">
         <v>40302</v>
@@ -25519,7 +25246,7 @@
         <v>302</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="H49" s="2">
         <v>0</v>
@@ -25531,7 +25258,7 @@
         <v>85</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -25545,7 +25272,7 @@
         <v>3</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="E50" s="2">
         <v>40303</v>
@@ -25554,7 +25281,7 @@
         <v>401</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="H50" s="2">
         <v>0</v>
@@ -25566,7 +25293,7 @@
         <v>50</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -25580,7 +25307,7 @@
         <v>4</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="E51" s="2">
         <v>40304</v>
@@ -25589,7 +25316,7 @@
         <v>402</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="H51" s="2">
         <v>0</v>
@@ -25601,7 +25328,7 @@
         <v>100</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -25615,7 +25342,7 @@
         <v>1</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="E52" s="2">
         <v>40401</v>
@@ -25624,7 +25351,7 @@
         <v>303</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="H52" s="2">
         <v>0</v>
@@ -25636,7 +25363,7 @@
         <v>40</v>
       </c>
       <c r="M52" s="6" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -25650,7 +25377,7 @@
         <v>2</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="E53" s="2">
         <v>40402</v>
@@ -25659,7 +25386,7 @@
         <v>401</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="H53" s="2">
         <v>0</v>
@@ -25671,7 +25398,7 @@
         <v>100</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -25685,7 +25412,7 @@
         <v>3</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="E54" s="2">
         <v>40403</v>
@@ -25694,7 +25421,7 @@
         <v>402</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="H54" s="2">
         <v>0</v>
@@ -25706,7 +25433,7 @@
         <v>50</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -25720,7 +25447,7 @@
         <v>4</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="E55" s="2">
         <v>40404</v>
@@ -25729,7 +25456,7 @@
         <v>403</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="H55" s="2">
         <v>0</v>
@@ -25741,7 +25468,7 @@
         <v>100</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/pet.战宠.xlsx
+++ b/Excel/pet.战宠.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F7450E-7E4A-43CA-88D8-387C2F54DDDA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6DF2D8F-E731-44F3-AEDB-3C80C1D99B2D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="356">
   <si>
     <t>sheet名</t>
   </si>
@@ -2277,6 +2277,14 @@
   </si>
   <si>
     <t>pet504</t>
+  </si>
+  <si>
+    <t>quality</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>品质</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2990,23 +2998,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9208CFCD-4669-42A0-9520-736E110DAC55}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12.375" customWidth="1"/>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
-    <col min="4" max="4" width="13.25" customWidth="1"/>
-    <col min="5" max="5" width="10.875" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="3" max="4" width="10.875" customWidth="1"/>
+    <col min="5" max="5" width="13.25" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -3017,19 +3025,22 @@
         <v>65</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -3040,7 +3051,7 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
         <v>26</v>
@@ -3049,10 +3060,13 @@
         <v>26</v>
       </c>
       <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
@@ -3063,19 +3077,22 @@
         <v>66</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -3086,19 +3103,22 @@
         <v>68</v>
       </c>
       <c r="D4" s="2">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2">
         <v>101</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H4" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -3109,19 +3129,22 @@
         <v>69</v>
       </c>
       <c r="D5" s="2">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2">
         <v>101</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -3132,19 +3155,22 @@
         <v>70</v>
       </c>
       <c r="D6" s="2">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2">
         <v>101</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="G6" s="2">
+      <c r="H6" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -3155,19 +3181,22 @@
         <v>71</v>
       </c>
       <c r="D7" s="2">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2">
         <v>102</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -3178,19 +3207,22 @@
         <v>72</v>
       </c>
       <c r="D8" s="2">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2">
         <v>102</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="G8" s="2">
+      <c r="H8" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -3201,19 +3233,22 @@
         <v>73</v>
       </c>
       <c r="D9" s="2">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2">
         <v>102</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="G9" s="2">
+      <c r="H9" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -3224,19 +3259,22 @@
         <v>74</v>
       </c>
       <c r="D10" s="2">
+        <v>4</v>
+      </c>
+      <c r="E10" s="2">
         <v>103</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="G10" s="2">
+      <c r="H10" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -3247,19 +3285,22 @@
         <v>75</v>
       </c>
       <c r="D11" s="2">
+        <v>4</v>
+      </c>
+      <c r="E11" s="2">
         <v>103</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="G11" s="2">
+      <c r="H11" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -3270,19 +3311,22 @@
         <v>76</v>
       </c>
       <c r="D12" s="2">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2">
         <v>103</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="G12" s="2">
+      <c r="H12" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -3293,19 +3337,22 @@
         <v>77</v>
       </c>
       <c r="D13" s="2">
+        <v>5</v>
+      </c>
+      <c r="E13" s="2">
         <v>104</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="G13" s="2">
+      <c r="H13" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -3316,19 +3363,22 @@
         <v>78</v>
       </c>
       <c r="D14" s="2">
+        <v>5</v>
+      </c>
+      <c r="E14" s="2">
         <v>104</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="G14" s="2">
+      <c r="H14" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -3339,19 +3389,22 @@
         <v>79</v>
       </c>
       <c r="D15" s="2">
+        <v>5</v>
+      </c>
+      <c r="E15" s="2">
         <v>104</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="G15" s="2">
+      <c r="H15" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -3362,15 +3415,18 @@
         <v>80</v>
       </c>
       <c r="D16" s="2">
+        <v>5</v>
+      </c>
+      <c r="E16" s="2">
         <v>104</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="G16" s="2">
+      <c r="H16" s="2">
         <v>40</v>
       </c>
     </row>

--- a/Excel/pet.战宠.xlsx
+++ b/Excel/pet.战宠.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC42446-D333-4FAB-98D9-302E3AE38D68}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64379030-BBFA-4260-8BB6-46A475F7B01B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16180,7 +16180,7 @@
   <dimension ref="A1:AS75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16666,13 +16666,12 @@
       </c>
       <c r="J4" s="2">
         <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K4,[1]属性表!$B$4:$B$26,0))*O4+INDEX([1]属性表!$E$4:$E$26,MATCH(P4,[1]属性表!$B$4:$B$26,0))*S4+INDEX([1]属性表!$E$4:$E$26,MATCH(U4,[1]属性表!$B$4:$B$26,0))*Y4+IF(ISBLANK(Z4),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z4,[1]属性表!$B$4:$B$26,0))*AD4)+IF(ISBLANK(AE4),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE4,[1]属性表!$B$4:$B$26,0))*AI4)</f>
-        <v>144000</v>
+        <v>48000</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L4" s="2">
-        <f>IF(OR(K4="atk",K4="crit",K4="dash",K4="dmgInc"),31,1)</f>
         <v>31</v>
       </c>
       <c r="M4" s="2">
@@ -16682,13 +16681,12 @@
         <v>0</v>
       </c>
       <c r="O4" s="2">
-        <v>2400</v>
+        <v>800</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Q4" s="2">
-        <f>IF(OR(P4="atk",P4="crit",P4="dash",P4="dmgInc"),31,1)</f>
         <v>1</v>
       </c>
       <c r="R4" s="2">
@@ -16698,13 +16696,12 @@
         <v>0</v>
       </c>
       <c r="T4" s="2">
-        <v>36000</v>
+        <v>12000</v>
       </c>
       <c r="U4" s="2" t="s">
         <v>36</v>
       </c>
       <c r="V4" s="2">
-        <f>IF(OR(U4="atk",U4="crit",U4="dash",U4="dmgInc"),31,1)</f>
         <v>1</v>
       </c>
       <c r="W4" s="2">
@@ -16714,7 +16711,7 @@
         <v>0</v>
       </c>
       <c r="Y4" s="2">
-        <v>2400</v>
+        <v>800</v>
       </c>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
@@ -16767,13 +16764,12 @@
       </c>
       <c r="J5" s="2">
         <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K5,[1]属性表!$B$4:$B$26,0))*O5+INDEX([1]属性表!$E$4:$E$26,MATCH(P5,[1]属性表!$B$4:$B$26,0))*S5+INDEX([1]属性表!$E$4:$E$26,MATCH(U5,[1]属性表!$B$4:$B$26,0))*Y5+IF(ISBLANK(Z5),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z5,[1]属性表!$B$4:$B$26,0))*AD5)+IF(ISBLANK(AE5),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE5,[1]属性表!$B$4:$B$26,0))*AI5)</f>
-        <v>180000</v>
+        <v>60000</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L5" s="2">
-        <f t="shared" ref="L5:L68" si="0">IF(OR(K5="atk",K5="crit",K5="dash",K5="dmgInc"),31,1)</f>
         <v>31</v>
       </c>
       <c r="M5" s="2">
@@ -16783,13 +16779,12 @@
         <v>0</v>
       </c>
       <c r="O5" s="2">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Q5" s="2">
-        <f t="shared" ref="Q5:Q68" si="1">IF(OR(P5="atk",P5="crit",P5="dash",P5="dmgInc"),31,1)</f>
         <v>1</v>
       </c>
       <c r="R5" s="2">
@@ -16799,13 +16794,12 @@
         <v>0</v>
       </c>
       <c r="T5" s="2">
-        <v>45000</v>
+        <v>15000</v>
       </c>
       <c r="U5" s="2" t="s">
         <v>36</v>
       </c>
       <c r="V5" s="2">
-        <f t="shared" ref="V5:V68" si="2">IF(OR(U5="atk",U5="crit",U5="dash",U5="dmgInc"),31,1)</f>
         <v>1</v>
       </c>
       <c r="W5" s="2">
@@ -16815,7 +16809,7 @@
         <v>0</v>
       </c>
       <c r="Y5" s="2">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
@@ -16868,13 +16862,12 @@
       </c>
       <c r="J6" s="2">
         <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K6,[1]属性表!$B$4:$B$26,0))*O6+INDEX([1]属性表!$E$4:$E$26,MATCH(P6,[1]属性表!$B$4:$B$26,0))*S6+INDEX([1]属性表!$E$4:$E$26,MATCH(U6,[1]属性表!$B$4:$B$26,0))*Y6+IF(ISBLANK(Z6),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z6,[1]属性表!$B$4:$B$26,0))*AD6)+IF(ISBLANK(AE6),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE6,[1]属性表!$B$4:$B$26,0))*AI6)</f>
-        <v>216000</v>
+        <v>72000</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L6" s="2">
-        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="M6" s="2">
@@ -16884,13 +16877,12 @@
         <v>0</v>
       </c>
       <c r="O6" s="2">
-        <v>3600</v>
+        <v>1200</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Q6" s="2">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R6" s="2">
@@ -16900,13 +16892,12 @@
         <v>0</v>
       </c>
       <c r="T6" s="2">
-        <v>54000</v>
+        <v>18000</v>
       </c>
       <c r="U6" s="2" t="s">
         <v>36</v>
       </c>
       <c r="V6" s="2">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="W6" s="2">
@@ -16916,7 +16907,7 @@
         <v>0</v>
       </c>
       <c r="Y6" s="2">
-        <v>3600</v>
+        <v>1200</v>
       </c>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
@@ -16969,13 +16960,12 @@
       </c>
       <c r="J7" s="2">
         <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K7,[1]属性表!$B$4:$B$26,0))*O7+INDEX([1]属性表!$E$4:$E$26,MATCH(P7,[1]属性表!$B$4:$B$26,0))*S7+INDEX([1]属性表!$E$4:$E$26,MATCH(U7,[1]属性表!$B$4:$B$26,0))*Y7+IF(ISBLANK(Z7),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z7,[1]属性表!$B$4:$B$26,0))*AD7)+IF(ISBLANK(AE7),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE7,[1]属性表!$B$4:$B$26,0))*AI7)</f>
-        <v>252000</v>
+        <v>84000</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L7" s="2">
-        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="M7" s="2">
@@ -16985,13 +16975,12 @@
         <v>0</v>
       </c>
       <c r="O7" s="2">
-        <v>4200</v>
+        <v>1400</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Q7" s="2">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R7" s="2">
@@ -17001,13 +16990,12 @@
         <v>0</v>
       </c>
       <c r="T7" s="2">
-        <v>63000</v>
+        <v>21000</v>
       </c>
       <c r="U7" s="2" t="s">
         <v>36</v>
       </c>
       <c r="V7" s="2">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="W7" s="2">
@@ -17017,7 +17005,7 @@
         <v>0</v>
       </c>
       <c r="Y7" s="2">
-        <v>4200</v>
+        <v>1400</v>
       </c>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
@@ -17070,13 +17058,12 @@
       </c>
       <c r="J8" s="2">
         <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K8,[1]属性表!$B$4:$B$26,0))*O8+INDEX([1]属性表!$E$4:$E$26,MATCH(P8,[1]属性表!$B$4:$B$26,0))*S8+INDEX([1]属性表!$E$4:$E$26,MATCH(U8,[1]属性表!$B$4:$B$26,0))*Y8+IF(ISBLANK(Z8),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z8,[1]属性表!$B$4:$B$26,0))*AD8)+IF(ISBLANK(AE8),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE8,[1]属性表!$B$4:$B$26,0))*AI8)</f>
-        <v>288000</v>
+        <v>96000</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L8" s="2">
-        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="M8" s="2">
@@ -17086,13 +17073,12 @@
         <v>0</v>
       </c>
       <c r="O8" s="2">
-        <v>4800</v>
+        <v>1600</v>
       </c>
       <c r="P8" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Q8" s="2">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R8" s="2">
@@ -17102,13 +17088,12 @@
         <v>0</v>
       </c>
       <c r="T8" s="2">
-        <v>72000</v>
+        <v>24000</v>
       </c>
       <c r="U8" s="2" t="s">
         <v>36</v>
       </c>
       <c r="V8" s="2">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="W8" s="2">
@@ -17118,7 +17103,7 @@
         <v>0</v>
       </c>
       <c r="Y8" s="2">
-        <v>4800</v>
+        <v>1600</v>
       </c>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
@@ -17171,13 +17156,12 @@
       </c>
       <c r="J9" s="2">
         <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K9,[1]属性表!$B$4:$B$26,0))*O9+INDEX([1]属性表!$E$4:$E$26,MATCH(P9,[1]属性表!$B$4:$B$26,0))*S9+INDEX([1]属性表!$E$4:$E$26,MATCH(U9,[1]属性表!$B$4:$B$26,0))*Y9+IF(ISBLANK(Z9),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z9,[1]属性表!$B$4:$B$26,0))*AD9)+IF(ISBLANK(AE9),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE9,[1]属性表!$B$4:$B$26,0))*AI9)</f>
-        <v>96000</v>
+        <v>32000</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L9" s="2">
-        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="M9" s="2">
@@ -17187,13 +17171,12 @@
         <v>0</v>
       </c>
       <c r="O9" s="2">
-        <v>2400</v>
+        <v>800</v>
       </c>
       <c r="P9" s="2" t="s">
         <v>34</v>
       </c>
       <c r="Q9" s="2">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R9" s="2">
@@ -17203,13 +17186,12 @@
         <v>0</v>
       </c>
       <c r="T9" s="2">
-        <v>2400</v>
+        <v>800</v>
       </c>
       <c r="U9" s="2" t="s">
         <v>35</v>
       </c>
       <c r="V9" s="2">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="W9" s="2">
@@ -17219,7 +17201,7 @@
         <v>0</v>
       </c>
       <c r="Y9" s="2">
-        <v>72000</v>
+        <v>24000</v>
       </c>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
@@ -17272,13 +17254,12 @@
       </c>
       <c r="J10" s="2">
         <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K10,[1]属性表!$B$4:$B$26,0))*O10+INDEX([1]属性表!$E$4:$E$26,MATCH(P10,[1]属性表!$B$4:$B$26,0))*S10+INDEX([1]属性表!$E$4:$E$26,MATCH(U10,[1]属性表!$B$4:$B$26,0))*Y10+IF(ISBLANK(Z10),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z10,[1]属性表!$B$4:$B$26,0))*AD10)+IF(ISBLANK(AE10),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE10,[1]属性表!$B$4:$B$26,0))*AI10)</f>
-        <v>120000</v>
+        <v>40000</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L10" s="2">
-        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="M10" s="2">
@@ -17288,13 +17269,12 @@
         <v>0</v>
       </c>
       <c r="O10" s="2">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="P10" s="2" t="s">
         <v>34</v>
       </c>
       <c r="Q10" s="2">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R10" s="2">
@@ -17304,13 +17284,12 @@
         <v>0</v>
       </c>
       <c r="T10" s="2">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="U10" s="2" t="s">
         <v>35</v>
       </c>
       <c r="V10" s="2">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="W10" s="2">
@@ -17320,7 +17299,7 @@
         <v>0</v>
       </c>
       <c r="Y10" s="2">
-        <v>90000</v>
+        <v>30000</v>
       </c>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
@@ -17373,13 +17352,12 @@
       </c>
       <c r="J11" s="2">
         <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K11,[1]属性表!$B$4:$B$26,0))*O11+INDEX([1]属性表!$E$4:$E$26,MATCH(P11,[1]属性表!$B$4:$B$26,0))*S11+INDEX([1]属性表!$E$4:$E$26,MATCH(U11,[1]属性表!$B$4:$B$26,0))*Y11+IF(ISBLANK(Z11),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z11,[1]属性表!$B$4:$B$26,0))*AD11)+IF(ISBLANK(AE11),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE11,[1]属性表!$B$4:$B$26,0))*AI11)</f>
-        <v>144000</v>
+        <v>48000</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L11" s="2">
-        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="M11" s="2">
@@ -17389,13 +17367,12 @@
         <v>0</v>
       </c>
       <c r="O11" s="2">
-        <v>3600</v>
+        <v>1200</v>
       </c>
       <c r="P11" s="2" t="s">
         <v>34</v>
       </c>
       <c r="Q11" s="2">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R11" s="2">
@@ -17405,13 +17382,12 @@
         <v>0</v>
       </c>
       <c r="T11" s="2">
-        <v>3600</v>
+        <v>1200</v>
       </c>
       <c r="U11" s="2" t="s">
         <v>35</v>
       </c>
       <c r="V11" s="2">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="W11" s="2">
@@ -17421,7 +17397,7 @@
         <v>0</v>
       </c>
       <c r="Y11" s="2">
-        <v>108000</v>
+        <v>36000</v>
       </c>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
@@ -17474,13 +17450,12 @@
       </c>
       <c r="J12" s="2">
         <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K12,[1]属性表!$B$4:$B$26,0))*O12+INDEX([1]属性表!$E$4:$E$26,MATCH(P12,[1]属性表!$B$4:$B$26,0))*S12+INDEX([1]属性表!$E$4:$E$26,MATCH(U12,[1]属性表!$B$4:$B$26,0))*Y12+IF(ISBLANK(Z12),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z12,[1]属性表!$B$4:$B$26,0))*AD12)+IF(ISBLANK(AE12),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE12,[1]属性表!$B$4:$B$26,0))*AI12)</f>
-        <v>168000</v>
+        <v>56000</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L12" s="2">
-        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="M12" s="2">
@@ -17490,13 +17465,12 @@
         <v>0</v>
       </c>
       <c r="O12" s="2">
-        <v>4200</v>
+        <v>1400</v>
       </c>
       <c r="P12" s="2" t="s">
         <v>34</v>
       </c>
       <c r="Q12" s="2">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R12" s="2">
@@ -17506,13 +17480,12 @@
         <v>0</v>
       </c>
       <c r="T12" s="2">
-        <v>4200</v>
+        <v>1400</v>
       </c>
       <c r="U12" s="2" t="s">
         <v>35</v>
       </c>
       <c r="V12" s="2">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="W12" s="2">
@@ -17522,7 +17495,7 @@
         <v>0</v>
       </c>
       <c r="Y12" s="2">
-        <v>126000</v>
+        <v>42000</v>
       </c>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
@@ -17575,13 +17548,12 @@
       </c>
       <c r="J13" s="2">
         <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K13,[1]属性表!$B$4:$B$26,0))*O13+INDEX([1]属性表!$E$4:$E$26,MATCH(P13,[1]属性表!$B$4:$B$26,0))*S13+INDEX([1]属性表!$E$4:$E$26,MATCH(U13,[1]属性表!$B$4:$B$26,0))*Y13+IF(ISBLANK(Z13),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z13,[1]属性表!$B$4:$B$26,0))*AD13)+IF(ISBLANK(AE13),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE13,[1]属性表!$B$4:$B$26,0))*AI13)</f>
-        <v>192000</v>
+        <v>64000</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L13" s="2">
-        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="M13" s="2">
@@ -17591,13 +17563,12 @@
         <v>0</v>
       </c>
       <c r="O13" s="2">
-        <v>4800</v>
+        <v>1600</v>
       </c>
       <c r="P13" s="2" t="s">
         <v>34</v>
       </c>
       <c r="Q13" s="2">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R13" s="2">
@@ -17607,13 +17578,12 @@
         <v>0</v>
       </c>
       <c r="T13" s="2">
-        <v>4800</v>
+        <v>1600</v>
       </c>
       <c r="U13" s="2" t="s">
         <v>35</v>
       </c>
       <c r="V13" s="2">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="W13" s="2">
@@ -17623,7 +17593,7 @@
         <v>0</v>
       </c>
       <c r="Y13" s="2">
-        <v>144000</v>
+        <v>48000</v>
       </c>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
@@ -17676,13 +17646,12 @@
       </c>
       <c r="J14" s="2">
         <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K14,[1]属性表!$B$4:$B$26,0))*O14+INDEX([1]属性表!$E$4:$E$26,MATCH(P14,[1]属性表!$B$4:$B$26,0))*S14+INDEX([1]属性表!$E$4:$E$26,MATCH(U14,[1]属性表!$B$4:$B$26,0))*Y14+IF(ISBLANK(Z14),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z14,[1]属性表!$B$4:$B$26,0))*AD14)+IF(ISBLANK(AE14),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE14,[1]属性表!$B$4:$B$26,0))*AI14)</f>
-        <v>144000</v>
+        <v>48000</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L14" s="2">
-        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="M14" s="2">
@@ -17692,13 +17661,12 @@
         <v>0</v>
       </c>
       <c r="O14" s="2">
-        <v>2400</v>
+        <v>800</v>
       </c>
       <c r="P14" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Q14" s="2">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R14" s="2">
@@ -17708,13 +17676,12 @@
         <v>0</v>
       </c>
       <c r="T14" s="2">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="U14" s="2" t="s">
         <v>34</v>
       </c>
       <c r="V14" s="2">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="W14" s="2">
@@ -17724,13 +17691,12 @@
         <v>0</v>
       </c>
       <c r="Y14" s="2">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="Z14" s="2" t="s">
         <v>35</v>
       </c>
       <c r="AA14" s="2">
-        <f>IF(OR(Z14="atk",Z14="crit",Z14="dash",Z14="dmgInc"),31,1)</f>
         <v>1</v>
       </c>
       <c r="AB14" s="2">
@@ -17740,13 +17706,12 @@
         <v>0</v>
       </c>
       <c r="AD14" s="2">
-        <v>36000</v>
+        <v>12000</v>
       </c>
       <c r="AE14" s="2" t="s">
         <v>36</v>
       </c>
       <c r="AF14" s="2">
-        <f>IF(OR(AE14="atk",AE14="crit",AE14="dash",AE14="dmgInc"),31,1)</f>
         <v>1</v>
       </c>
       <c r="AG14" s="2">
@@ -17756,7 +17721,7 @@
         <v>0</v>
       </c>
       <c r="AI14" s="2">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="AJ14" s="2"/>
       <c r="AK14" s="2"/>
@@ -17799,13 +17764,12 @@
       </c>
       <c r="J15" s="2">
         <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K15,[1]属性表!$B$4:$B$26,0))*O15+INDEX([1]属性表!$E$4:$E$26,MATCH(P15,[1]属性表!$B$4:$B$26,0))*S15+INDEX([1]属性表!$E$4:$E$26,MATCH(U15,[1]属性表!$B$4:$B$26,0))*Y15+IF(ISBLANK(Z15),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z15,[1]属性表!$B$4:$B$26,0))*AD15)+IF(ISBLANK(AE15),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE15,[1]属性表!$B$4:$B$26,0))*AI15)</f>
-        <v>180000</v>
+        <v>60000</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L15" s="2">
-        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="M15" s="2">
@@ -17815,13 +17779,12 @@
         <v>0</v>
       </c>
       <c r="O15" s="2">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="P15" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Q15" s="2">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R15" s="2">
@@ -17831,13 +17794,12 @@
         <v>0</v>
       </c>
       <c r="T15" s="2">
-        <v>22500</v>
+        <v>7500</v>
       </c>
       <c r="U15" s="2" t="s">
         <v>34</v>
       </c>
       <c r="V15" s="2">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="W15" s="2">
@@ -17847,13 +17809,12 @@
         <v>0</v>
       </c>
       <c r="Y15" s="2">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="Z15" s="2" t="s">
         <v>35</v>
       </c>
       <c r="AA15" s="2">
-        <f t="shared" ref="AA15:AA23" si="3">IF(OR(Z15="atk",Z15="crit",Z15="dash",Z15="dmgInc"),31,1)</f>
         <v>1</v>
       </c>
       <c r="AB15" s="2">
@@ -17863,13 +17824,12 @@
         <v>0</v>
       </c>
       <c r="AD15" s="2">
-        <v>45000</v>
+        <v>15000</v>
       </c>
       <c r="AE15" s="2" t="s">
         <v>36</v>
       </c>
       <c r="AF15" s="2">
-        <f t="shared" ref="AF15:AF23" si="4">IF(OR(AE15="atk",AE15="crit",AE15="dash",AE15="dmgInc"),31,1)</f>
         <v>1</v>
       </c>
       <c r="AG15" s="2">
@@ -17879,7 +17839,7 @@
         <v>0</v>
       </c>
       <c r="AI15" s="2">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="AJ15" s="2"/>
       <c r="AK15" s="2"/>
@@ -17922,13 +17882,12 @@
       </c>
       <c r="J16" s="2">
         <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K16,[1]属性表!$B$4:$B$26,0))*O16+INDEX([1]属性表!$E$4:$E$26,MATCH(P16,[1]属性表!$B$4:$B$26,0))*S16+INDEX([1]属性表!$E$4:$E$26,MATCH(U16,[1]属性表!$B$4:$B$26,0))*Y16+IF(ISBLANK(Z16),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z16,[1]属性表!$B$4:$B$26,0))*AD16)+IF(ISBLANK(AE16),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE16,[1]属性表!$B$4:$B$26,0))*AI16)</f>
-        <v>216000</v>
+        <v>72000</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L16" s="2">
-        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="M16" s="2">
@@ -17938,13 +17897,12 @@
         <v>0</v>
       </c>
       <c r="O16" s="2">
-        <v>3600</v>
+        <v>1200</v>
       </c>
       <c r="P16" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Q16" s="2">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R16" s="2">
@@ -17954,13 +17912,12 @@
         <v>0</v>
       </c>
       <c r="T16" s="2">
-        <v>27000</v>
+        <v>9000</v>
       </c>
       <c r="U16" s="2" t="s">
         <v>34</v>
       </c>
       <c r="V16" s="2">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="W16" s="2">
@@ -17970,13 +17927,12 @@
         <v>0</v>
       </c>
       <c r="Y16" s="2">
-        <v>1800</v>
+        <v>600</v>
       </c>
       <c r="Z16" s="2" t="s">
         <v>35</v>
       </c>
       <c r="AA16" s="2">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AB16" s="2">
@@ -17986,13 +17942,12 @@
         <v>0</v>
       </c>
       <c r="AD16" s="2">
-        <v>54000</v>
+        <v>18000</v>
       </c>
       <c r="AE16" s="2" t="s">
         <v>36</v>
       </c>
       <c r="AF16" s="2">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AG16" s="2">
@@ -18002,7 +17957,7 @@
         <v>0</v>
       </c>
       <c r="AI16" s="2">
-        <v>1800</v>
+        <v>600</v>
       </c>
       <c r="AJ16" s="2"/>
       <c r="AK16" s="2"/>
@@ -18045,13 +18000,12 @@
       </c>
       <c r="J17" s="2">
         <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K17,[1]属性表!$B$4:$B$26,0))*O17+INDEX([1]属性表!$E$4:$E$26,MATCH(P17,[1]属性表!$B$4:$B$26,0))*S17+INDEX([1]属性表!$E$4:$E$26,MATCH(U17,[1]属性表!$B$4:$B$26,0))*Y17+IF(ISBLANK(Z17),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z17,[1]属性表!$B$4:$B$26,0))*AD17)+IF(ISBLANK(AE17),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE17,[1]属性表!$B$4:$B$26,0))*AI17)</f>
-        <v>252000</v>
+        <v>84000</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L17" s="2">
-        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="M17" s="2">
@@ -18061,13 +18015,12 @@
         <v>0</v>
       </c>
       <c r="O17" s="2">
-        <v>4200</v>
+        <v>1400</v>
       </c>
       <c r="P17" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Q17" s="2">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R17" s="2">
@@ -18077,13 +18030,12 @@
         <v>0</v>
       </c>
       <c r="T17" s="2">
-        <v>31500</v>
+        <v>10500</v>
       </c>
       <c r="U17" s="2" t="s">
         <v>34</v>
       </c>
       <c r="V17" s="2">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="W17" s="2">
@@ -18093,13 +18045,12 @@
         <v>0</v>
       </c>
       <c r="Y17" s="2">
-        <v>2100</v>
+        <v>700</v>
       </c>
       <c r="Z17" s="2" t="s">
         <v>35</v>
       </c>
       <c r="AA17" s="2">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AB17" s="2">
@@ -18109,13 +18060,12 @@
         <v>0</v>
       </c>
       <c r="AD17" s="2">
-        <v>63000</v>
+        <v>21000</v>
       </c>
       <c r="AE17" s="2" t="s">
         <v>36</v>
       </c>
       <c r="AF17" s="2">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AG17" s="2">
@@ -18125,7 +18075,7 @@
         <v>0</v>
       </c>
       <c r="AI17" s="2">
-        <v>2100</v>
+        <v>700</v>
       </c>
       <c r="AJ17" s="2"/>
       <c r="AK17" s="2"/>
@@ -18168,13 +18118,12 @@
       </c>
       <c r="J18" s="2">
         <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K18,[1]属性表!$B$4:$B$26,0))*O18+INDEX([1]属性表!$E$4:$E$26,MATCH(P18,[1]属性表!$B$4:$B$26,0))*S18+INDEX([1]属性表!$E$4:$E$26,MATCH(U18,[1]属性表!$B$4:$B$26,0))*Y18+IF(ISBLANK(Z18),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z18,[1]属性表!$B$4:$B$26,0))*AD18)+IF(ISBLANK(AE18),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE18,[1]属性表!$B$4:$B$26,0))*AI18)</f>
-        <v>288000</v>
+        <v>96000</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L18" s="2">
-        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="M18" s="2">
@@ -18184,13 +18133,12 @@
         <v>0</v>
       </c>
       <c r="O18" s="2">
-        <v>4800</v>
+        <v>1600</v>
       </c>
       <c r="P18" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Q18" s="2">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R18" s="2">
@@ -18200,13 +18148,12 @@
         <v>0</v>
       </c>
       <c r="T18" s="2">
-        <v>36000</v>
+        <v>12000</v>
       </c>
       <c r="U18" s="2" t="s">
         <v>34</v>
       </c>
       <c r="V18" s="2">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="W18" s="2">
@@ -18216,13 +18163,12 @@
         <v>0</v>
       </c>
       <c r="Y18" s="2">
-        <v>2400</v>
+        <v>800</v>
       </c>
       <c r="Z18" s="2" t="s">
         <v>35</v>
       </c>
       <c r="AA18" s="2">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AB18" s="2">
@@ -18232,13 +18178,12 @@
         <v>0</v>
       </c>
       <c r="AD18" s="2">
-        <v>72000</v>
+        <v>24000</v>
       </c>
       <c r="AE18" s="2" t="s">
         <v>36</v>
       </c>
       <c r="AF18" s="2">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AG18" s="2">
@@ -18248,7 +18193,7 @@
         <v>0</v>
       </c>
       <c r="AI18" s="2">
-        <v>2400</v>
+        <v>800</v>
       </c>
       <c r="AJ18" s="2"/>
       <c r="AK18" s="2"/>
@@ -18291,13 +18236,12 @@
       </c>
       <c r="J19" s="2">
         <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K19,[1]属性表!$B$4:$B$26,0))*O19+INDEX([1]属性表!$E$4:$E$26,MATCH(P19,[1]属性表!$B$4:$B$26,0))*S19+INDEX([1]属性表!$E$4:$E$26,MATCH(U19,[1]属性表!$B$4:$B$26,0))*Y19+IF(ISBLANK(Z19),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z19,[1]属性表!$B$4:$B$26,0))*AD19)+IF(ISBLANK(AE19),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE19,[1]属性表!$B$4:$B$26,0))*AI19)</f>
-        <v>216000</v>
+        <v>72000</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L19" s="2">
-        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="M19" s="2">
@@ -18307,13 +18251,12 @@
         <v>0</v>
       </c>
       <c r="O19" s="2">
-        <v>3600</v>
+        <v>1200</v>
       </c>
       <c r="P19" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Q19" s="2">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R19" s="2">
@@ -18323,13 +18266,12 @@
         <v>0</v>
       </c>
       <c r="T19" s="2">
-        <v>27000</v>
+        <v>9000</v>
       </c>
       <c r="U19" s="2" t="s">
         <v>34</v>
       </c>
       <c r="V19" s="2">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="W19" s="2">
@@ -18339,13 +18281,12 @@
         <v>0</v>
       </c>
       <c r="Y19" s="2">
-        <v>1800</v>
+        <v>600</v>
       </c>
       <c r="Z19" s="2" t="s">
         <v>35</v>
       </c>
       <c r="AA19" s="2">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AB19" s="2">
@@ -18355,13 +18296,12 @@
         <v>0</v>
       </c>
       <c r="AD19" s="2">
-        <v>54000</v>
+        <v>18000</v>
       </c>
       <c r="AE19" s="2" t="s">
         <v>36</v>
       </c>
       <c r="AF19" s="2">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AG19" s="2">
@@ -18371,7 +18311,7 @@
         <v>0</v>
       </c>
       <c r="AI19" s="2">
-        <v>1800</v>
+        <v>600</v>
       </c>
       <c r="AJ19" s="2"/>
       <c r="AK19" s="2"/>
@@ -18414,13 +18354,12 @@
       </c>
       <c r="J20" s="2">
         <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K20,[1]属性表!$B$4:$B$26,0))*O20+INDEX([1]属性表!$E$4:$E$26,MATCH(P20,[1]属性表!$B$4:$B$26,0))*S20+INDEX([1]属性表!$E$4:$E$26,MATCH(U20,[1]属性表!$B$4:$B$26,0))*Y20+IF(ISBLANK(Z20),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z20,[1]属性表!$B$4:$B$26,0))*AD20)+IF(ISBLANK(AE20),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE20,[1]属性表!$B$4:$B$26,0))*AI20)</f>
-        <v>270000</v>
+        <v>90000</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L20" s="2">
-        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="M20" s="2">
@@ -18430,13 +18369,12 @@
         <v>0</v>
       </c>
       <c r="O20" s="2">
-        <v>4500</v>
+        <v>1500</v>
       </c>
       <c r="P20" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Q20" s="2">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R20" s="2">
@@ -18446,13 +18384,12 @@
         <v>0</v>
       </c>
       <c r="T20" s="2">
-        <v>33750</v>
+        <v>11250</v>
       </c>
       <c r="U20" s="2" t="s">
         <v>34</v>
       </c>
       <c r="V20" s="2">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="W20" s="2">
@@ -18462,13 +18399,12 @@
         <v>0</v>
       </c>
       <c r="Y20" s="2">
-        <v>2250</v>
+        <v>750</v>
       </c>
       <c r="Z20" s="2" t="s">
         <v>35</v>
       </c>
       <c r="AA20" s="2">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AB20" s="2">
@@ -18478,13 +18414,12 @@
         <v>0</v>
       </c>
       <c r="AD20" s="2">
-        <v>67500</v>
+        <v>22500</v>
       </c>
       <c r="AE20" s="2" t="s">
         <v>36</v>
       </c>
       <c r="AF20" s="2">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AG20" s="2">
@@ -18494,7 +18429,7 @@
         <v>0</v>
       </c>
       <c r="AI20" s="2">
-        <v>2250</v>
+        <v>750</v>
       </c>
       <c r="AJ20" s="2"/>
       <c r="AK20" s="2"/>
@@ -18537,13 +18472,12 @@
       </c>
       <c r="J21" s="2">
         <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K21,[1]属性表!$B$4:$B$26,0))*O21+INDEX([1]属性表!$E$4:$E$26,MATCH(P21,[1]属性表!$B$4:$B$26,0))*S21+INDEX([1]属性表!$E$4:$E$26,MATCH(U21,[1]属性表!$B$4:$B$26,0))*Y21+IF(ISBLANK(Z21),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z21,[1]属性表!$B$4:$B$26,0))*AD21)+IF(ISBLANK(AE21),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE21,[1]属性表!$B$4:$B$26,0))*AI21)</f>
-        <v>324000</v>
+        <v>108000</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L21" s="2">
-        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="M21" s="2">
@@ -18553,13 +18487,12 @@
         <v>0</v>
       </c>
       <c r="O21" s="2">
-        <v>5400</v>
+        <v>1800</v>
       </c>
       <c r="P21" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Q21" s="2">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R21" s="2">
@@ -18569,13 +18502,12 @@
         <v>0</v>
       </c>
       <c r="T21" s="2">
-        <v>40500</v>
+        <v>13500</v>
       </c>
       <c r="U21" s="2" t="s">
         <v>34</v>
       </c>
       <c r="V21" s="2">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="W21" s="2">
@@ -18585,13 +18517,12 @@
         <v>0</v>
       </c>
       <c r="Y21" s="2">
-        <v>2700</v>
+        <v>900</v>
       </c>
       <c r="Z21" s="2" t="s">
         <v>35</v>
       </c>
       <c r="AA21" s="2">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AB21" s="2">
@@ -18601,13 +18532,12 @@
         <v>0</v>
       </c>
       <c r="AD21" s="2">
-        <v>81000</v>
+        <v>27000</v>
       </c>
       <c r="AE21" s="2" t="s">
         <v>36</v>
       </c>
       <c r="AF21" s="2">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AG21" s="2">
@@ -18617,7 +18547,7 @@
         <v>0</v>
       </c>
       <c r="AI21" s="2">
-        <v>2700</v>
+        <v>900</v>
       </c>
       <c r="AJ21" s="2"/>
       <c r="AK21" s="2"/>
@@ -18660,13 +18590,12 @@
       </c>
       <c r="J22" s="2">
         <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K22,[1]属性表!$B$4:$B$26,0))*O22+INDEX([1]属性表!$E$4:$E$26,MATCH(P22,[1]属性表!$B$4:$B$26,0))*S22+INDEX([1]属性表!$E$4:$E$26,MATCH(U22,[1]属性表!$B$4:$B$26,0))*Y22+IF(ISBLANK(Z22),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z22,[1]属性表!$B$4:$B$26,0))*AD22)+IF(ISBLANK(AE22),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE22,[1]属性表!$B$4:$B$26,0))*AI22)</f>
-        <v>378000</v>
+        <v>126000</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L22" s="2">
-        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="M22" s="2">
@@ -18676,13 +18605,12 @@
         <v>0</v>
       </c>
       <c r="O22" s="2">
-        <v>6300</v>
+        <v>2100</v>
       </c>
       <c r="P22" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Q22" s="2">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R22" s="2">
@@ -18692,13 +18620,12 @@
         <v>0</v>
       </c>
       <c r="T22" s="2">
-        <v>47250</v>
+        <v>15750</v>
       </c>
       <c r="U22" s="2" t="s">
         <v>34</v>
       </c>
       <c r="V22" s="2">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="W22" s="2">
@@ -18708,13 +18635,12 @@
         <v>0</v>
       </c>
       <c r="Y22" s="2">
-        <v>3150</v>
+        <v>1050</v>
       </c>
       <c r="Z22" s="2" t="s">
         <v>35</v>
       </c>
       <c r="AA22" s="2">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AB22" s="2">
@@ -18724,13 +18650,12 @@
         <v>0</v>
       </c>
       <c r="AD22" s="2">
-        <v>94500</v>
+        <v>31500</v>
       </c>
       <c r="AE22" s="2" t="s">
         <v>36</v>
       </c>
       <c r="AF22" s="2">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AG22" s="2">
@@ -18740,7 +18665,7 @@
         <v>0</v>
       </c>
       <c r="AI22" s="2">
-        <v>3150</v>
+        <v>1050</v>
       </c>
       <c r="AJ22" s="2"/>
       <c r="AK22" s="2"/>
@@ -18783,13 +18708,12 @@
       </c>
       <c r="J23" s="2">
         <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K23,[1]属性表!$B$4:$B$26,0))*O23+INDEX([1]属性表!$E$4:$E$26,MATCH(P23,[1]属性表!$B$4:$B$26,0))*S23+INDEX([1]属性表!$E$4:$E$26,MATCH(U23,[1]属性表!$B$4:$B$26,0))*Y23+IF(ISBLANK(Z23),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z23,[1]属性表!$B$4:$B$26,0))*AD23)+IF(ISBLANK(AE23),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE23,[1]属性表!$B$4:$B$26,0))*AI23)</f>
-        <v>432000</v>
+        <v>144000</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L23" s="2">
-        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="M23" s="2">
@@ -18799,13 +18723,12 @@
         <v>0</v>
       </c>
       <c r="O23" s="2">
-        <v>7200</v>
+        <v>2400</v>
       </c>
       <c r="P23" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Q23" s="2">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R23" s="2">
@@ -18815,13 +18738,12 @@
         <v>0</v>
       </c>
       <c r="T23" s="2">
-        <v>54000</v>
+        <v>18000</v>
       </c>
       <c r="U23" s="2" t="s">
         <v>34</v>
       </c>
       <c r="V23" s="2">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="W23" s="2">
@@ -18831,13 +18753,12 @@
         <v>0</v>
       </c>
       <c r="Y23" s="2">
-        <v>3600</v>
+        <v>1200</v>
       </c>
       <c r="Z23" s="2" t="s">
         <v>35</v>
       </c>
       <c r="AA23" s="2">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AB23" s="2">
@@ -18847,13 +18768,12 @@
         <v>0</v>
       </c>
       <c r="AD23" s="2">
-        <v>108000</v>
+        <v>36000</v>
       </c>
       <c r="AE23" s="2" t="s">
         <v>36</v>
       </c>
       <c r="AF23" s="2">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AG23" s="2">
@@ -18863,7 +18783,7 @@
         <v>0</v>
       </c>
       <c r="AI23" s="2">
-        <v>3600</v>
+        <v>1200</v>
       </c>
       <c r="AJ23" s="2"/>
       <c r="AK23" s="2"/>
@@ -18906,13 +18826,12 @@
       </c>
       <c r="J24" s="2">
         <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K24,[1]属性表!$B$4:$B$26,0))*O24+INDEX([1]属性表!$E$4:$E$26,MATCH(P24,[1]属性表!$B$4:$B$26,0))*S24+INDEX([1]属性表!$E$4:$E$26,MATCH(U24,[1]属性表!$B$4:$B$26,0))*Y24+IF(ISBLANK(Z24),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z24,[1]属性表!$B$4:$B$26,0))*AD24)+IF(ISBLANK(AE24),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE24,[1]属性表!$B$4:$B$26,0))*AI24)</f>
-        <v>216000</v>
+        <v>72000</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L24" s="2">
-        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="M24" s="2">
@@ -18922,13 +18841,12 @@
         <v>0</v>
       </c>
       <c r="O24" s="2">
-        <v>3600</v>
+        <v>1200</v>
       </c>
       <c r="P24" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Q24" s="2">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R24" s="2">
@@ -18938,13 +18856,12 @@
         <v>0</v>
       </c>
       <c r="T24" s="2">
-        <v>54000</v>
+        <v>18000</v>
       </c>
       <c r="U24" s="2" t="s">
         <v>36</v>
       </c>
       <c r="V24" s="2">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="W24" s="2">
@@ -18954,7 +18871,7 @@
         <v>0</v>
       </c>
       <c r="Y24" s="2">
-        <v>3600</v>
+        <v>1200</v>
       </c>
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
@@ -19007,13 +18924,12 @@
       </c>
       <c r="J25" s="2">
         <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K25,[1]属性表!$B$4:$B$26,0))*O25+INDEX([1]属性表!$E$4:$E$26,MATCH(P25,[1]属性表!$B$4:$B$26,0))*S25+INDEX([1]属性表!$E$4:$E$26,MATCH(U25,[1]属性表!$B$4:$B$26,0))*Y25+IF(ISBLANK(Z25),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z25,[1]属性表!$B$4:$B$26,0))*AD25)+IF(ISBLANK(AE25),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE25,[1]属性表!$B$4:$B$26,0))*AI25)</f>
-        <v>270000</v>
+        <v>90000</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L25" s="2">
-        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="M25" s="2">
@@ -19023,13 +18939,12 @@
         <v>0</v>
       </c>
       <c r="O25" s="2">
-        <v>4500</v>
+        <v>1500</v>
       </c>
       <c r="P25" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Q25" s="2">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R25" s="2">
@@ -19039,13 +18954,12 @@
         <v>0</v>
       </c>
       <c r="T25" s="2">
-        <v>67500</v>
+        <v>22500</v>
       </c>
       <c r="U25" s="2" t="s">
         <v>36</v>
       </c>
       <c r="V25" s="2">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="W25" s="2">
@@ -19055,7 +18969,7 @@
         <v>0</v>
       </c>
       <c r="Y25" s="2">
-        <v>4500</v>
+        <v>1500</v>
       </c>
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
@@ -19108,13 +19022,12 @@
       </c>
       <c r="J26" s="2">
         <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K26,[1]属性表!$B$4:$B$26,0))*O26+INDEX([1]属性表!$E$4:$E$26,MATCH(P26,[1]属性表!$B$4:$B$26,0))*S26+INDEX([1]属性表!$E$4:$E$26,MATCH(U26,[1]属性表!$B$4:$B$26,0))*Y26+IF(ISBLANK(Z26),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z26,[1]属性表!$B$4:$B$26,0))*AD26)+IF(ISBLANK(AE26),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE26,[1]属性表!$B$4:$B$26,0))*AI26)</f>
-        <v>324000</v>
+        <v>108000</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L26" s="2">
-        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="M26" s="2">
@@ -19124,13 +19037,12 @@
         <v>0</v>
       </c>
       <c r="O26" s="2">
-        <v>5400</v>
+        <v>1800</v>
       </c>
       <c r="P26" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Q26" s="2">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R26" s="2">
@@ -19140,13 +19052,12 @@
         <v>0</v>
       </c>
       <c r="T26" s="2">
-        <v>81000</v>
+        <v>27000</v>
       </c>
       <c r="U26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="V26" s="2">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="W26" s="2">
@@ -19156,7 +19067,7 @@
         <v>0</v>
       </c>
       <c r="Y26" s="2">
-        <v>5400</v>
+        <v>1800</v>
       </c>
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
@@ -19209,13 +19120,12 @@
       </c>
       <c r="J27" s="2">
         <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K27,[1]属性表!$B$4:$B$26,0))*O27+INDEX([1]属性表!$E$4:$E$26,MATCH(P27,[1]属性表!$B$4:$B$26,0))*S27+INDEX([1]属性表!$E$4:$E$26,MATCH(U27,[1]属性表!$B$4:$B$26,0))*Y27+IF(ISBLANK(Z27),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z27,[1]属性表!$B$4:$B$26,0))*AD27)+IF(ISBLANK(AE27),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE27,[1]属性表!$B$4:$B$26,0))*AI27)</f>
-        <v>378000</v>
+        <v>126000</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L27" s="2">
-        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="M27" s="2">
@@ -19225,13 +19135,12 @@
         <v>0</v>
       </c>
       <c r="O27" s="2">
-        <v>6300</v>
+        <v>2100</v>
       </c>
       <c r="P27" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Q27" s="2">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R27" s="2">
@@ -19241,13 +19150,12 @@
         <v>0</v>
       </c>
       <c r="T27" s="2">
-        <v>94500</v>
+        <v>31500</v>
       </c>
       <c r="U27" s="2" t="s">
         <v>36</v>
       </c>
       <c r="V27" s="2">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="W27" s="2">
@@ -19257,7 +19165,7 @@
         <v>0</v>
       </c>
       <c r="Y27" s="2">
-        <v>6300</v>
+        <v>2100</v>
       </c>
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
@@ -19310,13 +19218,12 @@
       </c>
       <c r="J28" s="2">
         <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K28,[1]属性表!$B$4:$B$26,0))*O28+INDEX([1]属性表!$E$4:$E$26,MATCH(P28,[1]属性表!$B$4:$B$26,0))*S28+INDEX([1]属性表!$E$4:$E$26,MATCH(U28,[1]属性表!$B$4:$B$26,0))*Y28+IF(ISBLANK(Z28),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z28,[1]属性表!$B$4:$B$26,0))*AD28)+IF(ISBLANK(AE28),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE28,[1]属性表!$B$4:$B$26,0))*AI28)</f>
-        <v>432000</v>
+        <v>144000</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L28" s="2">
-        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="M28" s="2">
@@ -19326,13 +19233,12 @@
         <v>0</v>
       </c>
       <c r="O28" s="2">
-        <v>7200</v>
+        <v>2400</v>
       </c>
       <c r="P28" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Q28" s="2">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R28" s="2">
@@ -19342,13 +19248,12 @@
         <v>0</v>
       </c>
       <c r="T28" s="2">
-        <v>108000</v>
+        <v>36000</v>
       </c>
       <c r="U28" s="2" t="s">
         <v>36</v>
       </c>
       <c r="V28" s="2">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="W28" s="2">
@@ -19358,7 +19263,7 @@
         <v>0</v>
       </c>
       <c r="Y28" s="2">
-        <v>7200</v>
+        <v>2400</v>
       </c>
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
@@ -19411,13 +19316,12 @@
       </c>
       <c r="J29" s="2">
         <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K29,[1]属性表!$B$4:$B$26,0))*O29+INDEX([1]属性表!$E$4:$E$26,MATCH(P29,[1]属性表!$B$4:$B$26,0))*S29+INDEX([1]属性表!$E$4:$E$26,MATCH(U29,[1]属性表!$B$4:$B$26,0))*Y29+IF(ISBLANK(Z29),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z29,[1]属性表!$B$4:$B$26,0))*AD29)+IF(ISBLANK(AE29),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE29,[1]属性表!$B$4:$B$26,0))*AI29)</f>
-        <v>144000</v>
+        <v>48000</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L29" s="2">
-        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="M29" s="2">
@@ -19427,13 +19331,12 @@
         <v>0</v>
       </c>
       <c r="O29" s="2">
-        <v>3600</v>
+        <v>1200</v>
       </c>
       <c r="P29" s="2" t="s">
         <v>34</v>
       </c>
       <c r="Q29" s="2">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R29" s="2">
@@ -19443,13 +19346,12 @@
         <v>0</v>
       </c>
       <c r="T29" s="2">
-        <v>3600</v>
+        <v>1200</v>
       </c>
       <c r="U29" s="2" t="s">
         <v>35</v>
       </c>
       <c r="V29" s="2">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="W29" s="2">
@@ -19459,7 +19361,7 @@
         <v>0</v>
       </c>
       <c r="Y29" s="2">
-        <v>108000</v>
+        <v>36000</v>
       </c>
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
@@ -19512,13 +19414,12 @@
       </c>
       <c r="J30" s="2">
         <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K30,[1]属性表!$B$4:$B$26,0))*O30+INDEX([1]属性表!$E$4:$E$26,MATCH(P30,[1]属性表!$B$4:$B$26,0))*S30+INDEX([1]属性表!$E$4:$E$26,MATCH(U30,[1]属性表!$B$4:$B$26,0))*Y30+IF(ISBLANK(Z30),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z30,[1]属性表!$B$4:$B$26,0))*AD30)+IF(ISBLANK(AE30),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE30,[1]属性表!$B$4:$B$26,0))*AI30)</f>
-        <v>180000</v>
+        <v>60000</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L30" s="2">
-        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="M30" s="2">
@@ -19528,13 +19429,12 @@
         <v>0</v>
       </c>
       <c r="O30" s="2">
-        <v>4500</v>
+        <v>1500</v>
       </c>
       <c r="P30" s="2" t="s">
         <v>34</v>
       </c>
       <c r="Q30" s="2">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R30" s="2">
@@ -19544,13 +19444,12 @@
         <v>0</v>
       </c>
       <c r="T30" s="2">
-        <v>4500</v>
+        <v>1500</v>
       </c>
       <c r="U30" s="2" t="s">
         <v>35</v>
       </c>
       <c r="V30" s="2">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="W30" s="2">
@@ -19560,7 +19459,7 @@
         <v>0</v>
       </c>
       <c r="Y30" s="2">
-        <v>135000</v>
+        <v>45000</v>
       </c>
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
@@ -19613,13 +19512,12 @@
       </c>
       <c r="J31" s="2">
         <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K31,[1]属性表!$B$4:$B$26,0))*O31+INDEX([1]属性表!$E$4:$E$26,MATCH(P31,[1]属性表!$B$4:$B$26,0))*S31+INDEX([1]属性表!$E$4:$E$26,MATCH(U31,[1]属性表!$B$4:$B$26,0))*Y31+IF(ISBLANK(Z31),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z31,[1]属性表!$B$4:$B$26,0))*AD31)+IF(ISBLANK(AE31),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE31,[1]属性表!$B$4:$B$26,0))*AI31)</f>
-        <v>216000</v>
+        <v>72000</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L31" s="2">
-        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="M31" s="2">
@@ -19629,13 +19527,12 @@
         <v>0</v>
       </c>
       <c r="O31" s="2">
-        <v>5400</v>
+        <v>1800</v>
       </c>
       <c r="P31" s="2" t="s">
         <v>34</v>
       </c>
       <c r="Q31" s="2">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R31" s="2">
@@ -19645,13 +19542,12 @@
         <v>0</v>
       </c>
       <c r="T31" s="2">
-        <v>5400</v>
+        <v>1800</v>
       </c>
       <c r="U31" s="2" t="s">
         <v>35</v>
       </c>
       <c r="V31" s="2">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="W31" s="2">
@@ -19661,7 +19557,7 @@
         <v>0</v>
       </c>
       <c r="Y31" s="2">
-        <v>162000</v>
+        <v>54000</v>
       </c>
       <c r="Z31" s="2"/>
       <c r="AA31" s="2"/>
@@ -19714,13 +19610,12 @@
       </c>
       <c r="J32" s="2">
         <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K32,[1]属性表!$B$4:$B$26,0))*O32+INDEX([1]属性表!$E$4:$E$26,MATCH(P32,[1]属性表!$B$4:$B$26,0))*S32+INDEX([1]属性表!$E$4:$E$26,MATCH(U32,[1]属性表!$B$4:$B$26,0))*Y32+IF(ISBLANK(Z32),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z32,[1]属性表!$B$4:$B$26,0))*AD32)+IF(ISBLANK(AE32),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE32,[1]属性表!$B$4:$B$26,0))*AI32)</f>
-        <v>252000</v>
+        <v>84000</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L32" s="2">
-        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="M32" s="2">
@@ -19730,13 +19625,12 @@
         <v>0</v>
       </c>
       <c r="O32" s="2">
-        <v>6300</v>
+        <v>2100</v>
       </c>
       <c r="P32" s="2" t="s">
         <v>34</v>
       </c>
       <c r="Q32" s="2">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R32" s="2">
@@ -19746,13 +19640,12 @@
         <v>0</v>
       </c>
       <c r="T32" s="2">
-        <v>6300</v>
+        <v>2100</v>
       </c>
       <c r="U32" s="2" t="s">
         <v>35</v>
       </c>
       <c r="V32" s="2">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="W32" s="2">
@@ -19762,7 +19655,7 @@
         <v>0</v>
       </c>
       <c r="Y32" s="2">
-        <v>189000</v>
+        <v>63000</v>
       </c>
       <c r="Z32" s="2"/>
       <c r="AA32" s="2"/>
@@ -19815,13 +19708,12 @@
       </c>
       <c r="J33" s="2">
         <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K33,[1]属性表!$B$4:$B$26,0))*O33+INDEX([1]属性表!$E$4:$E$26,MATCH(P33,[1]属性表!$B$4:$B$26,0))*S33+INDEX([1]属性表!$E$4:$E$26,MATCH(U33,[1]属性表!$B$4:$B$26,0))*Y33+IF(ISBLANK(Z33),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z33,[1]属性表!$B$4:$B$26,0))*AD33)+IF(ISBLANK(AE33),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE33,[1]属性表!$B$4:$B$26,0))*AI33)</f>
-        <v>288000</v>
+        <v>96000</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L33" s="2">
-        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="M33" s="2">
@@ -19831,13 +19723,12 @@
         <v>0</v>
       </c>
       <c r="O33" s="2">
-        <v>7200</v>
+        <v>2400</v>
       </c>
       <c r="P33" s="2" t="s">
         <v>34</v>
       </c>
       <c r="Q33" s="2">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R33" s="2">
@@ -19847,13 +19738,12 @@
         <v>0</v>
       </c>
       <c r="T33" s="2">
-        <v>7200</v>
+        <v>2400</v>
       </c>
       <c r="U33" s="2" t="s">
         <v>35</v>
       </c>
       <c r="V33" s="2">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="W33" s="2">
@@ -19863,7 +19753,7 @@
         <v>0</v>
       </c>
       <c r="Y33" s="2">
-        <v>216000</v>
+        <v>72000</v>
       </c>
       <c r="Z33" s="2"/>
       <c r="AA33" s="2"/>
@@ -19916,13 +19806,12 @@
       </c>
       <c r="J34" s="2">
         <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K34,[1]属性表!$B$4:$B$26,0))*O34+INDEX([1]属性表!$E$4:$E$26,MATCH(P34,[1]属性表!$B$4:$B$26,0))*S34+INDEX([1]属性表!$E$4:$E$26,MATCH(U34,[1]属性表!$B$4:$B$26,0))*Y34+IF(ISBLANK(Z34),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z34,[1]属性表!$B$4:$B$26,0))*AD34)+IF(ISBLANK(AE34),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE34,[1]属性表!$B$4:$B$26,0))*AI34)</f>
-        <v>396000</v>
+        <v>132000</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L34" s="2">
-        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="M34" s="2">
@@ -19932,13 +19821,12 @@
         <v>0</v>
       </c>
       <c r="O34" s="2">
-        <v>6600</v>
+        <v>2200</v>
       </c>
       <c r="P34" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Q34" s="2">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R34" s="2">
@@ -19948,13 +19836,12 @@
         <v>0</v>
       </c>
       <c r="T34" s="2">
-        <v>99000</v>
+        <v>33000</v>
       </c>
       <c r="U34" s="2" t="s">
         <v>36</v>
       </c>
       <c r="V34" s="2">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="W34" s="2">
@@ -19964,7 +19851,7 @@
         <v>0</v>
       </c>
       <c r="Y34" s="2">
-        <v>6600</v>
+        <v>2200</v>
       </c>
       <c r="Z34" s="2"/>
       <c r="AA34" s="2"/>
@@ -20017,13 +19904,12 @@
       </c>
       <c r="J35" s="2">
         <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K35,[1]属性表!$B$4:$B$26,0))*O35+INDEX([1]属性表!$E$4:$E$26,MATCH(P35,[1]属性表!$B$4:$B$26,0))*S35+INDEX([1]属性表!$E$4:$E$26,MATCH(U35,[1]属性表!$B$4:$B$26,0))*Y35+IF(ISBLANK(Z35),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z35,[1]属性表!$B$4:$B$26,0))*AD35)+IF(ISBLANK(AE35),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE35,[1]属性表!$B$4:$B$26,0))*AI35)</f>
-        <v>534600</v>
+        <v>178200</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L35" s="2">
-        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="M35" s="2">
@@ -20033,13 +19919,12 @@
         <v>0</v>
       </c>
       <c r="O35" s="2">
-        <v>8910</v>
+        <v>2970</v>
       </c>
       <c r="P35" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Q35" s="2">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R35" s="2">
@@ -20049,13 +19934,12 @@
         <v>0</v>
       </c>
       <c r="T35" s="2">
-        <v>133650</v>
+        <v>44550</v>
       </c>
       <c r="U35" s="2" t="s">
         <v>36</v>
       </c>
       <c r="V35" s="2">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="W35" s="2">
@@ -20065,7 +19949,7 @@
         <v>0</v>
       </c>
       <c r="Y35" s="2">
-        <v>8910</v>
+        <v>2970</v>
       </c>
       <c r="Z35" s="2"/>
       <c r="AA35" s="2"/>
@@ -20118,13 +20002,12 @@
       </c>
       <c r="J36" s="2">
         <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K36,[1]属性表!$B$4:$B$26,0))*O36+INDEX([1]属性表!$E$4:$E$26,MATCH(P36,[1]属性表!$B$4:$B$26,0))*S36+INDEX([1]属性表!$E$4:$E$26,MATCH(U36,[1]属性表!$B$4:$B$26,0))*Y36+IF(ISBLANK(Z36),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z36,[1]属性表!$B$4:$B$26,0))*AD36)+IF(ISBLANK(AE36),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE36,[1]属性表!$B$4:$B$26,0))*AI36)</f>
-        <v>673200</v>
+        <v>224400</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L36" s="2">
-        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="M36" s="2">
@@ -20134,13 +20017,12 @@
         <v>0</v>
       </c>
       <c r="O36" s="2">
-        <v>11220</v>
+        <v>3740</v>
       </c>
       <c r="P36" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Q36" s="2">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R36" s="2">
@@ -20150,13 +20032,12 @@
         <v>0</v>
       </c>
       <c r="T36" s="2">
-        <v>168300</v>
+        <v>56100</v>
       </c>
       <c r="U36" s="2" t="s">
         <v>36</v>
       </c>
       <c r="V36" s="2">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="W36" s="2">
@@ -20166,7 +20047,7 @@
         <v>0</v>
       </c>
       <c r="Y36" s="2">
-        <v>11220</v>
+        <v>3740</v>
       </c>
       <c r="Z36" s="2"/>
       <c r="AA36" s="2"/>
@@ -20219,13 +20100,12 @@
       </c>
       <c r="J37" s="2">
         <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K37,[1]属性表!$B$4:$B$26,0))*O37+INDEX([1]属性表!$E$4:$E$26,MATCH(P37,[1]属性表!$B$4:$B$26,0))*S37+INDEX([1]属性表!$E$4:$E$26,MATCH(U37,[1]属性表!$B$4:$B$26,0))*Y37+IF(ISBLANK(Z37),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z37,[1]属性表!$B$4:$B$26,0))*AD37)+IF(ISBLANK(AE37),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE37,[1]属性表!$B$4:$B$26,0))*AI37)</f>
-        <v>811799.99999999988</v>
+        <v>270600</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L37" s="2">
-        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="M37" s="2">
@@ -20235,13 +20115,12 @@
         <v>0</v>
       </c>
       <c r="O37" s="2">
-        <v>13529.999999999998</v>
+        <v>4510</v>
       </c>
       <c r="P37" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Q37" s="2">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R37" s="2">
@@ -20251,13 +20130,12 @@
         <v>0</v>
       </c>
       <c r="T37" s="2">
-        <v>202949.99999999997</v>
+        <v>67650</v>
       </c>
       <c r="U37" s="2" t="s">
         <v>36</v>
       </c>
       <c r="V37" s="2">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="W37" s="2">
@@ -20267,7 +20145,7 @@
         <v>0</v>
       </c>
       <c r="Y37" s="2">
-        <v>13529.999999999998</v>
+        <v>4510</v>
       </c>
       <c r="Z37" s="2"/>
       <c r="AA37" s="2"/>
@@ -20320,13 +20198,12 @@
       </c>
       <c r="J38" s="2">
         <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K38,[1]属性表!$B$4:$B$26,0))*O38+INDEX([1]属性表!$E$4:$E$26,MATCH(P38,[1]属性表!$B$4:$B$26,0))*S38+INDEX([1]属性表!$E$4:$E$26,MATCH(U38,[1]属性表!$B$4:$B$26,0))*Y38+IF(ISBLANK(Z38),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z38,[1]属性表!$B$4:$B$26,0))*AD38)+IF(ISBLANK(AE38),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE38,[1]属性表!$B$4:$B$26,0))*AI38)</f>
-        <v>990000</v>
+        <v>330000</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L38" s="2">
-        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="M38" s="2">
@@ -20336,13 +20213,12 @@
         <v>0</v>
       </c>
       <c r="O38" s="2">
-        <v>16500</v>
+        <v>5500</v>
       </c>
       <c r="P38" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Q38" s="2">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R38" s="2">
@@ -20352,13 +20228,12 @@
         <v>0</v>
       </c>
       <c r="T38" s="2">
-        <v>247500</v>
+        <v>82500</v>
       </c>
       <c r="U38" s="2" t="s">
         <v>36</v>
       </c>
       <c r="V38" s="2">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="W38" s="2">
@@ -20368,7 +20243,7 @@
         <v>0</v>
       </c>
       <c r="Y38" s="2">
-        <v>16500</v>
+        <v>5500</v>
       </c>
       <c r="Z38" s="2"/>
       <c r="AA38" s="2"/>
@@ -20421,13 +20296,12 @@
       </c>
       <c r="J39" s="2">
         <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K39,[1]属性表!$B$4:$B$26,0))*O39+INDEX([1]属性表!$E$4:$E$26,MATCH(P39,[1]属性表!$B$4:$B$26,0))*S39+INDEX([1]属性表!$E$4:$E$26,MATCH(U39,[1]属性表!$B$4:$B$26,0))*Y39+IF(ISBLANK(Z39),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z39,[1]属性表!$B$4:$B$26,0))*AD39)+IF(ISBLANK(AE39),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE39,[1]属性表!$B$4:$B$26,0))*AI39)</f>
-        <v>264000</v>
+        <v>88000</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L39" s="2">
-        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="M39" s="2">
@@ -20437,13 +20311,12 @@
         <v>0</v>
       </c>
       <c r="O39" s="2">
-        <v>6600</v>
+        <v>2200</v>
       </c>
       <c r="P39" s="2" t="s">
         <v>34</v>
       </c>
       <c r="Q39" s="2">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R39" s="2">
@@ -20453,13 +20326,12 @@
         <v>0</v>
       </c>
       <c r="T39" s="2">
-        <v>6600</v>
+        <v>2200</v>
       </c>
       <c r="U39" s="2" t="s">
         <v>35</v>
       </c>
       <c r="V39" s="2">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="W39" s="2">
@@ -20469,7 +20341,7 @@
         <v>0</v>
       </c>
       <c r="Y39" s="2">
-        <v>198000</v>
+        <v>66000</v>
       </c>
       <c r="Z39" s="2"/>
       <c r="AA39" s="2"/>
@@ -20522,13 +20394,12 @@
       </c>
       <c r="J40" s="2">
         <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K40,[1]属性表!$B$4:$B$26,0))*O40+INDEX([1]属性表!$E$4:$E$26,MATCH(P40,[1]属性表!$B$4:$B$26,0))*S40+INDEX([1]属性表!$E$4:$E$26,MATCH(U40,[1]属性表!$B$4:$B$26,0))*Y40+IF(ISBLANK(Z40),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z40,[1]属性表!$B$4:$B$26,0))*AD40)+IF(ISBLANK(AE40),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE40,[1]属性表!$B$4:$B$26,0))*AI40)</f>
-        <v>356400</v>
+        <v>118800</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L40" s="2">
-        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="M40" s="2">
@@ -20538,13 +20409,12 @@
         <v>0</v>
       </c>
       <c r="O40" s="2">
-        <v>8910</v>
+        <v>2970</v>
       </c>
       <c r="P40" s="2" t="s">
         <v>34</v>
       </c>
       <c r="Q40" s="2">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R40" s="2">
@@ -20554,13 +20424,12 @@
         <v>0</v>
       </c>
       <c r="T40" s="2">
-        <v>8910</v>
+        <v>2970</v>
       </c>
       <c r="U40" s="2" t="s">
         <v>35</v>
       </c>
       <c r="V40" s="2">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="W40" s="2">
@@ -20570,7 +20439,7 @@
         <v>0</v>
       </c>
       <c r="Y40" s="2">
-        <v>267300</v>
+        <v>89100</v>
       </c>
       <c r="Z40" s="2"/>
       <c r="AA40" s="2"/>
@@ -20623,13 +20492,12 @@
       </c>
       <c r="J41" s="2">
         <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K41,[1]属性表!$B$4:$B$26,0))*O41+INDEX([1]属性表!$E$4:$E$26,MATCH(P41,[1]属性表!$B$4:$B$26,0))*S41+INDEX([1]属性表!$E$4:$E$26,MATCH(U41,[1]属性表!$B$4:$B$26,0))*Y41+IF(ISBLANK(Z41),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z41,[1]属性表!$B$4:$B$26,0))*AD41)+IF(ISBLANK(AE41),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE41,[1]属性表!$B$4:$B$26,0))*AI41)</f>
-        <v>448800</v>
+        <v>149600</v>
       </c>
       <c r="K41" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L41" s="2">
-        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="M41" s="2">
@@ -20639,13 +20507,12 @@
         <v>0</v>
       </c>
       <c r="O41" s="2">
-        <v>11220</v>
+        <v>3740</v>
       </c>
       <c r="P41" s="2" t="s">
         <v>34</v>
       </c>
       <c r="Q41" s="2">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R41" s="2">
@@ -20655,13 +20522,12 @@
         <v>0</v>
       </c>
       <c r="T41" s="2">
-        <v>11220</v>
+        <v>3740</v>
       </c>
       <c r="U41" s="2" t="s">
         <v>35</v>
       </c>
       <c r="V41" s="2">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="W41" s="2">
@@ -20671,7 +20537,7 @@
         <v>0</v>
       </c>
       <c r="Y41" s="2">
-        <v>336600</v>
+        <v>112200</v>
       </c>
       <c r="Z41" s="2"/>
       <c r="AA41" s="2"/>
@@ -20724,13 +20590,12 @@
       </c>
       <c r="J42" s="2">
         <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K42,[1]属性表!$B$4:$B$26,0))*O42+INDEX([1]属性表!$E$4:$E$26,MATCH(P42,[1]属性表!$B$4:$B$26,0))*S42+INDEX([1]属性表!$E$4:$E$26,MATCH(U42,[1]属性表!$B$4:$B$26,0))*Y42+IF(ISBLANK(Z42),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z42,[1]属性表!$B$4:$B$26,0))*AD42)+IF(ISBLANK(AE42),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE42,[1]属性表!$B$4:$B$26,0))*AI42)</f>
-        <v>541199.99999999988</v>
+        <v>180400</v>
       </c>
       <c r="K42" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L42" s="2">
-        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="M42" s="2">
@@ -20740,13 +20605,12 @@
         <v>0</v>
       </c>
       <c r="O42" s="2">
-        <v>13529.999999999998</v>
+        <v>4510</v>
       </c>
       <c r="P42" s="2" t="s">
         <v>34</v>
       </c>
       <c r="Q42" s="2">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R42" s="2">
@@ -20756,13 +20620,12 @@
         <v>0</v>
       </c>
       <c r="T42" s="2">
-        <v>13529.999999999998</v>
+        <v>4510</v>
       </c>
       <c r="U42" s="2" t="s">
         <v>35</v>
       </c>
       <c r="V42" s="2">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="W42" s="2">
@@ -20772,7 +20635,7 @@
         <v>0</v>
       </c>
       <c r="Y42" s="2">
-        <v>405899.99999999994</v>
+        <v>135300</v>
       </c>
       <c r="Z42" s="2"/>
       <c r="AA42" s="2"/>
@@ -20825,13 +20688,12 @@
       </c>
       <c r="J43" s="2">
         <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K43,[1]属性表!$B$4:$B$26,0))*O43+INDEX([1]属性表!$E$4:$E$26,MATCH(P43,[1]属性表!$B$4:$B$26,0))*S43+INDEX([1]属性表!$E$4:$E$26,MATCH(U43,[1]属性表!$B$4:$B$26,0))*Y43+IF(ISBLANK(Z43),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z43,[1]属性表!$B$4:$B$26,0))*AD43)+IF(ISBLANK(AE43),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE43,[1]属性表!$B$4:$B$26,0))*AI43)</f>
-        <v>660000</v>
+        <v>220000</v>
       </c>
       <c r="K43" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L43" s="2">
-        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="M43" s="2">
@@ -20841,13 +20703,12 @@
         <v>0</v>
       </c>
       <c r="O43" s="2">
-        <v>16500</v>
+        <v>5500</v>
       </c>
       <c r="P43" s="2" t="s">
         <v>34</v>
       </c>
       <c r="Q43" s="2">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R43" s="2">
@@ -20857,13 +20718,12 @@
         <v>0</v>
       </c>
       <c r="T43" s="2">
-        <v>16500</v>
+        <v>5500</v>
       </c>
       <c r="U43" s="2" t="s">
         <v>35</v>
       </c>
       <c r="V43" s="2">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="W43" s="2">
@@ -20873,7 +20733,7 @@
         <v>0</v>
       </c>
       <c r="Y43" s="2">
-        <v>495000</v>
+        <v>165000</v>
       </c>
       <c r="Z43" s="2"/>
       <c r="AA43" s="2"/>
@@ -20926,13 +20786,12 @@
       </c>
       <c r="J44" s="2">
         <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K44,[1]属性表!$B$4:$B$26,0))*O44+INDEX([1]属性表!$E$4:$E$26,MATCH(P44,[1]属性表!$B$4:$B$26,0))*S44+INDEX([1]属性表!$E$4:$E$26,MATCH(U44,[1]属性表!$B$4:$B$26,0))*Y44+IF(ISBLANK(Z44),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z44,[1]属性表!$B$4:$B$26,0))*AD44)+IF(ISBLANK(AE44),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE44,[1]属性表!$B$4:$B$26,0))*AI44)</f>
-        <v>396000</v>
+        <v>132000</v>
       </c>
       <c r="K44" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L44" s="2">
-        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="M44" s="2">
@@ -20942,13 +20801,12 @@
         <v>0</v>
       </c>
       <c r="O44" s="2">
-        <v>6600</v>
+        <v>2200</v>
       </c>
       <c r="P44" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Q44" s="2">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R44" s="2">
@@ -20958,13 +20816,12 @@
         <v>0</v>
       </c>
       <c r="T44" s="2">
-        <v>49500</v>
+        <v>16500</v>
       </c>
       <c r="U44" s="2" t="s">
         <v>34</v>
       </c>
       <c r="V44" s="2">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="W44" s="2">
@@ -20974,14 +20831,13 @@
         <v>0</v>
       </c>
       <c r="Y44" s="2">
-        <v>3300</v>
+        <v>1100</v>
       </c>
       <c r="Z44" s="2" t="s">
         <v>35</v>
       </c>
       <c r="AA44" s="2">
-        <f>IF(OR(Z44="atk",Z44="crit",Z44="dash",Z44="dmgInc"),31,1)</f>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AB44" s="2">
         <v>0</v>
@@ -20990,14 +20846,13 @@
         <v>0</v>
       </c>
       <c r="AD44" s="2">
-        <v>99000</v>
+        <v>33000</v>
       </c>
       <c r="AE44" s="2" t="s">
         <v>36</v>
       </c>
       <c r="AF44" s="2">
-        <f>IF(OR(AE44="atk",AE44="crit",AE44="dash",AE44="dmgInc"),31,1)</f>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AG44" s="2">
         <v>0</v>
@@ -21006,7 +20861,7 @@
         <v>0</v>
       </c>
       <c r="AI44" s="2">
-        <v>3300</v>
+        <v>1100</v>
       </c>
       <c r="AJ44" s="2"/>
       <c r="AK44" s="2"/>
@@ -21049,13 +20904,12 @@
       </c>
       <c r="J45" s="2">
         <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K45,[1]属性表!$B$4:$B$26,0))*O45+INDEX([1]属性表!$E$4:$E$26,MATCH(P45,[1]属性表!$B$4:$B$26,0))*S45+INDEX([1]属性表!$E$4:$E$26,MATCH(U45,[1]属性表!$B$4:$B$26,0))*Y45+IF(ISBLANK(Z45),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z45,[1]属性表!$B$4:$B$26,0))*AD45)+IF(ISBLANK(AE45),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE45,[1]属性表!$B$4:$B$26,0))*AI45)</f>
-        <v>534600</v>
+        <v>178200</v>
       </c>
       <c r="K45" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L45" s="2">
-        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="M45" s="2">
@@ -21065,13 +20919,12 @@
         <v>0</v>
       </c>
       <c r="O45" s="2">
-        <v>8910</v>
+        <v>2970</v>
       </c>
       <c r="P45" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Q45" s="2">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R45" s="2">
@@ -21081,13 +20934,12 @@
         <v>0</v>
       </c>
       <c r="T45" s="2">
-        <v>66825</v>
+        <v>22275</v>
       </c>
       <c r="U45" s="2" t="s">
         <v>34</v>
       </c>
       <c r="V45" s="2">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="W45" s="2">
@@ -21097,14 +20949,13 @@
         <v>0</v>
       </c>
       <c r="Y45" s="2">
-        <v>4455</v>
+        <v>1485</v>
       </c>
       <c r="Z45" s="2" t="s">
         <v>35</v>
       </c>
       <c r="AA45" s="2">
-        <f t="shared" ref="AA45:AA68" si="5">IF(OR(Z45="atk",Z45="crit",Z45="dash",Z45="dmgInc"),31,1)</f>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AB45" s="2">
         <v>0</v>
@@ -21113,14 +20964,13 @@
         <v>0</v>
       </c>
       <c r="AD45" s="2">
-        <v>133650</v>
+        <v>44550</v>
       </c>
       <c r="AE45" s="2" t="s">
         <v>36</v>
       </c>
       <c r="AF45" s="2">
-        <f t="shared" ref="AF45:AF68" si="6">IF(OR(AE45="atk",AE45="crit",AE45="dash",AE45="dmgInc"),31,1)</f>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AG45" s="2">
         <v>0</v>
@@ -21129,7 +20979,7 @@
         <v>0</v>
       </c>
       <c r="AI45" s="2">
-        <v>4455</v>
+        <v>1485</v>
       </c>
       <c r="AJ45" s="2"/>
       <c r="AK45" s="2"/>
@@ -21172,13 +21022,12 @@
       </c>
       <c r="J46" s="2">
         <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K46,[1]属性表!$B$4:$B$26,0))*O46+INDEX([1]属性表!$E$4:$E$26,MATCH(P46,[1]属性表!$B$4:$B$26,0))*S46+INDEX([1]属性表!$E$4:$E$26,MATCH(U46,[1]属性表!$B$4:$B$26,0))*Y46+IF(ISBLANK(Z46),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z46,[1]属性表!$B$4:$B$26,0))*AD46)+IF(ISBLANK(AE46),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE46,[1]属性表!$B$4:$B$26,0))*AI46)</f>
-        <v>673200</v>
+        <v>224400</v>
       </c>
       <c r="K46" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L46" s="2">
-        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="M46" s="2">
@@ -21188,13 +21037,12 @@
         <v>0</v>
       </c>
       <c r="O46" s="2">
-        <v>11220</v>
+        <v>3740</v>
       </c>
       <c r="P46" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Q46" s="2">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R46" s="2">
@@ -21204,13 +21052,12 @@
         <v>0</v>
       </c>
       <c r="T46" s="2">
-        <v>84150</v>
+        <v>28050</v>
       </c>
       <c r="U46" s="2" t="s">
         <v>34</v>
       </c>
       <c r="V46" s="2">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="W46" s="2">
@@ -21220,14 +21067,13 @@
         <v>0</v>
       </c>
       <c r="Y46" s="2">
-        <v>5610</v>
+        <v>1870</v>
       </c>
       <c r="Z46" s="2" t="s">
         <v>35</v>
       </c>
       <c r="AA46" s="2">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AB46" s="2">
         <v>0</v>
@@ -21236,14 +21082,13 @@
         <v>0</v>
       </c>
       <c r="AD46" s="2">
-        <v>168300</v>
+        <v>56100</v>
       </c>
       <c r="AE46" s="2" t="s">
         <v>36</v>
       </c>
       <c r="AF46" s="2">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AG46" s="2">
         <v>0</v>
@@ -21252,7 +21097,7 @@
         <v>0</v>
       </c>
       <c r="AI46" s="2">
-        <v>5610</v>
+        <v>1870</v>
       </c>
       <c r="AJ46" s="2"/>
       <c r="AK46" s="2"/>
@@ -21295,13 +21140,12 @@
       </c>
       <c r="J47" s="2">
         <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K47,[1]属性表!$B$4:$B$26,0))*O47+INDEX([1]属性表!$E$4:$E$26,MATCH(P47,[1]属性表!$B$4:$B$26,0))*S47+INDEX([1]属性表!$E$4:$E$26,MATCH(U47,[1]属性表!$B$4:$B$26,0))*Y47+IF(ISBLANK(Z47),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z47,[1]属性表!$B$4:$B$26,0))*AD47)+IF(ISBLANK(AE47),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE47,[1]属性表!$B$4:$B$26,0))*AI47)</f>
-        <v>811799.99999999988</v>
+        <v>270600</v>
       </c>
       <c r="K47" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L47" s="2">
-        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="M47" s="2">
@@ -21311,13 +21155,12 @@
         <v>0</v>
       </c>
       <c r="O47" s="2">
-        <v>13529.999999999998</v>
+        <v>4510</v>
       </c>
       <c r="P47" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Q47" s="2">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R47" s="2">
@@ -21327,13 +21170,12 @@
         <v>0</v>
       </c>
       <c r="T47" s="2">
-        <v>101474.99999999999</v>
+        <v>33825</v>
       </c>
       <c r="U47" s="2" t="s">
         <v>34</v>
       </c>
       <c r="V47" s="2">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="W47" s="2">
@@ -21343,14 +21185,13 @@
         <v>0</v>
       </c>
       <c r="Y47" s="2">
-        <v>6764.9999999999991</v>
+        <v>2255</v>
       </c>
       <c r="Z47" s="2" t="s">
         <v>35</v>
       </c>
       <c r="AA47" s="2">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AB47" s="2">
         <v>0</v>
@@ -21359,14 +21200,13 @@
         <v>0</v>
       </c>
       <c r="AD47" s="2">
-        <v>202949.99999999997</v>
+        <v>67650</v>
       </c>
       <c r="AE47" s="2" t="s">
         <v>36</v>
       </c>
       <c r="AF47" s="2">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AG47" s="2">
         <v>0</v>
@@ -21375,7 +21215,7 @@
         <v>0</v>
       </c>
       <c r="AI47" s="2">
-        <v>6765</v>
+        <v>2255</v>
       </c>
       <c r="AJ47" s="2"/>
       <c r="AK47" s="2"/>
@@ -21418,13 +21258,12 @@
       </c>
       <c r="J48" s="2">
         <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K48,[1]属性表!$B$4:$B$26,0))*O48+INDEX([1]属性表!$E$4:$E$26,MATCH(P48,[1]属性表!$B$4:$B$26,0))*S48+INDEX([1]属性表!$E$4:$E$26,MATCH(U48,[1]属性表!$B$4:$B$26,0))*Y48+IF(ISBLANK(Z48),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z48,[1]属性表!$B$4:$B$26,0))*AD48)+IF(ISBLANK(AE48),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE48,[1]属性表!$B$4:$B$26,0))*AI48)</f>
-        <v>990000</v>
+        <v>330000</v>
       </c>
       <c r="K48" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L48" s="2">
-        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="M48" s="2">
@@ -21434,13 +21273,12 @@
         <v>0</v>
       </c>
       <c r="O48" s="2">
-        <v>16500</v>
+        <v>5500</v>
       </c>
       <c r="P48" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Q48" s="2">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R48" s="2">
@@ -21450,13 +21288,12 @@
         <v>0</v>
       </c>
       <c r="T48" s="2">
-        <v>123750</v>
+        <v>41250</v>
       </c>
       <c r="U48" s="2" t="s">
         <v>34</v>
       </c>
       <c r="V48" s="2">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="W48" s="2">
@@ -21466,14 +21303,13 @@
         <v>0</v>
       </c>
       <c r="Y48" s="2">
-        <v>8250</v>
+        <v>2750</v>
       </c>
       <c r="Z48" s="2" t="s">
         <v>35</v>
       </c>
       <c r="AA48" s="2">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AB48" s="2">
         <v>0</v>
@@ -21482,14 +21318,13 @@
         <v>0</v>
       </c>
       <c r="AD48" s="2">
-        <v>247500</v>
+        <v>82500</v>
       </c>
       <c r="AE48" s="2" t="s">
         <v>36</v>
       </c>
       <c r="AF48" s="2">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AG48" s="2">
         <v>0</v>
@@ -21498,7 +21333,7 @@
         <v>0</v>
       </c>
       <c r="AI48" s="2">
-        <v>8250</v>
+        <v>2750</v>
       </c>
       <c r="AJ48" s="2"/>
       <c r="AK48" s="2"/>
@@ -21541,13 +21376,12 @@
       </c>
       <c r="J49" s="2">
         <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K49,[1]属性表!$B$4:$B$26,0))*O49+INDEX([1]属性表!$E$4:$E$26,MATCH(P49,[1]属性表!$B$4:$B$26,0))*S49+INDEX([1]属性表!$E$4:$E$26,MATCH(U49,[1]属性表!$B$4:$B$26,0))*Y49+IF(ISBLANK(Z49),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z49,[1]属性表!$B$4:$B$26,0))*AD49)+IF(ISBLANK(AE49),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE49,[1]属性表!$B$4:$B$26,0))*AI49)</f>
-        <v>604500</v>
+        <v>201500</v>
       </c>
       <c r="K49" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L49" s="2">
-        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="M49" s="2">
@@ -21557,13 +21391,12 @@
         <v>0</v>
       </c>
       <c r="O49" s="2">
-        <v>9600</v>
+        <v>3200</v>
       </c>
       <c r="P49" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Q49" s="2">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R49" s="2">
@@ -21573,13 +21406,12 @@
         <v>0</v>
       </c>
       <c r="T49" s="2">
-        <v>72000</v>
+        <v>24000</v>
       </c>
       <c r="U49" s="2" t="s">
         <v>34</v>
       </c>
       <c r="V49" s="2">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="W49" s="2">
@@ -21589,14 +21421,13 @@
         <v>0</v>
       </c>
       <c r="Y49" s="2">
-        <v>4800</v>
+        <v>1600</v>
       </c>
       <c r="Z49" s="2" t="s">
         <v>35</v>
       </c>
       <c r="AA49" s="2">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AB49" s="2">
         <v>0</v>
@@ -21605,14 +21436,13 @@
         <v>0</v>
       </c>
       <c r="AD49" s="2">
-        <v>150000</v>
+        <v>50000</v>
       </c>
       <c r="AE49" s="2" t="s">
         <v>36</v>
       </c>
       <c r="AF49" s="2">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AG49" s="2">
         <v>0</v>
@@ -21621,7 +21451,7 @@
         <v>0</v>
       </c>
       <c r="AI49" s="2">
-        <v>5250</v>
+        <v>1750</v>
       </c>
       <c r="AJ49" s="2"/>
       <c r="AK49" s="2"/>
@@ -21664,13 +21494,12 @@
       </c>
       <c r="J50" s="2">
         <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K50,[1]属性表!$B$4:$B$26,0))*O50+INDEX([1]属性表!$E$4:$E$26,MATCH(P50,[1]属性表!$B$4:$B$26,0))*S50+INDEX([1]属性表!$E$4:$E$26,MATCH(U50,[1]属性表!$B$4:$B$26,0))*Y50+IF(ISBLANK(Z50),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z50,[1]属性表!$B$4:$B$26,0))*AD50)+IF(ISBLANK(AE50),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE50,[1]属性表!$B$4:$B$26,0))*AI50)</f>
-        <v>816100</v>
+        <v>272050</v>
       </c>
       <c r="K50" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L50" s="2">
-        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="M50" s="2">
@@ -21680,13 +21509,12 @@
         <v>0</v>
       </c>
       <c r="O50" s="2">
-        <v>12960</v>
+        <v>4320</v>
       </c>
       <c r="P50" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Q50" s="2">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R50" s="2">
@@ -21696,13 +21524,12 @@
         <v>0</v>
       </c>
       <c r="T50" s="2">
-        <v>97200</v>
+        <v>32400.000000000004</v>
       </c>
       <c r="U50" s="2" t="s">
         <v>34</v>
       </c>
       <c r="V50" s="2">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="W50" s="2">
@@ -21712,14 +21539,13 @@
         <v>0</v>
       </c>
       <c r="Y50" s="2">
-        <v>6480</v>
+        <v>2160</v>
       </c>
       <c r="Z50" s="2" t="s">
         <v>35</v>
       </c>
       <c r="AA50" s="2">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AB50" s="2">
         <v>0</v>
@@ -21728,14 +21554,13 @@
         <v>0</v>
       </c>
       <c r="AD50" s="2">
-        <v>202500</v>
+        <v>67500</v>
       </c>
       <c r="AE50" s="2" t="s">
         <v>36</v>
       </c>
       <c r="AF50" s="2">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AG50" s="2">
         <v>0</v>
@@ -21744,7 +21569,7 @@
         <v>0</v>
       </c>
       <c r="AI50" s="2">
-        <v>7088</v>
+        <v>2363</v>
       </c>
       <c r="AJ50" s="2"/>
       <c r="AK50" s="2"/>
@@ -21787,13 +21612,12 @@
       </c>
       <c r="J51" s="2">
         <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K51,[1]属性表!$B$4:$B$26,0))*O51+INDEX([1]属性表!$E$4:$E$26,MATCH(P51,[1]属性表!$B$4:$B$26,0))*S51+INDEX([1]属性表!$E$4:$E$26,MATCH(U51,[1]属性表!$B$4:$B$26,0))*Y51+IF(ISBLANK(Z51),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z51,[1]属性表!$B$4:$B$26,0))*AD51)+IF(ISBLANK(AE51),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE51,[1]属性表!$B$4:$B$26,0))*AI51)</f>
-        <v>1027650</v>
+        <v>342550</v>
       </c>
       <c r="K51" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L51" s="2">
-        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="M51" s="2">
@@ -21803,13 +21627,12 @@
         <v>0</v>
       </c>
       <c r="O51" s="2">
-        <v>16320</v>
+        <v>5440</v>
       </c>
       <c r="P51" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Q51" s="2">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R51" s="2">
@@ -21819,13 +21642,12 @@
         <v>0</v>
       </c>
       <c r="T51" s="2">
-        <v>122400</v>
+        <v>40800</v>
       </c>
       <c r="U51" s="2" t="s">
         <v>34</v>
       </c>
       <c r="V51" s="2">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="W51" s="2">
@@ -21835,14 +21657,13 @@
         <v>0</v>
       </c>
       <c r="Y51" s="2">
-        <v>8160</v>
+        <v>2720</v>
       </c>
       <c r="Z51" s="2" t="s">
         <v>35</v>
       </c>
       <c r="AA51" s="2">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AB51" s="2">
         <v>0</v>
@@ -21851,14 +21672,13 @@
         <v>0</v>
       </c>
       <c r="AD51" s="2">
-        <v>255000</v>
+        <v>85000</v>
       </c>
       <c r="AE51" s="2" t="s">
         <v>36</v>
       </c>
       <c r="AF51" s="2">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AG51" s="2">
         <v>0</v>
@@ -21867,7 +21687,7 @@
         <v>0</v>
       </c>
       <c r="AI51" s="2">
-        <v>8925</v>
+        <v>2975</v>
       </c>
       <c r="AJ51" s="2"/>
       <c r="AK51" s="2"/>
@@ -21910,13 +21730,12 @@
       </c>
       <c r="J52" s="2">
         <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K52,[1]属性表!$B$4:$B$26,0))*O52+INDEX([1]属性表!$E$4:$E$26,MATCH(P52,[1]属性表!$B$4:$B$26,0))*S52+INDEX([1]属性表!$E$4:$E$26,MATCH(U52,[1]属性表!$B$4:$B$26,0))*Y52+IF(ISBLANK(Z52),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z52,[1]属性表!$B$4:$B$26,0))*AD52)+IF(ISBLANK(AE52),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE52,[1]属性表!$B$4:$B$26,0))*AI52)</f>
-        <v>1239250</v>
+        <v>413099.99999999994</v>
       </c>
       <c r="K52" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L52" s="2">
-        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="M52" s="2">
@@ -21926,13 +21745,12 @@
         <v>0</v>
       </c>
       <c r="O52" s="2">
-        <v>19680</v>
+        <v>6559.9999999999991</v>
       </c>
       <c r="P52" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Q52" s="2">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R52" s="2">
@@ -21942,13 +21760,12 @@
         <v>0</v>
       </c>
       <c r="T52" s="2">
-        <v>147600</v>
+        <v>49199.999999999993</v>
       </c>
       <c r="U52" s="2" t="s">
         <v>34</v>
       </c>
       <c r="V52" s="2">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="W52" s="2">
@@ -21958,14 +21775,13 @@
         <v>0</v>
       </c>
       <c r="Y52" s="2">
-        <v>9840</v>
+        <v>3279.9999999999995</v>
       </c>
       <c r="Z52" s="2" t="s">
         <v>35</v>
       </c>
       <c r="AA52" s="2">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AB52" s="2">
         <v>0</v>
@@ -21974,14 +21790,13 @@
         <v>0</v>
       </c>
       <c r="AD52" s="2">
-        <v>307500</v>
+        <v>102499.99999999999</v>
       </c>
       <c r="AE52" s="2" t="s">
         <v>36</v>
       </c>
       <c r="AF52" s="2">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AG52" s="2">
         <v>0</v>
@@ -21990,7 +21805,7 @@
         <v>0</v>
       </c>
       <c r="AI52" s="2">
-        <v>10763</v>
+        <v>3588</v>
       </c>
       <c r="AJ52" s="2"/>
       <c r="AK52" s="2"/>
@@ -22033,13 +21848,12 @@
       </c>
       <c r="J53" s="2">
         <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K53,[1]属性表!$B$4:$B$26,0))*O53+INDEX([1]属性表!$E$4:$E$26,MATCH(P53,[1]属性表!$B$4:$B$26,0))*S53+INDEX([1]属性表!$E$4:$E$26,MATCH(U53,[1]属性表!$B$4:$B$26,0))*Y53+IF(ISBLANK(Z53),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z53,[1]属性表!$B$4:$B$26,0))*AD53)+IF(ISBLANK(AE53),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE53,[1]属性表!$B$4:$B$26,0))*AI53)</f>
-        <v>1511250</v>
+        <v>503750</v>
       </c>
       <c r="K53" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L53" s="2">
-        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="M53" s="2">
@@ -22049,13 +21863,12 @@
         <v>0</v>
       </c>
       <c r="O53" s="2">
-        <v>24000</v>
+        <v>8000</v>
       </c>
       <c r="P53" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Q53" s="2">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R53" s="2">
@@ -22065,13 +21878,12 @@
         <v>0</v>
       </c>
       <c r="T53" s="2">
-        <v>180000</v>
+        <v>60000</v>
       </c>
       <c r="U53" s="2" t="s">
         <v>34</v>
       </c>
       <c r="V53" s="2">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="W53" s="2">
@@ -22081,14 +21893,13 @@
         <v>0</v>
       </c>
       <c r="Y53" s="2">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="Z53" s="2" t="s">
         <v>35</v>
       </c>
       <c r="AA53" s="2">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AB53" s="2">
         <v>0</v>
@@ -22097,14 +21908,13 @@
         <v>0</v>
       </c>
       <c r="AD53" s="2">
-        <v>375000</v>
+        <v>125000</v>
       </c>
       <c r="AE53" s="2" t="s">
         <v>36</v>
       </c>
       <c r="AF53" s="2">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AG53" s="2">
         <v>0</v>
@@ -22113,7 +21923,7 @@
         <v>0</v>
       </c>
       <c r="AI53" s="2">
-        <v>13125</v>
+        <v>4375</v>
       </c>
       <c r="AJ53" s="2"/>
       <c r="AK53" s="2"/>
@@ -22156,13 +21966,12 @@
       </c>
       <c r="J54" s="2">
         <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K54,[1]属性表!$B$4:$B$26,0))*O54+INDEX([1]属性表!$E$4:$E$26,MATCH(P54,[1]属性表!$B$4:$B$26,0))*S54+INDEX([1]属性表!$E$4:$E$26,MATCH(U54,[1]属性表!$B$4:$B$26,0))*Y54+IF(ISBLANK(Z54),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z54,[1]属性表!$B$4:$B$26,0))*AD54)+IF(ISBLANK(AE54),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE54,[1]属性表!$B$4:$B$26,0))*AI54)</f>
-        <v>604500</v>
+        <v>201500</v>
       </c>
       <c r="K54" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L54" s="2">
-        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="M54" s="2">
@@ -22172,13 +21981,12 @@
         <v>0</v>
       </c>
       <c r="O54" s="2">
-        <v>9600</v>
+        <v>3200</v>
       </c>
       <c r="P54" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Q54" s="2">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R54" s="2">
@@ -22188,13 +21996,12 @@
         <v>0</v>
       </c>
       <c r="T54" s="2">
-        <v>72000</v>
+        <v>24000</v>
       </c>
       <c r="U54" s="2" t="s">
         <v>34</v>
       </c>
       <c r="V54" s="2">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="W54" s="2">
@@ -22204,14 +22011,13 @@
         <v>0</v>
       </c>
       <c r="Y54" s="2">
-        <v>4800</v>
+        <v>1600</v>
       </c>
       <c r="Z54" s="2" t="s">
         <v>35</v>
       </c>
       <c r="AA54" s="2">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AB54" s="2">
         <v>0</v>
@@ -22220,14 +22026,13 @@
         <v>0</v>
       </c>
       <c r="AD54" s="2">
-        <v>150000</v>
+        <v>50000</v>
       </c>
       <c r="AE54" s="2" t="s">
         <v>36</v>
       </c>
       <c r="AF54" s="2">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AG54" s="2">
         <v>0</v>
@@ -22236,7 +22041,7 @@
         <v>0</v>
       </c>
       <c r="AI54" s="2">
-        <v>5250</v>
+        <v>1750</v>
       </c>
       <c r="AJ54" s="2"/>
       <c r="AK54" s="2"/>
@@ -22279,13 +22084,12 @@
       </c>
       <c r="J55" s="2">
         <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K55,[1]属性表!$B$4:$B$26,0))*O55+INDEX([1]属性表!$E$4:$E$26,MATCH(P55,[1]属性表!$B$4:$B$26,0))*S55+INDEX([1]属性表!$E$4:$E$26,MATCH(U55,[1]属性表!$B$4:$B$26,0))*Y55+IF(ISBLANK(Z55),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z55,[1]属性表!$B$4:$B$26,0))*AD55)+IF(ISBLANK(AE55),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE55,[1]属性表!$B$4:$B$26,0))*AI55)</f>
-        <v>816100</v>
+        <v>272050</v>
       </c>
       <c r="K55" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L55" s="2">
-        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="M55" s="2">
@@ -22295,13 +22099,12 @@
         <v>0</v>
       </c>
       <c r="O55" s="2">
-        <v>12960</v>
+        <v>4320</v>
       </c>
       <c r="P55" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Q55" s="2">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R55" s="2">
@@ -22311,13 +22114,12 @@
         <v>0</v>
       </c>
       <c r="T55" s="2">
-        <v>97200</v>
+        <v>32400.000000000004</v>
       </c>
       <c r="U55" s="2" t="s">
         <v>34</v>
       </c>
       <c r="V55" s="2">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="W55" s="2">
@@ -22327,14 +22129,13 @@
         <v>0</v>
       </c>
       <c r="Y55" s="2">
-        <v>6480</v>
+        <v>2160</v>
       </c>
       <c r="Z55" s="2" t="s">
         <v>35</v>
       </c>
       <c r="AA55" s="2">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AB55" s="2">
         <v>0</v>
@@ -22343,14 +22144,13 @@
         <v>0</v>
       </c>
       <c r="AD55" s="2">
-        <v>202500</v>
+        <v>67500</v>
       </c>
       <c r="AE55" s="2" t="s">
         <v>36</v>
       </c>
       <c r="AF55" s="2">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AG55" s="2">
         <v>0</v>
@@ -22359,7 +22159,7 @@
         <v>0</v>
       </c>
       <c r="AI55" s="2">
-        <v>7088</v>
+        <v>2363</v>
       </c>
       <c r="AJ55" s="2"/>
       <c r="AK55" s="2"/>
@@ -22402,13 +22202,12 @@
       </c>
       <c r="J56" s="2">
         <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K56,[1]属性表!$B$4:$B$26,0))*O56+INDEX([1]属性表!$E$4:$E$26,MATCH(P56,[1]属性表!$B$4:$B$26,0))*S56+INDEX([1]属性表!$E$4:$E$26,MATCH(U56,[1]属性表!$B$4:$B$26,0))*Y56+IF(ISBLANK(Z56),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z56,[1]属性表!$B$4:$B$26,0))*AD56)+IF(ISBLANK(AE56),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE56,[1]属性表!$B$4:$B$26,0))*AI56)</f>
-        <v>1027650</v>
+        <v>342550</v>
       </c>
       <c r="K56" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L56" s="2">
-        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="M56" s="2">
@@ -22418,13 +22217,12 @@
         <v>0</v>
       </c>
       <c r="O56" s="2">
-        <v>16320</v>
+        <v>5440</v>
       </c>
       <c r="P56" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Q56" s="2">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R56" s="2">
@@ -22434,13 +22232,12 @@
         <v>0</v>
       </c>
       <c r="T56" s="2">
-        <v>122400</v>
+        <v>40800</v>
       </c>
       <c r="U56" s="2" t="s">
         <v>34</v>
       </c>
       <c r="V56" s="2">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="W56" s="2">
@@ -22450,14 +22247,13 @@
         <v>0</v>
       </c>
       <c r="Y56" s="2">
-        <v>8160</v>
+        <v>2720</v>
       </c>
       <c r="Z56" s="2" t="s">
         <v>35</v>
       </c>
       <c r="AA56" s="2">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AB56" s="2">
         <v>0</v>
@@ -22466,14 +22262,13 @@
         <v>0</v>
       </c>
       <c r="AD56" s="2">
-        <v>255000</v>
+        <v>85000</v>
       </c>
       <c r="AE56" s="2" t="s">
         <v>36</v>
       </c>
       <c r="AF56" s="2">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AG56" s="2">
         <v>0</v>
@@ -22482,7 +22277,7 @@
         <v>0</v>
       </c>
       <c r="AI56" s="2">
-        <v>8925</v>
+        <v>2975</v>
       </c>
       <c r="AJ56" s="2"/>
       <c r="AK56" s="2"/>
@@ -22525,13 +22320,12 @@
       </c>
       <c r="J57" s="2">
         <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K57,[1]属性表!$B$4:$B$26,0))*O57+INDEX([1]属性表!$E$4:$E$26,MATCH(P57,[1]属性表!$B$4:$B$26,0))*S57+INDEX([1]属性表!$E$4:$E$26,MATCH(U57,[1]属性表!$B$4:$B$26,0))*Y57+IF(ISBLANK(Z57),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z57,[1]属性表!$B$4:$B$26,0))*AD57)+IF(ISBLANK(AE57),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE57,[1]属性表!$B$4:$B$26,0))*AI57)</f>
-        <v>1239250</v>
+        <v>413099.99999999994</v>
       </c>
       <c r="K57" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L57" s="2">
-        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="M57" s="2">
@@ -22541,13 +22335,12 @@
         <v>0</v>
       </c>
       <c r="O57" s="2">
-        <v>19680</v>
+        <v>6559.9999999999991</v>
       </c>
       <c r="P57" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Q57" s="2">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R57" s="2">
@@ -22557,13 +22350,12 @@
         <v>0</v>
       </c>
       <c r="T57" s="2">
-        <v>147600</v>
+        <v>49199.999999999993</v>
       </c>
       <c r="U57" s="2" t="s">
         <v>34</v>
       </c>
       <c r="V57" s="2">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="W57" s="2">
@@ -22573,14 +22365,13 @@
         <v>0</v>
       </c>
       <c r="Y57" s="2">
-        <v>9840</v>
+        <v>3279.9999999999995</v>
       </c>
       <c r="Z57" s="2" t="s">
         <v>35</v>
       </c>
       <c r="AA57" s="2">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AB57" s="2">
         <v>0</v>
@@ -22589,14 +22380,13 @@
         <v>0</v>
       </c>
       <c r="AD57" s="2">
-        <v>307500</v>
+        <v>102499.99999999999</v>
       </c>
       <c r="AE57" s="2" t="s">
         <v>36</v>
       </c>
       <c r="AF57" s="2">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AG57" s="2">
         <v>0</v>
@@ -22605,7 +22395,7 @@
         <v>0</v>
       </c>
       <c r="AI57" s="2">
-        <v>10763</v>
+        <v>3588</v>
       </c>
       <c r="AJ57" s="2"/>
       <c r="AK57" s="2"/>
@@ -22648,13 +22438,12 @@
       </c>
       <c r="J58" s="2">
         <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K58,[1]属性表!$B$4:$B$26,0))*O58+INDEX([1]属性表!$E$4:$E$26,MATCH(P58,[1]属性表!$B$4:$B$26,0))*S58+INDEX([1]属性表!$E$4:$E$26,MATCH(U58,[1]属性表!$B$4:$B$26,0))*Y58+IF(ISBLANK(Z58),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z58,[1]属性表!$B$4:$B$26,0))*AD58)+IF(ISBLANK(AE58),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE58,[1]属性表!$B$4:$B$26,0))*AI58)</f>
-        <v>1511250</v>
+        <v>503750</v>
       </c>
       <c r="K58" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L58" s="2">
-        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="M58" s="2">
@@ -22664,13 +22453,12 @@
         <v>0</v>
       </c>
       <c r="O58" s="2">
-        <v>24000</v>
+        <v>8000</v>
       </c>
       <c r="P58" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Q58" s="2">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R58" s="2">
@@ -22680,13 +22468,12 @@
         <v>0</v>
       </c>
       <c r="T58" s="2">
-        <v>180000</v>
+        <v>60000</v>
       </c>
       <c r="U58" s="2" t="s">
         <v>34</v>
       </c>
       <c r="V58" s="2">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="W58" s="2">
@@ -22696,14 +22483,13 @@
         <v>0</v>
       </c>
       <c r="Y58" s="2">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="Z58" s="2" t="s">
         <v>35</v>
       </c>
       <c r="AA58" s="2">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AB58" s="2">
         <v>0</v>
@@ -22712,14 +22498,13 @@
         <v>0</v>
       </c>
       <c r="AD58" s="2">
-        <v>375000</v>
+        <v>125000</v>
       </c>
       <c r="AE58" s="2" t="s">
         <v>36</v>
       </c>
       <c r="AF58" s="2">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AG58" s="2">
         <v>0</v>
@@ -22728,7 +22513,7 @@
         <v>0</v>
       </c>
       <c r="AI58" s="2">
-        <v>13125</v>
+        <v>4375</v>
       </c>
       <c r="AJ58" s="2"/>
       <c r="AK58" s="2"/>
@@ -22771,13 +22556,12 @@
       </c>
       <c r="J59" s="2">
         <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K59,[1]属性表!$B$4:$B$26,0))*O59+INDEX([1]属性表!$E$4:$E$26,MATCH(P59,[1]属性表!$B$4:$B$26,0))*S59+INDEX([1]属性表!$E$4:$E$26,MATCH(U59,[1]属性表!$B$4:$B$26,0))*Y59+IF(ISBLANK(Z59),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z59,[1]属性表!$B$4:$B$26,0))*AD59)+IF(ISBLANK(AE59),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE59,[1]属性表!$B$4:$B$26,0))*AI59)</f>
-        <v>604500</v>
+        <v>201500</v>
       </c>
       <c r="K59" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L59" s="2">
-        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="M59" s="2">
@@ -22787,13 +22571,12 @@
         <v>0</v>
       </c>
       <c r="O59" s="2">
-        <v>9600</v>
+        <v>3200</v>
       </c>
       <c r="P59" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Q59" s="2">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R59" s="2">
@@ -22803,13 +22586,12 @@
         <v>0</v>
       </c>
       <c r="T59" s="2">
-        <v>72000</v>
+        <v>24000</v>
       </c>
       <c r="U59" s="2" t="s">
         <v>34</v>
       </c>
       <c r="V59" s="2">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="W59" s="2">
@@ -22819,14 +22601,13 @@
         <v>0</v>
       </c>
       <c r="Y59" s="2">
-        <v>4800</v>
+        <v>1600</v>
       </c>
       <c r="Z59" s="2" t="s">
         <v>35</v>
       </c>
       <c r="AA59" s="2">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AB59" s="2">
         <v>0</v>
@@ -22835,14 +22616,13 @@
         <v>0</v>
       </c>
       <c r="AD59" s="2">
-        <v>150000</v>
+        <v>50000</v>
       </c>
       <c r="AE59" s="2" t="s">
         <v>36</v>
       </c>
       <c r="AF59" s="2">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AG59" s="2">
         <v>0</v>
@@ -22851,7 +22631,7 @@
         <v>0</v>
       </c>
       <c r="AI59" s="2">
-        <v>5250</v>
+        <v>1750</v>
       </c>
       <c r="AJ59" s="2"/>
       <c r="AK59" s="2"/>
@@ -22894,13 +22674,12 @@
       </c>
       <c r="J60" s="2">
         <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K60,[1]属性表!$B$4:$B$26,0))*O60+INDEX([1]属性表!$E$4:$E$26,MATCH(P60,[1]属性表!$B$4:$B$26,0))*S60+INDEX([1]属性表!$E$4:$E$26,MATCH(U60,[1]属性表!$B$4:$B$26,0))*Y60+IF(ISBLANK(Z60),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z60,[1]属性表!$B$4:$B$26,0))*AD60)+IF(ISBLANK(AE60),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE60,[1]属性表!$B$4:$B$26,0))*AI60)</f>
-        <v>816100</v>
+        <v>272050</v>
       </c>
       <c r="K60" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L60" s="2">
-        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="M60" s="2">
@@ -22910,13 +22689,12 @@
         <v>0</v>
       </c>
       <c r="O60" s="2">
-        <v>12960</v>
+        <v>4320</v>
       </c>
       <c r="P60" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Q60" s="2">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R60" s="2">
@@ -22926,13 +22704,12 @@
         <v>0</v>
       </c>
       <c r="T60" s="2">
-        <v>97200</v>
+        <v>32400.000000000004</v>
       </c>
       <c r="U60" s="2" t="s">
         <v>34</v>
       </c>
       <c r="V60" s="2">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="W60" s="2">
@@ -22942,14 +22719,13 @@
         <v>0</v>
       </c>
       <c r="Y60" s="2">
-        <v>6480</v>
+        <v>2160</v>
       </c>
       <c r="Z60" s="2" t="s">
         <v>35</v>
       </c>
       <c r="AA60" s="2">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AB60" s="2">
         <v>0</v>
@@ -22958,14 +22734,13 @@
         <v>0</v>
       </c>
       <c r="AD60" s="2">
-        <v>202500</v>
+        <v>67500</v>
       </c>
       <c r="AE60" s="2" t="s">
         <v>36</v>
       </c>
       <c r="AF60" s="2">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AG60" s="2">
         <v>0</v>
@@ -22974,7 +22749,7 @@
         <v>0</v>
       </c>
       <c r="AI60" s="2">
-        <v>7088</v>
+        <v>2363</v>
       </c>
       <c r="AJ60" s="2"/>
       <c r="AK60" s="2"/>
@@ -23017,13 +22792,12 @@
       </c>
       <c r="J61" s="2">
         <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K61,[1]属性表!$B$4:$B$26,0))*O61+INDEX([1]属性表!$E$4:$E$26,MATCH(P61,[1]属性表!$B$4:$B$26,0))*S61+INDEX([1]属性表!$E$4:$E$26,MATCH(U61,[1]属性表!$B$4:$B$26,0))*Y61+IF(ISBLANK(Z61),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z61,[1]属性表!$B$4:$B$26,0))*AD61)+IF(ISBLANK(AE61),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE61,[1]属性表!$B$4:$B$26,0))*AI61)</f>
-        <v>1027650</v>
+        <v>342550</v>
       </c>
       <c r="K61" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L61" s="2">
-        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="M61" s="2">
@@ -23033,13 +22807,12 @@
         <v>0</v>
       </c>
       <c r="O61" s="2">
-        <v>16320</v>
+        <v>5440</v>
       </c>
       <c r="P61" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Q61" s="2">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R61" s="2">
@@ -23049,13 +22822,12 @@
         <v>0</v>
       </c>
       <c r="T61" s="2">
-        <v>122400</v>
+        <v>40800</v>
       </c>
       <c r="U61" s="2" t="s">
         <v>34</v>
       </c>
       <c r="V61" s="2">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="W61" s="2">
@@ -23065,14 +22837,13 @@
         <v>0</v>
       </c>
       <c r="Y61" s="2">
-        <v>8160</v>
+        <v>2720</v>
       </c>
       <c r="Z61" s="2" t="s">
         <v>35</v>
       </c>
       <c r="AA61" s="2">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AB61" s="2">
         <v>0</v>
@@ -23081,14 +22852,13 @@
         <v>0</v>
       </c>
       <c r="AD61" s="2">
-        <v>255000</v>
+        <v>85000</v>
       </c>
       <c r="AE61" s="2" t="s">
         <v>36</v>
       </c>
       <c r="AF61" s="2">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AG61" s="2">
         <v>0</v>
@@ -23097,7 +22867,7 @@
         <v>0</v>
       </c>
       <c r="AI61" s="2">
-        <v>8925</v>
+        <v>2975</v>
       </c>
       <c r="AJ61" s="2"/>
       <c r="AK61" s="2"/>
@@ -23140,13 +22910,12 @@
       </c>
       <c r="J62" s="2">
         <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K62,[1]属性表!$B$4:$B$26,0))*O62+INDEX([1]属性表!$E$4:$E$26,MATCH(P62,[1]属性表!$B$4:$B$26,0))*S62+INDEX([1]属性表!$E$4:$E$26,MATCH(U62,[1]属性表!$B$4:$B$26,0))*Y62+IF(ISBLANK(Z62),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z62,[1]属性表!$B$4:$B$26,0))*AD62)+IF(ISBLANK(AE62),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE62,[1]属性表!$B$4:$B$26,0))*AI62)</f>
-        <v>1239250</v>
+        <v>413099.99999999994</v>
       </c>
       <c r="K62" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L62" s="2">
-        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="M62" s="2">
@@ -23156,13 +22925,12 @@
         <v>0</v>
       </c>
       <c r="O62" s="2">
-        <v>19680</v>
+        <v>6559.9999999999991</v>
       </c>
       <c r="P62" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Q62" s="2">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R62" s="2">
@@ -23172,13 +22940,12 @@
         <v>0</v>
       </c>
       <c r="T62" s="2">
-        <v>147600</v>
+        <v>49199.999999999993</v>
       </c>
       <c r="U62" s="2" t="s">
         <v>34</v>
       </c>
       <c r="V62" s="2">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="W62" s="2">
@@ -23188,14 +22955,13 @@
         <v>0</v>
       </c>
       <c r="Y62" s="2">
-        <v>9840</v>
+        <v>3279.9999999999995</v>
       </c>
       <c r="Z62" s="2" t="s">
         <v>35</v>
       </c>
       <c r="AA62" s="2">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AB62" s="2">
         <v>0</v>
@@ -23204,14 +22970,13 @@
         <v>0</v>
       </c>
       <c r="AD62" s="2">
-        <v>307500</v>
+        <v>102499.99999999999</v>
       </c>
       <c r="AE62" s="2" t="s">
         <v>36</v>
       </c>
       <c r="AF62" s="2">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AG62" s="2">
         <v>0</v>
@@ -23220,7 +22985,7 @@
         <v>0</v>
       </c>
       <c r="AI62" s="2">
-        <v>10763</v>
+        <v>3588</v>
       </c>
       <c r="AJ62" s="2"/>
       <c r="AK62" s="2"/>
@@ -23263,13 +23028,12 @@
       </c>
       <c r="J63" s="2">
         <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K63,[1]属性表!$B$4:$B$26,0))*O63+INDEX([1]属性表!$E$4:$E$26,MATCH(P63,[1]属性表!$B$4:$B$26,0))*S63+INDEX([1]属性表!$E$4:$E$26,MATCH(U63,[1]属性表!$B$4:$B$26,0))*Y63+IF(ISBLANK(Z63),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z63,[1]属性表!$B$4:$B$26,0))*AD63)+IF(ISBLANK(AE63),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE63,[1]属性表!$B$4:$B$26,0))*AI63)</f>
-        <v>1511250</v>
+        <v>503750</v>
       </c>
       <c r="K63" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L63" s="2">
-        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="M63" s="2">
@@ -23279,13 +23043,12 @@
         <v>0</v>
       </c>
       <c r="O63" s="2">
-        <v>24000</v>
+        <v>8000</v>
       </c>
       <c r="P63" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Q63" s="2">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R63" s="2">
@@ -23295,13 +23058,12 @@
         <v>0</v>
       </c>
       <c r="T63" s="2">
-        <v>180000</v>
+        <v>60000</v>
       </c>
       <c r="U63" s="2" t="s">
         <v>34</v>
       </c>
       <c r="V63" s="2">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="W63" s="2">
@@ -23311,14 +23073,13 @@
         <v>0</v>
       </c>
       <c r="Y63" s="2">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="Z63" s="2" t="s">
         <v>35</v>
       </c>
       <c r="AA63" s="2">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AB63" s="2">
         <v>0</v>
@@ -23327,14 +23088,13 @@
         <v>0</v>
       </c>
       <c r="AD63" s="2">
-        <v>375000</v>
+        <v>125000</v>
       </c>
       <c r="AE63" s="2" t="s">
         <v>36</v>
       </c>
       <c r="AF63" s="2">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AG63" s="2">
         <v>0</v>
@@ -23343,7 +23103,7 @@
         <v>0</v>
       </c>
       <c r="AI63" s="2">
-        <v>13125</v>
+        <v>4375</v>
       </c>
       <c r="AJ63" s="2"/>
       <c r="AK63" s="2"/>
@@ -23386,13 +23146,12 @@
       </c>
       <c r="J64" s="2">
         <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K64,[1]属性表!$B$4:$B$26,0))*O64+INDEX([1]属性表!$E$4:$E$26,MATCH(P64,[1]属性表!$B$4:$B$26,0))*S64+INDEX([1]属性表!$E$4:$E$26,MATCH(U64,[1]属性表!$B$4:$B$26,0))*Y64+IF(ISBLANK(Z64),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z64,[1]属性表!$B$4:$B$26,0))*AD64)+IF(ISBLANK(AE64),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE64,[1]属性表!$B$4:$B$26,0))*AI64)</f>
-        <v>604500</v>
+        <v>201500</v>
       </c>
       <c r="K64" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L64" s="2">
-        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="M64" s="2">
@@ -23402,13 +23161,12 @@
         <v>0</v>
       </c>
       <c r="O64" s="2">
-        <v>9600</v>
+        <v>3200</v>
       </c>
       <c r="P64" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Q64" s="2">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R64" s="2">
@@ -23418,13 +23176,12 @@
         <v>0</v>
       </c>
       <c r="T64" s="2">
-        <v>72000</v>
+        <v>24000</v>
       </c>
       <c r="U64" s="2" t="s">
         <v>34</v>
       </c>
       <c r="V64" s="2">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="W64" s="2">
@@ -23434,14 +23191,13 @@
         <v>0</v>
       </c>
       <c r="Y64" s="2">
-        <v>4800</v>
+        <v>1600</v>
       </c>
       <c r="Z64" s="2" t="s">
         <v>35</v>
       </c>
       <c r="AA64" s="2">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AB64" s="2">
         <v>0</v>
@@ -23450,14 +23206,13 @@
         <v>0</v>
       </c>
       <c r="AD64" s="2">
-        <v>150000</v>
+        <v>50000</v>
       </c>
       <c r="AE64" s="2" t="s">
         <v>36</v>
       </c>
       <c r="AF64" s="2">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AG64" s="2">
         <v>0</v>
@@ -23466,7 +23221,7 @@
         <v>0</v>
       </c>
       <c r="AI64" s="2">
-        <v>5250</v>
+        <v>1750</v>
       </c>
       <c r="AJ64" s="2"/>
       <c r="AK64" s="2"/>
@@ -23509,13 +23264,12 @@
       </c>
       <c r="J65" s="2">
         <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K65,[1]属性表!$B$4:$B$26,0))*O65+INDEX([1]属性表!$E$4:$E$26,MATCH(P65,[1]属性表!$B$4:$B$26,0))*S65+INDEX([1]属性表!$E$4:$E$26,MATCH(U65,[1]属性表!$B$4:$B$26,0))*Y65+IF(ISBLANK(Z65),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z65,[1]属性表!$B$4:$B$26,0))*AD65)+IF(ISBLANK(AE65),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE65,[1]属性表!$B$4:$B$26,0))*AI65)</f>
-        <v>816100</v>
+        <v>272050</v>
       </c>
       <c r="K65" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L65" s="2">
-        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="M65" s="2">
@@ -23525,13 +23279,12 @@
         <v>0</v>
       </c>
       <c r="O65" s="2">
-        <v>12960</v>
+        <v>4320</v>
       </c>
       <c r="P65" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Q65" s="2">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R65" s="2">
@@ -23541,13 +23294,12 @@
         <v>0</v>
       </c>
       <c r="T65" s="2">
-        <v>97200</v>
+        <v>32400.000000000004</v>
       </c>
       <c r="U65" s="2" t="s">
         <v>34</v>
       </c>
       <c r="V65" s="2">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="W65" s="2">
@@ -23557,14 +23309,13 @@
         <v>0</v>
       </c>
       <c r="Y65" s="2">
-        <v>6480</v>
+        <v>2160</v>
       </c>
       <c r="Z65" s="2" t="s">
         <v>35</v>
       </c>
       <c r="AA65" s="2">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AB65" s="2">
         <v>0</v>
@@ -23573,14 +23324,13 @@
         <v>0</v>
       </c>
       <c r="AD65" s="2">
-        <v>202500</v>
+        <v>67500</v>
       </c>
       <c r="AE65" s="2" t="s">
         <v>36</v>
       </c>
       <c r="AF65" s="2">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AG65" s="2">
         <v>0</v>
@@ -23589,7 +23339,7 @@
         <v>0</v>
       </c>
       <c r="AI65" s="2">
-        <v>7088</v>
+        <v>2363</v>
       </c>
       <c r="AJ65" s="2"/>
       <c r="AK65" s="2"/>
@@ -23632,13 +23382,12 @@
       </c>
       <c r="J66" s="2">
         <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K66,[1]属性表!$B$4:$B$26,0))*O66+INDEX([1]属性表!$E$4:$E$26,MATCH(P66,[1]属性表!$B$4:$B$26,0))*S66+INDEX([1]属性表!$E$4:$E$26,MATCH(U66,[1]属性表!$B$4:$B$26,0))*Y66+IF(ISBLANK(Z66),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z66,[1]属性表!$B$4:$B$26,0))*AD66)+IF(ISBLANK(AE66),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE66,[1]属性表!$B$4:$B$26,0))*AI66)</f>
-        <v>1027650</v>
+        <v>342550</v>
       </c>
       <c r="K66" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L66" s="2">
-        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="M66" s="2">
@@ -23648,13 +23397,12 @@
         <v>0</v>
       </c>
       <c r="O66" s="2">
-        <v>16320</v>
+        <v>5440</v>
       </c>
       <c r="P66" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Q66" s="2">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R66" s="2">
@@ -23664,13 +23412,12 @@
         <v>0</v>
       </c>
       <c r="T66" s="2">
-        <v>122400</v>
+        <v>40800</v>
       </c>
       <c r="U66" s="2" t="s">
         <v>34</v>
       </c>
       <c r="V66" s="2">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="W66" s="2">
@@ -23680,14 +23427,13 @@
         <v>0</v>
       </c>
       <c r="Y66" s="2">
-        <v>8160</v>
+        <v>2720</v>
       </c>
       <c r="Z66" s="2" t="s">
         <v>35</v>
       </c>
       <c r="AA66" s="2">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AB66" s="2">
         <v>0</v>
@@ -23696,14 +23442,13 @@
         <v>0</v>
       </c>
       <c r="AD66" s="2">
-        <v>255000</v>
+        <v>85000</v>
       </c>
       <c r="AE66" s="2" t="s">
         <v>36</v>
       </c>
       <c r="AF66" s="2">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AG66" s="2">
         <v>0</v>
@@ -23712,7 +23457,7 @@
         <v>0</v>
       </c>
       <c r="AI66" s="2">
-        <v>8925</v>
+        <v>2975</v>
       </c>
       <c r="AJ66" s="2"/>
       <c r="AK66" s="2"/>
@@ -23755,13 +23500,12 @@
       </c>
       <c r="J67" s="2">
         <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K67,[1]属性表!$B$4:$B$26,0))*O67+INDEX([1]属性表!$E$4:$E$26,MATCH(P67,[1]属性表!$B$4:$B$26,0))*S67+INDEX([1]属性表!$E$4:$E$26,MATCH(U67,[1]属性表!$B$4:$B$26,0))*Y67+IF(ISBLANK(Z67),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z67,[1]属性表!$B$4:$B$26,0))*AD67)+IF(ISBLANK(AE67),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE67,[1]属性表!$B$4:$B$26,0))*AI67)</f>
-        <v>1239250</v>
+        <v>413099.99999999994</v>
       </c>
       <c r="K67" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L67" s="2">
-        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="M67" s="2">
@@ -23771,13 +23515,12 @@
         <v>0</v>
       </c>
       <c r="O67" s="2">
-        <v>19680</v>
+        <v>6559.9999999999991</v>
       </c>
       <c r="P67" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Q67" s="2">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R67" s="2">
@@ -23787,13 +23530,12 @@
         <v>0</v>
       </c>
       <c r="T67" s="2">
-        <v>147600</v>
+        <v>49199.999999999993</v>
       </c>
       <c r="U67" s="2" t="s">
         <v>34</v>
       </c>
       <c r="V67" s="2">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="W67" s="2">
@@ -23803,14 +23545,13 @@
         <v>0</v>
       </c>
       <c r="Y67" s="2">
-        <v>9840</v>
+        <v>3279.9999999999995</v>
       </c>
       <c r="Z67" s="2" t="s">
         <v>35</v>
       </c>
       <c r="AA67" s="2">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AB67" s="2">
         <v>0</v>
@@ -23819,14 +23560,13 @@
         <v>0</v>
       </c>
       <c r="AD67" s="2">
-        <v>307500</v>
+        <v>102499.99999999999</v>
       </c>
       <c r="AE67" s="2" t="s">
         <v>36</v>
       </c>
       <c r="AF67" s="2">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AG67" s="2">
         <v>0</v>
@@ -23835,7 +23575,7 @@
         <v>0</v>
       </c>
       <c r="AI67" s="2">
-        <v>10763</v>
+        <v>3588</v>
       </c>
       <c r="AJ67" s="2"/>
       <c r="AK67" s="2"/>
@@ -23878,13 +23618,12 @@
       </c>
       <c r="J68" s="2">
         <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K68,[1]属性表!$B$4:$B$26,0))*O68+INDEX([1]属性表!$E$4:$E$26,MATCH(P68,[1]属性表!$B$4:$B$26,0))*S68+INDEX([1]属性表!$E$4:$E$26,MATCH(U68,[1]属性表!$B$4:$B$26,0))*Y68+IF(ISBLANK(Z68),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z68,[1]属性表!$B$4:$B$26,0))*AD68)+IF(ISBLANK(AE68),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE68,[1]属性表!$B$4:$B$26,0))*AI68)</f>
-        <v>1511250</v>
+        <v>503750</v>
       </c>
       <c r="K68" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L68" s="2">
-        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="M68" s="2">
@@ -23894,13 +23633,12 @@
         <v>0</v>
       </c>
       <c r="O68" s="2">
-        <v>24000</v>
+        <v>8000</v>
       </c>
       <c r="P68" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Q68" s="2">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R68" s="2">
@@ -23910,13 +23648,12 @@
         <v>0</v>
       </c>
       <c r="T68" s="2">
-        <v>180000</v>
+        <v>60000</v>
       </c>
       <c r="U68" s="2" t="s">
         <v>34</v>
       </c>
       <c r="V68" s="2">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="W68" s="2">
@@ -23926,14 +23663,13 @@
         <v>0</v>
       </c>
       <c r="Y68" s="2">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="Z68" s="2" t="s">
         <v>35</v>
       </c>
       <c r="AA68" s="2">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AB68" s="2">
         <v>0</v>
@@ -23942,14 +23678,13 @@
         <v>0</v>
       </c>
       <c r="AD68" s="2">
-        <v>375000</v>
+        <v>125000</v>
       </c>
       <c r="AE68" s="2" t="s">
         <v>36</v>
       </c>
       <c r="AF68" s="2">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AG68" s="2">
         <v>0</v>
@@ -23958,7 +23693,7 @@
         <v>0</v>
       </c>
       <c r="AI68" s="2">
-        <v>13125</v>
+        <v>4375</v>
       </c>
       <c r="AJ68" s="2"/>
       <c r="AK68" s="2"/>

--- a/Excel/pet.战宠.xlsx
+++ b/Excel/pet.战宠.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F48D9F9-CE6A-4F86-94B3-DEC2057011F4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="13845" windowHeight="12195" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13845" windowHeight="12195" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -13,15 +19,12 @@
     <sheet name="战宠属性" sheetId="28" r:id="rId4"/>
     <sheet name="情缘" sheetId="29" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="352">
   <si>
     <t>sheet名</t>
   </si>
@@ -67,6 +70,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>id,help_col</t>
@@ -76,6 +80,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>,rowId</t>
@@ -108,6 +113,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>petLv</t>
@@ -117,6 +123,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>Up.json</t>
@@ -128,6 +135,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>i</t>
@@ -137,6 +145,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>d,lv</t>
@@ -949,6 +958,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>蓝1-</t>
@@ -958,6 +968,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -969,6 +980,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>d</t>
@@ -978,6 +990,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>mgInc</t>
@@ -992,6 +1005,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>蓝1-</t>
@@ -1001,6 +1015,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -1018,6 +1033,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>蓝1-</t>
@@ -1027,6 +1043,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>3</t>
@@ -1041,6 +1058,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>蓝1-</t>
@@ -1050,6 +1068,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>4</t>
@@ -1064,6 +1083,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>蓝2-</t>
@@ -1073,6 +1093,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -1084,6 +1105,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>蓝2-</t>
@@ -1093,6 +1115,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -1104,6 +1127,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>蓝2-</t>
@@ -1113,6 +1137,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>3</t>
@@ -1124,6 +1149,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>蓝2-</t>
@@ -1133,6 +1159,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>4</t>
@@ -1144,6 +1171,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>蓝3-</t>
@@ -1153,6 +1181,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -1164,6 +1193,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>蓝3-</t>
@@ -1173,6 +1203,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -1187,6 +1218,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>蓝3-</t>
@@ -1196,6 +1228,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>3</t>
@@ -1207,6 +1240,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>蓝3-</t>
@@ -1216,6 +1250,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>4</t>
@@ -1227,6 +1262,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>紫1-</t>
@@ -1236,6 +1272,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -1247,6 +1284,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>紫1-</t>
@@ -1256,6 +1294,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -1267,6 +1306,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>紫1-</t>
@@ -1276,6 +1316,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>3</t>
@@ -1287,6 +1328,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>紫1-</t>
@@ -1296,6 +1338,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>4</t>
@@ -1307,6 +1350,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>紫2-</t>
@@ -1316,6 +1360,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -1327,6 +1372,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>紫2-</t>
@@ -1336,6 +1382,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -1347,6 +1394,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>紫2-</t>
@@ -1356,6 +1404,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>3</t>
@@ -1370,6 +1419,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>紫2-</t>
@@ -1379,6 +1429,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>4</t>
@@ -1393,6 +1444,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>紫3-</t>
@@ -1402,6 +1454,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -1413,6 +1466,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>紫3-</t>
@@ -1422,6 +1476,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -1433,6 +1488,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>紫3-</t>
@@ -1442,6 +1498,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>3</t>
@@ -1453,6 +1510,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>紫3-</t>
@@ -1462,6 +1520,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>4</t>
@@ -1473,6 +1532,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>橙1-</t>
@@ -1482,6 +1542,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -1493,6 +1554,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>橙1-</t>
@@ -1502,6 +1564,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -1513,6 +1576,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>橙1-</t>
@@ -1522,6 +1586,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>3</t>
@@ -1533,6 +1598,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>橙1-</t>
@@ -1542,6 +1608,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>4</t>
@@ -1553,6 +1620,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>橙2-</t>
@@ -1562,6 +1630,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -1573,6 +1642,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>橙2-</t>
@@ -1582,6 +1652,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -1593,6 +1664,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>橙2-</t>
@@ -1602,6 +1674,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>3</t>
@@ -1616,6 +1689,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>橙2-</t>
@@ -1625,6 +1699,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>4</t>
@@ -1636,6 +1711,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>橙3-</t>
@@ -1645,6 +1721,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -1656,6 +1733,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>橙3-</t>
@@ -1665,6 +1743,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -1676,6 +1755,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>橙3-</t>
@@ -1685,6 +1765,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>3</t>
@@ -1696,6 +1777,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>橙3-</t>
@@ -1705,6 +1787,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>4</t>
@@ -1716,6 +1799,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>红1-</t>
@@ -1725,6 +1809,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -1736,6 +1821,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>红1-</t>
@@ -1745,6 +1831,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -1756,6 +1843,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>红1-</t>
@@ -1765,6 +1853,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>3</t>
@@ -1776,6 +1865,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>红1-</t>
@@ -1785,6 +1875,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>4</t>
@@ -1796,6 +1887,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>红2-</t>
@@ -1805,6 +1897,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -1816,6 +1909,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>红2-</t>
@@ -1825,6 +1919,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -1836,6 +1931,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>红2-</t>
@@ -1845,6 +1941,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>3</t>
@@ -1856,6 +1953,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>红2-</t>
@@ -1865,6 +1963,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>4</t>
@@ -1876,6 +1975,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>红3-</t>
@@ -1885,6 +1985,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -1896,6 +1997,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>红3-</t>
@@ -1905,6 +2007,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -1916,6 +2019,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>红3-</t>
@@ -1925,6 +2029,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>3</t>
@@ -1936,6 +2041,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>红3-</t>
@@ -1945,6 +2051,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>4</t>
@@ -1956,6 +2063,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>红4-</t>
@@ -1965,6 +2073,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -1976,6 +2085,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>红4-</t>
@@ -1985,6 +2095,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -1996,6 +2107,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>红4-</t>
@@ -2005,6 +2117,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>3</t>
@@ -2016,6 +2129,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>红4-</t>
@@ -2025,6 +2139,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>4</t>
@@ -2034,14 +2149,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="28">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2054,77 +2163,22 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2132,6 +2186,7 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2139,106 +2194,15 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2246,11 +2210,27 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2265,73 +2245,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34934537797174"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="0" tint="-0.34934537797173987"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2343,73 +2257,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149998474074526"/>
+        <fgColor theme="0" tint="-0.14996795556505021"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2421,66 +2269,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF6600"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2504,21 +2298,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -2529,605 +2308,88 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="61">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" applyFont="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="1" applyFont="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="15">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="15" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="60">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="12">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="33">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="33" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="33" applyNumberFormat="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="4" applyNumberFormat="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="33" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyNumberFormat="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="61">
+  <cellStyles count="13">
+    <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Normal" xfId="7" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="横向标题" xfId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
-    <cellStyle name="差" xfId="8" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="9" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="10" builtinId="40"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8"/>
-    <cellStyle name="百分比" xfId="12" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
-    <cellStyle name="注释" xfId="14" builtinId="10"/>
-    <cellStyle name="英文标题" xfId="15"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
-    <cellStyle name="标题" xfId="19" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="21" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="22" builtinId="17"/>
-    <cellStyle name="因变Grid" xfId="23"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
-    <cellStyle name="输出" xfId="27" builtinId="21"/>
-    <cellStyle name="计算" xfId="28" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
-    <cellStyle name="Grid" xfId="33"/>
-    <cellStyle name="汇总" xfId="34" builtinId="25"/>
-    <cellStyle name="好" xfId="35" builtinId="26"/>
-    <cellStyle name="适中" xfId="36" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="37" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="38" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="39" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="40" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="41" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="42" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="43" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="44" builtinId="41"/>
-    <cellStyle name="纵向标题" xfId="45"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="46" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="47" builtinId="43"/>
-    <cellStyle name="大标题" xfId="48"/>
-    <cellStyle name="强调文字颜色 5" xfId="49" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="50" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="51" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="52" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="53" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="54" builtinId="52"/>
-    <cellStyle name="Normal" xfId="55"/>
-    <cellStyle name="常规 2" xfId="56"/>
-    <cellStyle name="超链接 2" xfId="57"/>
-    <cellStyle name="文本" xfId="58"/>
-    <cellStyle name="无效" xfId="59"/>
-    <cellStyle name="中文标题" xfId="60"/>
+    <cellStyle name="常规 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="超链接 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="大标题" xfId="6" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="横向标题" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="文本" xfId="10" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="无效" xfId="11" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="因变Grid" xfId="3" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="英文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="中文标题" xfId="12" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="纵向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="INDEX"/>
-      <sheetName val="属性表"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="4">
-          <cell r="B4" t="str">
-            <v>atk</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="E4">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5" t="str">
-            <v>hp</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="E5">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6" t="str">
-            <v>def</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="E6">
-            <v>20</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7" t="str">
-            <v>shield</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="E7">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8" t="str">
-            <v>shieldRg</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="E8">
-            <v>50</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9" t="str">
-            <v>iniEnergy</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="E9">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10" t="str">
-            <v>energyRg</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="E10">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11" t="str">
-            <v>dmgInc</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="E11">
-            <v>1000000</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12" t="str">
-            <v>dmgDec</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="E12">
-            <v>1000000</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13" t="str">
-            <v>gready</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="E13">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14" t="str">
-            <v>lucky</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="E14">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15" t="str">
-            <v>crit</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="E15">
-            <v>50</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16" t="str">
-            <v>deCrit</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="E16">
-            <v>50</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17" t="str">
-            <v>block</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="E17">
-            <v>50</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18" t="str">
-            <v>dash</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="E18">
-            <v>50</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19" t="str">
-            <v>atkSpeed</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="E19">
-            <v>1000000</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20" t="str">
-            <v>critHit</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="E20">
-            <v>1000000</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21" t="str">
-            <v>critRat</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="E21">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22" t="str">
-            <v>deCritRat</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="E22">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23" t="str">
-            <v>blockRat</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="E23">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24" t="str">
-            <v>dashRat</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="E24">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25" t="str">
-            <v>vulnerable</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="E25">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26" t="str">
-            <v>skillEffect</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="E26">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3382,19 +2644,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
     <col min="2" max="2" width="27.125" customWidth="1"/>
@@ -3405,7 +2667,7 @@
     <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:7">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3428,7 +2690,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="47.25" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -3447,7 +2709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="57.75" customHeight="1" spans="1:7">
+    <row r="3" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -3466,7 +2728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="54" customHeight="1" spans="1:7">
+    <row r="4" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -3485,7 +2747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="55.5" customHeight="1" spans="1:7">
+    <row r="5" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -3504,7 +2766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="43.5" customHeight="1" spans="1:7">
+    <row r="6" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>16</v>
       </c>
@@ -3523,7 +2785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" ht="36.75" customHeight="1" spans="1:7">
+    <row r="7" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>16</v>
       </c>
@@ -3542,7 +2804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="32.25" customHeight="1" spans="1:7">
+    <row r="8" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
@@ -3561,7 +2823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="30" customHeight="1" spans="1:7">
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -3581,22 +2843,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12.375" customWidth="1"/>
     <col min="3" max="4" width="10.875" customWidth="1"/>
@@ -3606,7 +2867,7 @@
     <col min="8" max="8" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:8">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -3632,7 +2893,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -3658,7 +2919,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="1:8">
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
@@ -3684,7 +2945,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:8">
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -3710,7 +2971,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:8">
+    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -3736,7 +2997,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:8">
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -3762,7 +3023,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:8">
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -3788,7 +3049,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:8">
+    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -3814,7 +3075,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:8">
+    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>6</v>
       </c>
@@ -3840,7 +3101,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:8">
+    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>7</v>
       </c>
@@ -3866,7 +3127,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="1:8">
+    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>8</v>
       </c>
@@ -3892,7 +3153,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" ht="16.5" spans="1:8">
+    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>9</v>
       </c>
@@ -3918,7 +3179,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" ht="16.5" spans="1:8">
+    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>10</v>
       </c>
@@ -3944,7 +3205,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" ht="16.5" spans="1:8">
+    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>11</v>
       </c>
@@ -3970,7 +3231,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" ht="16.5" spans="1:8">
+    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>12</v>
       </c>
@@ -3996,7 +3257,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" ht="16.5" spans="1:8">
+    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>13</v>
       </c>
@@ -4023,22 +3284,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J403"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.25" customWidth="1"/>
     <col min="2" max="2" width="9.375" customWidth="1"/>
@@ -4048,7 +3308,7 @@
     <col min="10" max="10" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:10">
+    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -4078,7 +3338,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -4107,7 +3367,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="1:10">
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
@@ -4135,7 +3395,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:10">
+    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -4166,7 +3426,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:10">
+    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -4197,7 +3457,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:10">
+    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -4228,7 +3488,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:10">
+    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -4259,7 +3519,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:10">
+    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -4290,7 +3550,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:10">
+    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>6</v>
       </c>
@@ -4321,7 +3581,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:10">
+    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>7</v>
       </c>
@@ -4352,7 +3612,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="1:10">
+    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>8</v>
       </c>
@@ -4383,7 +3643,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" ht="16.5" spans="1:10">
+    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>9</v>
       </c>
@@ -4414,7 +3674,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" ht="16.5" spans="1:10">
+    <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>10</v>
       </c>
@@ -4445,7 +3705,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" ht="16.5" spans="1:10">
+    <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>11</v>
       </c>
@@ -4476,7 +3736,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="15" ht="16.5" spans="1:10">
+    <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>12</v>
       </c>
@@ -4507,7 +3767,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="16" ht="16.5" spans="1:10">
+    <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>13</v>
       </c>
@@ -4538,7 +3798,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="17" ht="16.5" spans="1:10">
+    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>14</v>
       </c>
@@ -4569,7 +3829,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="18" ht="16.5" spans="1:10">
+    <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>15</v>
       </c>
@@ -4600,7 +3860,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="19" ht="16.5" spans="1:10">
+    <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>16</v>
       </c>
@@ -4631,7 +3891,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="20" ht="16.5" spans="1:10">
+    <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>17</v>
       </c>
@@ -4662,7 +3922,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="21" ht="16.5" spans="1:10">
+    <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>18</v>
       </c>
@@ -4693,7 +3953,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="22" ht="16.5" spans="1:10">
+    <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>19</v>
       </c>
@@ -4724,7 +3984,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="23" ht="16.5" spans="1:10">
+    <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>20</v>
       </c>
@@ -4755,7 +4015,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="24" ht="16.5" spans="1:10">
+    <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>21</v>
       </c>
@@ -4786,7 +4046,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="25" ht="16.5" spans="1:10">
+    <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>22</v>
       </c>
@@ -4817,7 +4077,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="26" ht="16.5" spans="1:10">
+    <row r="26" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>23</v>
       </c>
@@ -4848,7 +4108,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="27" ht="16.5" spans="1:10">
+    <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>24</v>
       </c>
@@ -4879,7 +4139,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="28" ht="16.5" spans="1:10">
+    <row r="28" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>25</v>
       </c>
@@ -4910,7 +4170,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="29" ht="16.5" spans="1:10">
+    <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>26</v>
       </c>
@@ -4941,7 +4201,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="30" ht="16.5" spans="1:10">
+    <row r="30" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>27</v>
       </c>
@@ -4972,7 +4232,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="31" ht="16.5" spans="1:10">
+    <row r="31" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>28</v>
       </c>
@@ -5003,7 +4263,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="32" ht="16.5" spans="1:10">
+    <row r="32" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>29</v>
       </c>
@@ -5034,7 +4294,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="33" ht="16.5" spans="1:10">
+    <row r="33" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>30</v>
       </c>
@@ -5065,7 +4325,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="34" ht="16.5" spans="1:10">
+    <row r="34" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>31</v>
       </c>
@@ -5096,7 +4356,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="35" ht="16.5" spans="1:10">
+    <row r="35" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>32</v>
       </c>
@@ -5127,7 +4387,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="36" ht="16.5" spans="1:10">
+    <row r="36" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>33</v>
       </c>
@@ -5158,7 +4418,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="37" ht="16.5" spans="1:10">
+    <row r="37" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>34</v>
       </c>
@@ -5189,7 +4449,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="38" ht="16.5" spans="1:10">
+    <row r="38" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>35</v>
       </c>
@@ -5220,7 +4480,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="39" ht="16.5" spans="1:10">
+    <row r="39" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>36</v>
       </c>
@@ -5251,7 +4511,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="40" ht="16.5" spans="1:10">
+    <row r="40" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>37</v>
       </c>
@@ -5282,7 +4542,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="41" ht="16.5" spans="1:10">
+    <row r="41" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>38</v>
       </c>
@@ -5313,7 +4573,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="42" ht="16.5" spans="1:10">
+    <row r="42" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>39</v>
       </c>
@@ -5344,7 +4604,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="43" ht="16.5" spans="1:10">
+    <row r="43" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>40</v>
       </c>
@@ -5375,7 +4635,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="44" ht="16.5" spans="1:10">
+    <row r="44" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>41</v>
       </c>
@@ -5406,7 +4666,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="45" ht="16.5" spans="1:10">
+    <row r="45" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>42</v>
       </c>
@@ -5437,7 +4697,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="46" ht="16.5" spans="1:10">
+    <row r="46" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>43</v>
       </c>
@@ -5468,7 +4728,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="47" ht="16.5" spans="1:10">
+    <row r="47" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>44</v>
       </c>
@@ -5499,7 +4759,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="48" ht="16.5" spans="1:10">
+    <row r="48" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>45</v>
       </c>
@@ -5530,7 +4790,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="49" ht="16.5" spans="1:10">
+    <row r="49" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>46</v>
       </c>
@@ -5561,7 +4821,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="50" ht="16.5" spans="1:10">
+    <row r="50" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>47</v>
       </c>
@@ -5592,7 +4852,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="51" ht="16.5" spans="1:10">
+    <row r="51" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>48</v>
       </c>
@@ -5623,7 +4883,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="52" ht="16.5" spans="1:10">
+    <row r="52" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>49</v>
       </c>
@@ -5654,7 +4914,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="53" ht="16.5" spans="1:10">
+    <row r="53" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>50</v>
       </c>
@@ -5685,7 +4945,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="54" ht="16.5" spans="1:10">
+    <row r="54" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>51</v>
       </c>
@@ -5716,7 +4976,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="55" ht="16.5" spans="1:10">
+    <row r="55" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>52</v>
       </c>
@@ -5747,7 +5007,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="56" ht="16.5" spans="1:10">
+    <row r="56" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>53</v>
       </c>
@@ -5778,7 +5038,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="57" ht="16.5" spans="1:10">
+    <row r="57" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>54</v>
       </c>
@@ -5809,7 +5069,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="58" ht="16.5" spans="1:10">
+    <row r="58" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>55</v>
       </c>
@@ -5840,7 +5100,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="59" ht="16.5" spans="1:10">
+    <row r="59" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>56</v>
       </c>
@@ -5871,7 +5131,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="60" ht="16.5" spans="1:10">
+    <row r="60" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>57</v>
       </c>
@@ -5902,7 +5162,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="61" ht="16.5" spans="1:10">
+    <row r="61" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>58</v>
       </c>
@@ -5933,7 +5193,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="62" ht="16.5" spans="1:10">
+    <row r="62" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>59</v>
       </c>
@@ -5964,7 +5224,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="63" ht="16.5" spans="1:10">
+    <row r="63" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>60</v>
       </c>
@@ -5995,7 +5255,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="64" ht="16.5" spans="1:10">
+    <row r="64" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>61</v>
       </c>
@@ -6026,7 +5286,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="65" ht="16.5" spans="1:10">
+    <row r="65" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>62</v>
       </c>
@@ -6057,7 +5317,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="66" ht="16.5" spans="1:10">
+    <row r="66" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>63</v>
       </c>
@@ -6088,7 +5348,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="67" ht="16.5" spans="1:10">
+    <row r="67" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>64</v>
       </c>
@@ -6119,7 +5379,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="68" ht="16.5" spans="1:10">
+    <row r="68" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>65</v>
       </c>
@@ -6150,7 +5410,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="69" ht="16.5" spans="1:10">
+    <row r="69" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>66</v>
       </c>
@@ -6181,7 +5441,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="70" ht="16.5" spans="1:10">
+    <row r="70" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>67</v>
       </c>
@@ -6212,7 +5472,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="71" ht="16.5" spans="1:10">
+    <row r="71" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>68</v>
       </c>
@@ -6243,7 +5503,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="72" ht="16.5" spans="1:10">
+    <row r="72" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>69</v>
       </c>
@@ -6274,7 +5534,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="73" ht="16.5" spans="1:10">
+    <row r="73" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>70</v>
       </c>
@@ -6305,7 +5565,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="74" ht="16.5" spans="1:10">
+    <row r="74" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>71</v>
       </c>
@@ -6336,7 +5596,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="75" ht="16.5" spans="1:10">
+    <row r="75" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>72</v>
       </c>
@@ -6367,7 +5627,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="76" ht="16.5" spans="1:10">
+    <row r="76" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>73</v>
       </c>
@@ -6398,7 +5658,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="77" ht="16.5" spans="1:10">
+    <row r="77" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>74</v>
       </c>
@@ -6429,7 +5689,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="78" ht="16.5" spans="1:10">
+    <row r="78" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>75</v>
       </c>
@@ -6460,7 +5720,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="79" ht="16.5" spans="1:10">
+    <row r="79" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>76</v>
       </c>
@@ -6491,7 +5751,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="80" ht="16.5" spans="1:10">
+    <row r="80" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>77</v>
       </c>
@@ -6522,7 +5782,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="81" ht="16.5" spans="1:10">
+    <row r="81" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>78</v>
       </c>
@@ -6553,7 +5813,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="82" ht="16.5" spans="1:10">
+    <row r="82" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>79</v>
       </c>
@@ -6584,7 +5844,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="83" ht="16.5" spans="1:10">
+    <row r="83" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>80</v>
       </c>
@@ -6615,7 +5875,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="84" ht="16.5" spans="1:10">
+    <row r="84" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>81</v>
       </c>
@@ -6646,7 +5906,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="85" ht="16.5" spans="1:10">
+    <row r="85" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>82</v>
       </c>
@@ -6677,7 +5937,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="86" ht="16.5" spans="1:10">
+    <row r="86" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>83</v>
       </c>
@@ -6708,7 +5968,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="87" ht="16.5" spans="1:10">
+    <row r="87" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>84</v>
       </c>
@@ -6739,7 +5999,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="88" ht="16.5" spans="1:10">
+    <row r="88" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>85</v>
       </c>
@@ -6770,7 +6030,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="89" ht="16.5" spans="1:10">
+    <row r="89" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>86</v>
       </c>
@@ -6801,7 +6061,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="90" ht="16.5" spans="1:10">
+    <row r="90" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>87</v>
       </c>
@@ -6832,7 +6092,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="91" ht="16.5" spans="1:10">
+    <row r="91" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>88</v>
       </c>
@@ -6863,7 +6123,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="92" ht="16.5" spans="1:10">
+    <row r="92" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>89</v>
       </c>
@@ -6894,7 +6154,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="93" ht="16.5" spans="1:10">
+    <row r="93" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>90</v>
       </c>
@@ -6925,7 +6185,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="94" ht="16.5" spans="1:10">
+    <row r="94" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>91</v>
       </c>
@@ -6956,7 +6216,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="95" ht="16.5" spans="1:10">
+    <row r="95" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>92</v>
       </c>
@@ -6987,7 +6247,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="96" ht="16.5" spans="1:10">
+    <row r="96" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>93</v>
       </c>
@@ -7018,7 +6278,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="97" ht="16.5" spans="1:10">
+    <row r="97" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>94</v>
       </c>
@@ -7049,7 +6309,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="98" ht="16.5" spans="1:10">
+    <row r="98" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>95</v>
       </c>
@@ -7080,7 +6340,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="99" ht="16.5" spans="1:10">
+    <row r="99" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>96</v>
       </c>
@@ -7111,7 +6371,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="100" ht="16.5" spans="1:10">
+    <row r="100" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
         <v>97</v>
       </c>
@@ -7142,7 +6402,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="101" ht="16.5" spans="1:10">
+    <row r="101" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
         <v>98</v>
       </c>
@@ -7173,7 +6433,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="102" ht="16.5" spans="1:10">
+    <row r="102" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A102" s="4">
         <v>99</v>
       </c>
@@ -7204,7 +6464,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="103" ht="16.5" spans="1:10">
+    <row r="103" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A103" s="4">
         <v>100</v>
       </c>
@@ -7235,7 +6495,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="104" ht="16.5" spans="1:10">
+    <row r="104" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A104" s="4">
         <v>101</v>
       </c>
@@ -7266,7 +6526,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" ht="16.5" spans="1:10">
+    <row r="105" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A105" s="4">
         <v>102</v>
       </c>
@@ -7297,7 +6557,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="106" ht="16.5" spans="1:10">
+    <row r="106" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A106" s="4">
         <v>103</v>
       </c>
@@ -7328,7 +6588,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="107" ht="16.5" spans="1:10">
+    <row r="107" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A107" s="4">
         <v>104</v>
       </c>
@@ -7359,7 +6619,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="108" ht="16.5" spans="1:10">
+    <row r="108" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A108" s="4">
         <v>105</v>
       </c>
@@ -7390,7 +6650,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="109" ht="16.5" spans="1:10">
+    <row r="109" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A109" s="4">
         <v>106</v>
       </c>
@@ -7421,7 +6681,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="110" ht="16.5" spans="1:10">
+    <row r="110" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A110" s="4">
         <v>107</v>
       </c>
@@ -7452,7 +6712,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="111" ht="16.5" spans="1:10">
+    <row r="111" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A111" s="4">
         <v>108</v>
       </c>
@@ -7483,7 +6743,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="112" ht="16.5" spans="1:10">
+    <row r="112" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A112" s="4">
         <v>109</v>
       </c>
@@ -7514,7 +6774,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="113" ht="16.5" spans="1:10">
+    <row r="113" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A113" s="4">
         <v>110</v>
       </c>
@@ -7545,7 +6805,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="114" ht="16.5" spans="1:10">
+    <row r="114" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A114" s="4">
         <v>111</v>
       </c>
@@ -7576,7 +6836,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="115" ht="16.5" spans="1:10">
+    <row r="115" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A115" s="4">
         <v>112</v>
       </c>
@@ -7607,7 +6867,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="116" ht="16.5" spans="1:10">
+    <row r="116" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A116" s="4">
         <v>113</v>
       </c>
@@ -7638,7 +6898,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="117" ht="16.5" spans="1:10">
+    <row r="117" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A117" s="4">
         <v>114</v>
       </c>
@@ -7669,7 +6929,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="118" ht="16.5" spans="1:10">
+    <row r="118" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A118" s="4">
         <v>115</v>
       </c>
@@ -7700,7 +6960,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="119" ht="16.5" spans="1:10">
+    <row r="119" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A119" s="4">
         <v>116</v>
       </c>
@@ -7731,7 +6991,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="120" ht="16.5" spans="1:10">
+    <row r="120" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A120" s="4">
         <v>117</v>
       </c>
@@ -7762,7 +7022,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="121" ht="16.5" spans="1:10">
+    <row r="121" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A121" s="4">
         <v>118</v>
       </c>
@@ -7793,7 +7053,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="122" ht="16.5" spans="1:10">
+    <row r="122" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A122" s="4">
         <v>119</v>
       </c>
@@ -7824,7 +7084,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="123" ht="16.5" spans="1:10">
+    <row r="123" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A123" s="4">
         <v>120</v>
       </c>
@@ -7855,7 +7115,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="124" ht="16.5" spans="1:10">
+    <row r="124" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A124" s="4">
         <v>121</v>
       </c>
@@ -7886,7 +7146,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="125" ht="16.5" spans="1:10">
+    <row r="125" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A125" s="4">
         <v>122</v>
       </c>
@@ -7917,7 +7177,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="126" ht="16.5" spans="1:10">
+    <row r="126" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A126" s="4">
         <v>123</v>
       </c>
@@ -7948,7 +7208,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="127" ht="16.5" spans="1:10">
+    <row r="127" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A127" s="4">
         <v>124</v>
       </c>
@@ -7979,7 +7239,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="128" ht="16.5" spans="1:10">
+    <row r="128" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A128" s="4">
         <v>125</v>
       </c>
@@ -8010,7 +7270,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="129" ht="16.5" spans="1:10">
+    <row r="129" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A129" s="4">
         <v>126</v>
       </c>
@@ -8041,7 +7301,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="130" ht="16.5" spans="1:10">
+    <row r="130" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A130" s="4">
         <v>127</v>
       </c>
@@ -8072,7 +7332,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="131" ht="16.5" spans="1:10">
+    <row r="131" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A131" s="4">
         <v>128</v>
       </c>
@@ -8103,7 +7363,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="132" ht="16.5" spans="1:10">
+    <row r="132" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A132" s="4">
         <v>129</v>
       </c>
@@ -8134,7 +7394,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="133" ht="16.5" spans="1:10">
+    <row r="133" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A133" s="4">
         <v>130</v>
       </c>
@@ -8165,7 +7425,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="134" ht="16.5" spans="1:10">
+    <row r="134" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A134" s="4">
         <v>131</v>
       </c>
@@ -8196,7 +7456,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="135" ht="16.5" spans="1:10">
+    <row r="135" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A135" s="4">
         <v>132</v>
       </c>
@@ -8227,7 +7487,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="136" ht="16.5" spans="1:10">
+    <row r="136" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A136" s="4">
         <v>133</v>
       </c>
@@ -8258,7 +7518,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="137" ht="16.5" spans="1:10">
+    <row r="137" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A137" s="4">
         <v>134</v>
       </c>
@@ -8289,7 +7549,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="138" ht="16.5" spans="1:10">
+    <row r="138" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A138" s="4">
         <v>135</v>
       </c>
@@ -8320,7 +7580,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="139" ht="16.5" spans="1:10">
+    <row r="139" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A139" s="4">
         <v>136</v>
       </c>
@@ -8351,7 +7611,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="140" ht="16.5" spans="1:10">
+    <row r="140" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A140" s="4">
         <v>137</v>
       </c>
@@ -8382,7 +7642,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="141" ht="16.5" spans="1:10">
+    <row r="141" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A141" s="4">
         <v>138</v>
       </c>
@@ -8413,7 +7673,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="142" ht="16.5" spans="1:10">
+    <row r="142" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A142" s="4">
         <v>139</v>
       </c>
@@ -8444,7 +7704,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="143" ht="16.5" spans="1:10">
+    <row r="143" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A143" s="4">
         <v>140</v>
       </c>
@@ -8475,7 +7735,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="144" ht="16.5" spans="1:10">
+    <row r="144" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A144" s="4">
         <v>141</v>
       </c>
@@ -8506,7 +7766,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="145" ht="16.5" spans="1:10">
+    <row r="145" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A145" s="4">
         <v>142</v>
       </c>
@@ -8537,7 +7797,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="146" ht="16.5" spans="1:10">
+    <row r="146" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A146" s="4">
         <v>143</v>
       </c>
@@ -8568,7 +7828,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="147" ht="16.5" spans="1:10">
+    <row r="147" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A147" s="4">
         <v>144</v>
       </c>
@@ -8599,7 +7859,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="148" ht="16.5" spans="1:10">
+    <row r="148" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A148" s="4">
         <v>145</v>
       </c>
@@ -8630,7 +7890,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="149" ht="16.5" spans="1:10">
+    <row r="149" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A149" s="4">
         <v>146</v>
       </c>
@@ -8661,7 +7921,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="150" ht="16.5" spans="1:10">
+    <row r="150" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A150" s="4">
         <v>147</v>
       </c>
@@ -8692,7 +7952,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="151" ht="16.5" spans="1:10">
+    <row r="151" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A151" s="4">
         <v>148</v>
       </c>
@@ -8723,7 +7983,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="152" ht="16.5" spans="1:10">
+    <row r="152" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A152" s="4">
         <v>149</v>
       </c>
@@ -8754,7 +8014,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="153" ht="16.5" spans="1:10">
+    <row r="153" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A153" s="4">
         <v>150</v>
       </c>
@@ -8785,7 +8045,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="154" ht="16.5" spans="1:10">
+    <row r="154" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A154" s="4">
         <v>151</v>
       </c>
@@ -8816,7 +8076,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="155" ht="16.5" spans="1:10">
+    <row r="155" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A155" s="4">
         <v>152</v>
       </c>
@@ -8847,7 +8107,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="156" ht="16.5" spans="1:10">
+    <row r="156" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A156" s="4">
         <v>153</v>
       </c>
@@ -8878,7 +8138,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="157" ht="16.5" spans="1:10">
+    <row r="157" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A157" s="4">
         <v>154</v>
       </c>
@@ -8909,7 +8169,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="158" ht="16.5" spans="1:10">
+    <row r="158" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A158" s="4">
         <v>155</v>
       </c>
@@ -8940,7 +8200,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="159" ht="16.5" spans="1:10">
+    <row r="159" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A159" s="4">
         <v>156</v>
       </c>
@@ -8971,7 +8231,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="160" ht="16.5" spans="1:10">
+    <row r="160" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A160" s="4">
         <v>157</v>
       </c>
@@ -9002,7 +8262,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="161" ht="16.5" spans="1:10">
+    <row r="161" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A161" s="4">
         <v>158</v>
       </c>
@@ -9033,7 +8293,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="162" ht="16.5" spans="1:10">
+    <row r="162" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A162" s="4">
         <v>159</v>
       </c>
@@ -9064,7 +8324,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="163" ht="16.5" spans="1:10">
+    <row r="163" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A163" s="4">
         <v>160</v>
       </c>
@@ -9095,7 +8355,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="164" ht="16.5" spans="1:10">
+    <row r="164" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A164" s="4">
         <v>161</v>
       </c>
@@ -9126,7 +8386,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="165" ht="16.5" spans="1:10">
+    <row r="165" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A165" s="4">
         <v>162</v>
       </c>
@@ -9157,7 +8417,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="166" ht="16.5" spans="1:10">
+    <row r="166" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A166" s="4">
         <v>163</v>
       </c>
@@ -9188,7 +8448,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="167" ht="16.5" spans="1:10">
+    <row r="167" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A167" s="4">
         <v>164</v>
       </c>
@@ -9219,7 +8479,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="168" ht="16.5" spans="1:10">
+    <row r="168" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A168" s="4">
         <v>165</v>
       </c>
@@ -9250,7 +8510,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="169" ht="16.5" spans="1:10">
+    <row r="169" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A169" s="4">
         <v>166</v>
       </c>
@@ -9281,7 +8541,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="170" ht="16.5" spans="1:10">
+    <row r="170" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A170" s="4">
         <v>167</v>
       </c>
@@ -9312,7 +8572,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="171" ht="16.5" spans="1:10">
+    <row r="171" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A171" s="4">
         <v>168</v>
       </c>
@@ -9343,7 +8603,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="172" ht="16.5" spans="1:10">
+    <row r="172" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A172" s="4">
         <v>169</v>
       </c>
@@ -9374,7 +8634,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="173" ht="16.5" spans="1:10">
+    <row r="173" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A173" s="4">
         <v>170</v>
       </c>
@@ -9405,7 +8665,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="174" ht="16.5" spans="1:10">
+    <row r="174" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A174" s="4">
         <v>171</v>
       </c>
@@ -9436,7 +8696,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="175" ht="16.5" spans="1:10">
+    <row r="175" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A175" s="4">
         <v>172</v>
       </c>
@@ -9467,7 +8727,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="176" ht="16.5" spans="1:10">
+    <row r="176" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A176" s="4">
         <v>173</v>
       </c>
@@ -9498,7 +8758,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="177" ht="16.5" spans="1:10">
+    <row r="177" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A177" s="4">
         <v>174</v>
       </c>
@@ -9529,7 +8789,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="178" ht="16.5" spans="1:10">
+    <row r="178" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A178" s="4">
         <v>175</v>
       </c>
@@ -9560,7 +8820,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="179" ht="16.5" spans="1:10">
+    <row r="179" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A179" s="4">
         <v>176</v>
       </c>
@@ -9591,7 +8851,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="180" ht="16.5" spans="1:10">
+    <row r="180" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A180" s="4">
         <v>177</v>
       </c>
@@ -9622,7 +8882,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="181" ht="16.5" spans="1:10">
+    <row r="181" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A181" s="4">
         <v>178</v>
       </c>
@@ -9653,7 +8913,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="182" ht="16.5" spans="1:10">
+    <row r="182" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A182" s="4">
         <v>179</v>
       </c>
@@ -9684,7 +8944,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="183" ht="16.5" spans="1:10">
+    <row r="183" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A183" s="4">
         <v>180</v>
       </c>
@@ -9715,7 +8975,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="184" ht="16.5" spans="1:10">
+    <row r="184" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A184" s="4">
         <v>181</v>
       </c>
@@ -9746,7 +9006,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="185" ht="16.5" spans="1:10">
+    <row r="185" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A185" s="4">
         <v>182</v>
       </c>
@@ -9777,7 +9037,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="186" ht="16.5" spans="1:10">
+    <row r="186" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A186" s="4">
         <v>183</v>
       </c>
@@ -9808,7 +9068,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="187" ht="16.5" spans="1:10">
+    <row r="187" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A187" s="4">
         <v>184</v>
       </c>
@@ -9839,7 +9099,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="188" ht="16.5" spans="1:10">
+    <row r="188" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A188" s="4">
         <v>185</v>
       </c>
@@ -9870,7 +9130,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="189" ht="16.5" spans="1:10">
+    <row r="189" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A189" s="4">
         <v>186</v>
       </c>
@@ -9901,7 +9161,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="190" ht="16.5" spans="1:10">
+    <row r="190" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A190" s="4">
         <v>187</v>
       </c>
@@ -9932,7 +9192,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="191" ht="16.5" spans="1:10">
+    <row r="191" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A191" s="4">
         <v>188</v>
       </c>
@@ -9963,7 +9223,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="192" ht="16.5" spans="1:10">
+    <row r="192" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A192" s="4">
         <v>189</v>
       </c>
@@ -9994,7 +9254,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="193" ht="16.5" spans="1:10">
+    <row r="193" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A193" s="4">
         <v>190</v>
       </c>
@@ -10025,7 +9285,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="194" ht="16.5" spans="1:10">
+    <row r="194" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A194" s="4">
         <v>191</v>
       </c>
@@ -10056,7 +9316,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="195" ht="16.5" spans="1:10">
+    <row r="195" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A195" s="4">
         <v>192</v>
       </c>
@@ -10087,7 +9347,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="196" ht="16.5" spans="1:10">
+    <row r="196" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A196" s="4">
         <v>193</v>
       </c>
@@ -10118,7 +9378,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="197" ht="16.5" spans="1:10">
+    <row r="197" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A197" s="4">
         <v>194</v>
       </c>
@@ -10149,7 +9409,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="198" ht="16.5" spans="1:10">
+    <row r="198" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A198" s="4">
         <v>195</v>
       </c>
@@ -10180,7 +9440,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="199" ht="16.5" spans="1:10">
+    <row r="199" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A199" s="4">
         <v>196</v>
       </c>
@@ -10211,7 +9471,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="200" ht="16.5" spans="1:10">
+    <row r="200" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A200" s="4">
         <v>197</v>
       </c>
@@ -10242,7 +9502,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="201" ht="16.5" spans="1:10">
+    <row r="201" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A201" s="4">
         <v>198</v>
       </c>
@@ -10273,7 +9533,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="202" ht="16.5" spans="1:10">
+    <row r="202" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A202" s="4">
         <v>199</v>
       </c>
@@ -10304,7 +9564,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="203" ht="16.5" spans="1:10">
+    <row r="203" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A203" s="4">
         <v>200</v>
       </c>
@@ -10335,7 +9595,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="204" ht="16.5" spans="1:10">
+    <row r="204" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A204" s="4">
         <v>201</v>
       </c>
@@ -10366,7 +9626,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="205" ht="16.5" spans="1:10">
+    <row r="205" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A205" s="4">
         <v>202</v>
       </c>
@@ -10397,7 +9657,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="206" ht="16.5" spans="1:10">
+    <row r="206" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A206" s="4">
         <v>203</v>
       </c>
@@ -10428,7 +9688,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="207" ht="16.5" spans="1:10">
+    <row r="207" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A207" s="4">
         <v>204</v>
       </c>
@@ -10459,7 +9719,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="208" ht="16.5" spans="1:10">
+    <row r="208" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A208" s="4">
         <v>205</v>
       </c>
@@ -10490,7 +9750,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="209" ht="16.5" spans="1:10">
+    <row r="209" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A209" s="4">
         <v>206</v>
       </c>
@@ -10521,7 +9781,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="210" ht="16.5" spans="1:10">
+    <row r="210" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A210" s="4">
         <v>207</v>
       </c>
@@ -10552,7 +9812,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="211" ht="16.5" spans="1:10">
+    <row r="211" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A211" s="4">
         <v>208</v>
       </c>
@@ -10583,7 +9843,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="212" ht="16.5" spans="1:10">
+    <row r="212" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A212" s="4">
         <v>209</v>
       </c>
@@ -10614,7 +9874,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="213" ht="16.5" spans="1:10">
+    <row r="213" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A213" s="4">
         <v>210</v>
       </c>
@@ -10645,7 +9905,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="214" ht="16.5" spans="1:10">
+    <row r="214" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A214" s="4">
         <v>211</v>
       </c>
@@ -10676,7 +9936,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="215" ht="16.5" spans="1:10">
+    <row r="215" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A215" s="4">
         <v>212</v>
       </c>
@@ -10707,7 +9967,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="216" ht="16.5" spans="1:10">
+    <row r="216" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A216" s="4">
         <v>213</v>
       </c>
@@ -10738,7 +9998,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="217" ht="16.5" spans="1:10">
+    <row r="217" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A217" s="4">
         <v>214</v>
       </c>
@@ -10769,7 +10029,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="218" ht="16.5" spans="1:10">
+    <row r="218" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A218" s="4">
         <v>215</v>
       </c>
@@ -10800,7 +10060,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="219" ht="16.5" spans="1:10">
+    <row r="219" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A219" s="4">
         <v>216</v>
       </c>
@@ -10831,7 +10091,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="220" ht="16.5" spans="1:10">
+    <row r="220" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A220" s="4">
         <v>217</v>
       </c>
@@ -10862,7 +10122,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="221" ht="16.5" spans="1:10">
+    <row r="221" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A221" s="4">
         <v>218</v>
       </c>
@@ -10893,7 +10153,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="222" ht="16.5" spans="1:10">
+    <row r="222" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A222" s="4">
         <v>219</v>
       </c>
@@ -10924,7 +10184,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="223" ht="16.5" spans="1:10">
+    <row r="223" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A223" s="4">
         <v>220</v>
       </c>
@@ -10955,7 +10215,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="224" ht="16.5" spans="1:10">
+    <row r="224" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A224" s="4">
         <v>221</v>
       </c>
@@ -10986,7 +10246,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="225" ht="16.5" spans="1:10">
+    <row r="225" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A225" s="4">
         <v>222</v>
       </c>
@@ -11017,7 +10277,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="226" ht="16.5" spans="1:10">
+    <row r="226" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A226" s="4">
         <v>223</v>
       </c>
@@ -11048,7 +10308,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="227" ht="16.5" spans="1:10">
+    <row r="227" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A227" s="4">
         <v>224</v>
       </c>
@@ -11079,7 +10339,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="228" ht="16.5" spans="1:10">
+    <row r="228" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A228" s="4">
         <v>225</v>
       </c>
@@ -11110,7 +10370,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="229" ht="16.5" spans="1:10">
+    <row r="229" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A229" s="4">
         <v>226</v>
       </c>
@@ -11141,7 +10401,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="230" ht="16.5" spans="1:10">
+    <row r="230" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A230" s="4">
         <v>227</v>
       </c>
@@ -11172,7 +10432,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="231" ht="16.5" spans="1:10">
+    <row r="231" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A231" s="4">
         <v>228</v>
       </c>
@@ -11203,7 +10463,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="232" ht="16.5" spans="1:10">
+    <row r="232" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A232" s="4">
         <v>229</v>
       </c>
@@ -11234,7 +10494,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="233" ht="16.5" spans="1:10">
+    <row r="233" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A233" s="4">
         <v>230</v>
       </c>
@@ -11265,7 +10525,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="234" ht="16.5" spans="1:10">
+    <row r="234" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A234" s="4">
         <v>231</v>
       </c>
@@ -11296,7 +10556,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="235" ht="16.5" spans="1:10">
+    <row r="235" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A235" s="4">
         <v>232</v>
       </c>
@@ -11327,7 +10587,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="236" ht="16.5" spans="1:10">
+    <row r="236" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A236" s="4">
         <v>233</v>
       </c>
@@ -11358,7 +10618,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="237" ht="16.5" spans="1:10">
+    <row r="237" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A237" s="4">
         <v>234</v>
       </c>
@@ -11389,7 +10649,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="238" ht="16.5" spans="1:10">
+    <row r="238" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A238" s="4">
         <v>235</v>
       </c>
@@ -11420,7 +10680,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="239" ht="16.5" spans="1:10">
+    <row r="239" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A239" s="4">
         <v>236</v>
       </c>
@@ -11451,7 +10711,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="240" ht="16.5" spans="1:10">
+    <row r="240" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A240" s="4">
         <v>237</v>
       </c>
@@ -11482,7 +10742,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="241" ht="16.5" spans="1:10">
+    <row r="241" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A241" s="4">
         <v>238</v>
       </c>
@@ -11513,7 +10773,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="242" ht="16.5" spans="1:10">
+    <row r="242" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A242" s="4">
         <v>239</v>
       </c>
@@ -11544,7 +10804,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="243" ht="16.5" spans="1:10">
+    <row r="243" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A243" s="4">
         <v>240</v>
       </c>
@@ -11575,7 +10835,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="244" ht="16.5" spans="1:10">
+    <row r="244" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A244" s="4">
         <v>241</v>
       </c>
@@ -11606,7 +10866,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="245" ht="16.5" spans="1:10">
+    <row r="245" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A245" s="4">
         <v>242</v>
       </c>
@@ -11637,7 +10897,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="246" ht="16.5" spans="1:10">
+    <row r="246" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A246" s="4">
         <v>243</v>
       </c>
@@ -11668,7 +10928,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="247" ht="16.5" spans="1:10">
+    <row r="247" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A247" s="4">
         <v>244</v>
       </c>
@@ -11699,7 +10959,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="248" ht="16.5" spans="1:10">
+    <row r="248" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A248" s="4">
         <v>245</v>
       </c>
@@ -11730,7 +10990,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="249" ht="16.5" spans="1:10">
+    <row r="249" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A249" s="4">
         <v>246</v>
       </c>
@@ -11761,7 +11021,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="250" ht="16.5" spans="1:10">
+    <row r="250" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A250" s="4">
         <v>247</v>
       </c>
@@ -11792,7 +11052,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="251" ht="16.5" spans="1:10">
+    <row r="251" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A251" s="4">
         <v>248</v>
       </c>
@@ -11823,7 +11083,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="252" ht="16.5" spans="1:10">
+    <row r="252" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A252" s="4">
         <v>249</v>
       </c>
@@ -11854,7 +11114,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="253" ht="16.5" spans="1:10">
+    <row r="253" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A253" s="4">
         <v>250</v>
       </c>
@@ -11885,7 +11145,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="254" ht="16.5" spans="1:10">
+    <row r="254" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A254" s="4">
         <v>251</v>
       </c>
@@ -11916,7 +11176,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="255" ht="16.5" spans="1:10">
+    <row r="255" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A255" s="4">
         <v>252</v>
       </c>
@@ -11947,7 +11207,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="256" ht="16.5" spans="1:10">
+    <row r="256" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A256" s="4">
         <v>253</v>
       </c>
@@ -11978,7 +11238,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="257" ht="16.5" spans="1:10">
+    <row r="257" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A257" s="4">
         <v>254</v>
       </c>
@@ -12009,7 +11269,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="258" ht="16.5" spans="1:10">
+    <row r="258" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A258" s="4">
         <v>255</v>
       </c>
@@ -12040,7 +11300,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="259" ht="16.5" spans="1:10">
+    <row r="259" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A259" s="4">
         <v>256</v>
       </c>
@@ -12071,7 +11331,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="260" ht="16.5" spans="1:10">
+    <row r="260" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A260" s="4">
         <v>257</v>
       </c>
@@ -12102,7 +11362,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="261" ht="16.5" spans="1:10">
+    <row r="261" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A261" s="4">
         <v>258</v>
       </c>
@@ -12133,7 +11393,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="262" ht="16.5" spans="1:10">
+    <row r="262" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A262" s="4">
         <v>259</v>
       </c>
@@ -12164,7 +11424,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="263" ht="16.5" spans="1:10">
+    <row r="263" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A263" s="4">
         <v>260</v>
       </c>
@@ -12195,7 +11455,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="264" ht="16.5" spans="1:10">
+    <row r="264" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A264" s="4">
         <v>261</v>
       </c>
@@ -12226,7 +11486,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="265" ht="16.5" spans="1:10">
+    <row r="265" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A265" s="4">
         <v>262</v>
       </c>
@@ -12257,7 +11517,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="266" ht="16.5" spans="1:10">
+    <row r="266" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A266" s="4">
         <v>263</v>
       </c>
@@ -12288,7 +11548,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="267" ht="16.5" spans="1:10">
+    <row r="267" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A267" s="4">
         <v>264</v>
       </c>
@@ -12319,7 +11579,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="268" ht="16.5" spans="1:10">
+    <row r="268" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A268" s="4">
         <v>265</v>
       </c>
@@ -12350,7 +11610,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="269" ht="16.5" spans="1:10">
+    <row r="269" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A269" s="4">
         <v>266</v>
       </c>
@@ -12381,7 +11641,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="270" ht="16.5" spans="1:10">
+    <row r="270" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A270" s="4">
         <v>267</v>
       </c>
@@ -12412,7 +11672,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="271" ht="16.5" spans="1:10">
+    <row r="271" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A271" s="4">
         <v>268</v>
       </c>
@@ -12443,7 +11703,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="272" ht="16.5" spans="1:10">
+    <row r="272" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A272" s="4">
         <v>269</v>
       </c>
@@ -12474,7 +11734,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="273" ht="16.5" spans="1:10">
+    <row r="273" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A273" s="4">
         <v>270</v>
       </c>
@@ -12505,7 +11765,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="274" ht="16.5" spans="1:10">
+    <row r="274" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A274" s="4">
         <v>271</v>
       </c>
@@ -12536,7 +11796,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="275" ht="16.5" spans="1:10">
+    <row r="275" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A275" s="4">
         <v>272</v>
       </c>
@@ -12567,7 +11827,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="276" ht="16.5" spans="1:10">
+    <row r="276" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A276" s="4">
         <v>273</v>
       </c>
@@ -12598,7 +11858,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="277" ht="16.5" spans="1:10">
+    <row r="277" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A277" s="4">
         <v>274</v>
       </c>
@@ -12629,7 +11889,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="278" ht="16.5" spans="1:10">
+    <row r="278" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A278" s="4">
         <v>275</v>
       </c>
@@ -12660,7 +11920,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="279" ht="16.5" spans="1:10">
+    <row r="279" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A279" s="4">
         <v>276</v>
       </c>
@@ -12691,7 +11951,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="280" ht="16.5" spans="1:10">
+    <row r="280" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A280" s="4">
         <v>277</v>
       </c>
@@ -12722,7 +11982,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="281" ht="16.5" spans="1:10">
+    <row r="281" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A281" s="4">
         <v>278</v>
       </c>
@@ -12753,7 +12013,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="282" ht="16.5" spans="1:10">
+    <row r="282" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A282" s="4">
         <v>279</v>
       </c>
@@ -12784,7 +12044,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="283" ht="16.5" spans="1:10">
+    <row r="283" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A283" s="4">
         <v>280</v>
       </c>
@@ -12815,7 +12075,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="284" ht="16.5" spans="1:10">
+    <row r="284" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A284" s="4">
         <v>281</v>
       </c>
@@ -12846,7 +12106,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="285" ht="16.5" spans="1:10">
+    <row r="285" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A285" s="4">
         <v>282</v>
       </c>
@@ -12877,7 +12137,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="286" ht="16.5" spans="1:10">
+    <row r="286" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A286" s="4">
         <v>283</v>
       </c>
@@ -12908,7 +12168,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="287" ht="16.5" spans="1:10">
+    <row r="287" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A287" s="4">
         <v>284</v>
       </c>
@@ -12939,7 +12199,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="288" ht="16.5" spans="1:10">
+    <row r="288" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A288" s="4">
         <v>285</v>
       </c>
@@ -12970,7 +12230,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="289" ht="16.5" spans="1:10">
+    <row r="289" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A289" s="4">
         <v>286</v>
       </c>
@@ -13001,7 +12261,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="290" ht="16.5" spans="1:10">
+    <row r="290" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A290" s="4">
         <v>287</v>
       </c>
@@ -13032,7 +12292,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="291" ht="16.5" spans="1:10">
+    <row r="291" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A291" s="4">
         <v>288</v>
       </c>
@@ -13063,7 +12323,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="292" ht="16.5" spans="1:10">
+    <row r="292" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A292" s="4">
         <v>289</v>
       </c>
@@ -13094,7 +12354,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="293" ht="16.5" spans="1:10">
+    <row r="293" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A293" s="4">
         <v>290</v>
       </c>
@@ -13125,7 +12385,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="294" ht="16.5" spans="1:10">
+    <row r="294" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A294" s="4">
         <v>291</v>
       </c>
@@ -13156,7 +12416,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="295" ht="16.5" spans="1:10">
+    <row r="295" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A295" s="4">
         <v>292</v>
       </c>
@@ -13187,7 +12447,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="296" ht="16.5" spans="1:10">
+    <row r="296" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A296" s="4">
         <v>293</v>
       </c>
@@ -13218,7 +12478,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="297" ht="16.5" spans="1:10">
+    <row r="297" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A297" s="4">
         <v>294</v>
       </c>
@@ -13249,7 +12509,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="298" ht="16.5" spans="1:10">
+    <row r="298" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A298" s="4">
         <v>295</v>
       </c>
@@ -13280,7 +12540,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="299" ht="16.5" spans="1:10">
+    <row r="299" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A299" s="4">
         <v>296</v>
       </c>
@@ -13311,7 +12571,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="300" ht="16.5" spans="1:10">
+    <row r="300" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A300" s="4">
         <v>297</v>
       </c>
@@ -13342,7 +12602,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="301" ht="16.5" spans="1:10">
+    <row r="301" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A301" s="4">
         <v>298</v>
       </c>
@@ -13373,7 +12633,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="302" ht="16.5" spans="1:10">
+    <row r="302" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A302" s="4">
         <v>299</v>
       </c>
@@ -13404,7 +12664,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="303" ht="16.5" spans="1:10">
+    <row r="303" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A303" s="4">
         <v>300</v>
       </c>
@@ -13435,7 +12695,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="304" ht="16.5" spans="1:10">
+    <row r="304" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A304" s="4">
         <v>301</v>
       </c>
@@ -13466,7 +12726,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="305" ht="16.5" spans="1:10">
+    <row r="305" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A305" s="4">
         <v>302</v>
       </c>
@@ -13497,7 +12757,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="306" ht="16.5" spans="1:10">
+    <row r="306" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A306" s="4">
         <v>303</v>
       </c>
@@ -13528,7 +12788,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="307" ht="16.5" spans="1:10">
+    <row r="307" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A307" s="4">
         <v>304</v>
       </c>
@@ -13559,7 +12819,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="308" ht="16.5" spans="1:10">
+    <row r="308" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A308" s="4">
         <v>305</v>
       </c>
@@ -13590,7 +12850,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="309" ht="16.5" spans="1:10">
+    <row r="309" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A309" s="4">
         <v>306</v>
       </c>
@@ -13621,7 +12881,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="310" ht="16.5" spans="1:10">
+    <row r="310" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A310" s="4">
         <v>307</v>
       </c>
@@ -13652,7 +12912,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="311" ht="16.5" spans="1:10">
+    <row r="311" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A311" s="4">
         <v>308</v>
       </c>
@@ -13683,7 +12943,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="312" ht="16.5" spans="1:10">
+    <row r="312" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A312" s="4">
         <v>309</v>
       </c>
@@ -13714,7 +12974,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="313" ht="16.5" spans="1:10">
+    <row r="313" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A313" s="4">
         <v>310</v>
       </c>
@@ -13745,7 +13005,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="314" ht="16.5" spans="1:10">
+    <row r="314" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A314" s="4">
         <v>311</v>
       </c>
@@ -13776,7 +13036,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="315" ht="16.5" spans="1:10">
+    <row r="315" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A315" s="4">
         <v>312</v>
       </c>
@@ -13807,7 +13067,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="316" ht="16.5" spans="1:10">
+    <row r="316" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A316" s="4">
         <v>313</v>
       </c>
@@ -13838,7 +13098,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="317" ht="16.5" spans="1:10">
+    <row r="317" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A317" s="4">
         <v>314</v>
       </c>
@@ -13869,7 +13129,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="318" ht="16.5" spans="1:10">
+    <row r="318" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A318" s="4">
         <v>315</v>
       </c>
@@ -13900,7 +13160,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="319" ht="16.5" spans="1:10">
+    <row r="319" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A319" s="4">
         <v>316</v>
       </c>
@@ -13931,7 +13191,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="320" ht="16.5" spans="1:10">
+    <row r="320" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A320" s="4">
         <v>317</v>
       </c>
@@ -13962,7 +13222,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="321" ht="16.5" spans="1:10">
+    <row r="321" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A321" s="4">
         <v>318</v>
       </c>
@@ -13993,7 +13253,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="322" ht="16.5" spans="1:10">
+    <row r="322" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A322" s="4">
         <v>319</v>
       </c>
@@ -14024,7 +13284,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="323" ht="16.5" spans="1:10">
+    <row r="323" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A323" s="4">
         <v>320</v>
       </c>
@@ -14055,7 +13315,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="324" ht="16.5" spans="1:10">
+    <row r="324" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A324" s="4">
         <v>321</v>
       </c>
@@ -14086,7 +13346,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="325" ht="16.5" spans="1:10">
+    <row r="325" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A325" s="4">
         <v>322</v>
       </c>
@@ -14117,7 +13377,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="326" ht="16.5" spans="1:10">
+    <row r="326" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A326" s="4">
         <v>323</v>
       </c>
@@ -14148,7 +13408,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="327" ht="16.5" spans="1:10">
+    <row r="327" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A327" s="4">
         <v>324</v>
       </c>
@@ -14179,7 +13439,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="328" ht="16.5" spans="1:10">
+    <row r="328" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A328" s="4">
         <v>325</v>
       </c>
@@ -14210,7 +13470,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="329" ht="16.5" spans="1:10">
+    <row r="329" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A329" s="4">
         <v>326</v>
       </c>
@@ -14241,7 +13501,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="330" ht="16.5" spans="1:10">
+    <row r="330" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A330" s="4">
         <v>327</v>
       </c>
@@ -14272,7 +13532,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="331" ht="16.5" spans="1:10">
+    <row r="331" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A331" s="4">
         <v>328</v>
       </c>
@@ -14303,7 +13563,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="332" ht="16.5" spans="1:10">
+    <row r="332" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A332" s="4">
         <v>329</v>
       </c>
@@ -14334,7 +13594,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="333" ht="16.5" spans="1:10">
+    <row r="333" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A333" s="4">
         <v>330</v>
       </c>
@@ -14365,7 +13625,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="334" ht="16.5" spans="1:10">
+    <row r="334" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A334" s="4">
         <v>331</v>
       </c>
@@ -14396,7 +13656,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="335" ht="16.5" spans="1:10">
+    <row r="335" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A335" s="4">
         <v>332</v>
       </c>
@@ -14427,7 +13687,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="336" ht="16.5" spans="1:10">
+    <row r="336" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A336" s="4">
         <v>333</v>
       </c>
@@ -14458,7 +13718,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="337" ht="16.5" spans="1:10">
+    <row r="337" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A337" s="4">
         <v>334</v>
       </c>
@@ -14489,7 +13749,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="338" ht="16.5" spans="1:10">
+    <row r="338" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A338" s="4">
         <v>335</v>
       </c>
@@ -14520,7 +13780,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="339" ht="16.5" spans="1:10">
+    <row r="339" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A339" s="4">
         <v>336</v>
       </c>
@@ -14551,7 +13811,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="340" ht="16.5" spans="1:10">
+    <row r="340" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A340" s="4">
         <v>337</v>
       </c>
@@ -14582,7 +13842,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="341" ht="16.5" spans="1:10">
+    <row r="341" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A341" s="4">
         <v>338</v>
       </c>
@@ -14613,7 +13873,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="342" ht="16.5" spans="1:10">
+    <row r="342" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A342" s="4">
         <v>339</v>
       </c>
@@ -14644,7 +13904,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="343" ht="16.5" spans="1:10">
+    <row r="343" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A343" s="4">
         <v>340</v>
       </c>
@@ -14675,7 +13935,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="344" ht="16.5" spans="1:10">
+    <row r="344" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A344" s="4">
         <v>341</v>
       </c>
@@ -14706,7 +13966,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="345" ht="16.5" spans="1:10">
+    <row r="345" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A345" s="4">
         <v>342</v>
       </c>
@@ -14737,7 +13997,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="346" ht="16.5" spans="1:10">
+    <row r="346" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A346" s="4">
         <v>343</v>
       </c>
@@ -14768,7 +14028,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="347" ht="16.5" spans="1:10">
+    <row r="347" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A347" s="4">
         <v>344</v>
       </c>
@@ -14799,7 +14059,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="348" ht="16.5" spans="1:10">
+    <row r="348" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A348" s="4">
         <v>345</v>
       </c>
@@ -14830,7 +14090,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="349" ht="16.5" spans="1:10">
+    <row r="349" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A349" s="4">
         <v>346</v>
       </c>
@@ -14861,7 +14121,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="350" ht="16.5" spans="1:10">
+    <row r="350" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A350" s="4">
         <v>347</v>
       </c>
@@ -14892,7 +14152,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="351" ht="16.5" spans="1:10">
+    <row r="351" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A351" s="4">
         <v>348</v>
       </c>
@@ -14923,7 +14183,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="352" ht="16.5" spans="1:10">
+    <row r="352" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A352" s="4">
         <v>349</v>
       </c>
@@ -14954,7 +14214,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="353" ht="16.5" spans="1:10">
+    <row r="353" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A353" s="4">
         <v>350</v>
       </c>
@@ -14985,7 +14245,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="354" ht="16.5" spans="1:10">
+    <row r="354" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A354" s="4">
         <v>351</v>
       </c>
@@ -15016,7 +14276,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="355" ht="16.5" spans="1:10">
+    <row r="355" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A355" s="4">
         <v>352</v>
       </c>
@@ -15047,7 +14307,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="356" ht="16.5" spans="1:10">
+    <row r="356" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A356" s="4">
         <v>353</v>
       </c>
@@ -15078,7 +14338,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="357" ht="16.5" spans="1:10">
+    <row r="357" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A357" s="4">
         <v>354</v>
       </c>
@@ -15109,7 +14369,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="358" ht="16.5" spans="1:10">
+    <row r="358" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A358" s="4">
         <v>355</v>
       </c>
@@ -15140,7 +14400,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="359" ht="16.5" spans="1:10">
+    <row r="359" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A359" s="4">
         <v>356</v>
       </c>
@@ -15171,7 +14431,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="360" ht="16.5" spans="1:10">
+    <row r="360" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A360" s="4">
         <v>357</v>
       </c>
@@ -15202,7 +14462,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="361" ht="16.5" spans="1:10">
+    <row r="361" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A361" s="4">
         <v>358</v>
       </c>
@@ -15233,7 +14493,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="362" ht="16.5" spans="1:10">
+    <row r="362" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A362" s="4">
         <v>359</v>
       </c>
@@ -15264,7 +14524,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="363" ht="16.5" spans="1:10">
+    <row r="363" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A363" s="4">
         <v>360</v>
       </c>
@@ -15295,7 +14555,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="364" ht="16.5" spans="1:10">
+    <row r="364" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A364" s="4">
         <v>361</v>
       </c>
@@ -15326,7 +14586,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="365" ht="16.5" spans="1:10">
+    <row r="365" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A365" s="4">
         <v>362</v>
       </c>
@@ -15357,7 +14617,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="366" ht="16.5" spans="1:10">
+    <row r="366" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A366" s="4">
         <v>363</v>
       </c>
@@ -15388,7 +14648,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="367" ht="16.5" spans="1:10">
+    <row r="367" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A367" s="4">
         <v>364</v>
       </c>
@@ -15419,7 +14679,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="368" ht="16.5" spans="1:10">
+    <row r="368" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A368" s="4">
         <v>365</v>
       </c>
@@ -15450,7 +14710,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="369" ht="16.5" spans="1:10">
+    <row r="369" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A369" s="4">
         <v>366</v>
       </c>
@@ -15481,7 +14741,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="370" ht="16.5" spans="1:10">
+    <row r="370" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A370" s="4">
         <v>367</v>
       </c>
@@ -15512,7 +14772,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="371" ht="16.5" spans="1:10">
+    <row r="371" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A371" s="4">
         <v>368</v>
       </c>
@@ -15543,7 +14803,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="372" ht="16.5" spans="1:10">
+    <row r="372" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A372" s="4">
         <v>369</v>
       </c>
@@ -15574,7 +14834,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="373" ht="16.5" spans="1:10">
+    <row r="373" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A373" s="4">
         <v>370</v>
       </c>
@@ -15605,7 +14865,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="374" ht="16.5" spans="1:10">
+    <row r="374" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A374" s="4">
         <v>371</v>
       </c>
@@ -15636,7 +14896,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="375" ht="16.5" spans="1:10">
+    <row r="375" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A375" s="4">
         <v>372</v>
       </c>
@@ -15667,7 +14927,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="376" ht="16.5" spans="1:10">
+    <row r="376" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A376" s="4">
         <v>373</v>
       </c>
@@ -15698,7 +14958,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="377" ht="16.5" spans="1:10">
+    <row r="377" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A377" s="4">
         <v>374</v>
       </c>
@@ -15729,7 +14989,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="378" ht="16.5" spans="1:10">
+    <row r="378" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A378" s="4">
         <v>375</v>
       </c>
@@ -15760,7 +15020,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="379" ht="16.5" spans="1:10">
+    <row r="379" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A379" s="4">
         <v>376</v>
       </c>
@@ -15791,7 +15051,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="380" ht="16.5" spans="1:10">
+    <row r="380" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A380" s="4">
         <v>377</v>
       </c>
@@ -15822,7 +15082,7 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="381" ht="16.5" spans="1:10">
+    <row r="381" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A381" s="4">
         <v>378</v>
       </c>
@@ -15853,7 +15113,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="382" ht="16.5" spans="1:10">
+    <row r="382" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A382" s="4">
         <v>379</v>
       </c>
@@ -15884,7 +15144,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="383" ht="16.5" spans="1:10">
+    <row r="383" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A383" s="4">
         <v>380</v>
       </c>
@@ -15915,7 +15175,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="384" ht="16.5" spans="1:10">
+    <row r="384" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A384" s="4">
         <v>381</v>
       </c>
@@ -15946,7 +15206,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="385" ht="16.5" spans="1:10">
+    <row r="385" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A385" s="4">
         <v>382</v>
       </c>
@@ -15977,7 +15237,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="386" ht="16.5" spans="1:10">
+    <row r="386" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A386" s="4">
         <v>383</v>
       </c>
@@ -16008,7 +15268,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="387" ht="16.5" spans="1:10">
+    <row r="387" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A387" s="4">
         <v>384</v>
       </c>
@@ -16039,7 +15299,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="388" ht="16.5" spans="1:10">
+    <row r="388" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A388" s="4">
         <v>385</v>
       </c>
@@ -16070,7 +15330,7 @@
         <v>2125</v>
       </c>
     </row>
-    <row r="389" ht="16.5" spans="1:10">
+    <row r="389" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A389" s="4">
         <v>386</v>
       </c>
@@ -16101,7 +15361,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="390" ht="16.5" spans="1:10">
+    <row r="390" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A390" s="4">
         <v>387</v>
       </c>
@@ -16132,7 +15392,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="391" ht="16.5" spans="1:10">
+    <row r="391" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A391" s="4">
         <v>388</v>
       </c>
@@ -16163,7 +15423,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="392" ht="16.5" spans="1:10">
+    <row r="392" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A392" s="4">
         <v>389</v>
       </c>
@@ -16194,7 +15454,7 @@
         <v>2225</v>
       </c>
     </row>
-    <row r="393" ht="16.5" spans="1:10">
+    <row r="393" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A393" s="4">
         <v>390</v>
       </c>
@@ -16225,7 +15485,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="394" ht="16.5" spans="1:10">
+    <row r="394" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A394" s="4">
         <v>391</v>
       </c>
@@ -16256,7 +15516,7 @@
         <v>2275</v>
       </c>
     </row>
-    <row r="395" ht="16.5" spans="1:10">
+    <row r="395" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A395" s="4">
         <v>392</v>
       </c>
@@ -16287,7 +15547,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="396" ht="16.5" spans="1:10">
+    <row r="396" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A396" s="4">
         <v>393</v>
       </c>
@@ -16318,7 +15578,7 @@
         <v>2325</v>
       </c>
     </row>
-    <row r="397" ht="16.5" spans="1:10">
+    <row r="397" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A397" s="4">
         <v>394</v>
       </c>
@@ -16349,7 +15609,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="398" ht="16.5" spans="1:10">
+    <row r="398" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A398" s="4">
         <v>395</v>
       </c>
@@ -16380,7 +15640,7 @@
         <v>2375</v>
       </c>
     </row>
-    <row r="399" ht="16.5" spans="1:10">
+    <row r="399" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A399" s="4">
         <v>396</v>
       </c>
@@ -16411,7 +15671,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="400" ht="16.5" spans="1:10">
+    <row r="400" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A400" s="4">
         <v>397</v>
       </c>
@@ -16442,7 +15702,7 @@
         <v>2425</v>
       </c>
     </row>
-    <row r="401" ht="16.5" spans="1:10">
+    <row r="401" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A401" s="4">
         <v>398</v>
       </c>
@@ -16473,7 +15733,7 @@
         <v>2450</v>
       </c>
     </row>
-    <row r="402" ht="16.5" spans="1:10">
+    <row r="402" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A402" s="4">
         <v>399</v>
       </c>
@@ -16504,7 +15764,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="403" ht="16.5" spans="1:10">
+    <row r="403" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A403" s="4">
         <v>400</v>
       </c>
@@ -16536,22 +15796,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AS75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="9.75" customWidth="1"/>
     <col min="7" max="7" width="17.125" customWidth="1"/>
@@ -16593,7 +15852,7 @@
     <col min="45" max="45" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:45">
+    <row r="1" spans="1:45" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -16730,7 +15989,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:45">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -16867,7 +16126,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="1:45">
+    <row r="3" spans="1:45" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
@@ -17004,7 +16263,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:45">
+    <row r="4" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -17033,8 +16292,7 @@
         <v>185</v>
       </c>
       <c r="J4" s="4">
-        <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K4,[1]属性表!$B$4:$B$26,0))*O4+INDEX([1]属性表!$E$4:$E$26,MATCH(P4,[1]属性表!$B$4:$B$26,0))*S4+INDEX([1]属性表!$E$4:$E$26,MATCH(U4,[1]属性表!$B$4:$B$26,0))*Y4+IF(ISBLANK(Z4),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z4,[1]属性表!$B$4:$B$26,0))*AD4)+IF(ISBLANK(AE4),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE4,[1]属性表!$B$4:$B$26,0))*AI4)</f>
-        <v>48000</v>
+        <v>8000</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>186</v>
@@ -17079,7 +16337,7 @@
         <v>0</v>
       </c>
       <c r="Y4" s="4">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
@@ -17102,7 +16360,7 @@
       <c r="AR4" s="4"/>
       <c r="AS4" s="4"/>
     </row>
-    <row r="5" ht="16.5" spans="1:45">
+    <row r="5" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -17131,8 +16389,7 @@
         <v>185</v>
       </c>
       <c r="J5" s="4">
-        <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K5,[1]属性表!$B$4:$B$26,0))*O5+INDEX([1]属性表!$E$4:$E$26,MATCH(P5,[1]属性表!$B$4:$B$26,0))*S5+INDEX([1]属性表!$E$4:$E$26,MATCH(U5,[1]属性表!$B$4:$B$26,0))*Y5+IF(ISBLANK(Z5),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z5,[1]属性表!$B$4:$B$26,0))*AD5)+IF(ISBLANK(AE5),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE5,[1]属性表!$B$4:$B$26,0))*AI5)</f>
-        <v>60000</v>
+        <v>10000</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>186</v>
@@ -17177,7 +16434,7 @@
         <v>0</v>
       </c>
       <c r="Y5" s="4">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="Z5" s="4"/>
       <c r="AA5" s="4"/>
@@ -17200,7 +16457,7 @@
       <c r="AR5" s="4"/>
       <c r="AS5" s="4"/>
     </row>
-    <row r="6" ht="16.5" spans="1:45">
+    <row r="6" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -17229,8 +16486,7 @@
         <v>185</v>
       </c>
       <c r="J6" s="4">
-        <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K6,[1]属性表!$B$4:$B$26,0))*O6+INDEX([1]属性表!$E$4:$E$26,MATCH(P6,[1]属性表!$B$4:$B$26,0))*S6+INDEX([1]属性表!$E$4:$E$26,MATCH(U6,[1]属性表!$B$4:$B$26,0))*Y6+IF(ISBLANK(Z6),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z6,[1]属性表!$B$4:$B$26,0))*AD6)+IF(ISBLANK(AE6),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE6,[1]属性表!$B$4:$B$26,0))*AI6)</f>
-        <v>72000</v>
+        <v>12000</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>186</v>
@@ -17275,7 +16531,7 @@
         <v>0</v>
       </c>
       <c r="Y6" s="4">
-        <v>1200</v>
+        <v>750</v>
       </c>
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
@@ -17298,7 +16554,7 @@
       <c r="AR6" s="4"/>
       <c r="AS6" s="4"/>
     </row>
-    <row r="7" ht="16.5" spans="1:45">
+    <row r="7" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -17327,8 +16583,7 @@
         <v>185</v>
       </c>
       <c r="J7" s="4">
-        <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K7,[1]属性表!$B$4:$B$26,0))*O7+INDEX([1]属性表!$E$4:$E$26,MATCH(P7,[1]属性表!$B$4:$B$26,0))*S7+INDEX([1]属性表!$E$4:$E$26,MATCH(U7,[1]属性表!$B$4:$B$26,0))*Y7+IF(ISBLANK(Z7),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z7,[1]属性表!$B$4:$B$26,0))*AD7)+IF(ISBLANK(AE7),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE7,[1]属性表!$B$4:$B$26,0))*AI7)</f>
-        <v>84000</v>
+        <v>14000</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>186</v>
@@ -17373,7 +16628,7 @@
         <v>0</v>
       </c>
       <c r="Y7" s="4">
-        <v>1400</v>
+        <v>875</v>
       </c>
       <c r="Z7" s="4"/>
       <c r="AA7" s="4"/>
@@ -17396,7 +16651,7 @@
       <c r="AR7" s="4"/>
       <c r="AS7" s="4"/>
     </row>
-    <row r="8" ht="16.5" spans="1:45">
+    <row r="8" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -17425,8 +16680,7 @@
         <v>185</v>
       </c>
       <c r="J8" s="4">
-        <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K8,[1]属性表!$B$4:$B$26,0))*O8+INDEX([1]属性表!$E$4:$E$26,MATCH(P8,[1]属性表!$B$4:$B$26,0))*S8+INDEX([1]属性表!$E$4:$E$26,MATCH(U8,[1]属性表!$B$4:$B$26,0))*Y8+IF(ISBLANK(Z8),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z8,[1]属性表!$B$4:$B$26,0))*AD8)+IF(ISBLANK(AE8),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE8,[1]属性表!$B$4:$B$26,0))*AI8)</f>
-        <v>96000</v>
+        <v>16000</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>186</v>
@@ -17471,7 +16725,7 @@
         <v>0</v>
       </c>
       <c r="Y8" s="4">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="Z8" s="4"/>
       <c r="AA8" s="4"/>
@@ -17494,7 +16748,7 @@
       <c r="AR8" s="4"/>
       <c r="AS8" s="4"/>
     </row>
-    <row r="9" ht="16.5" spans="1:45">
+    <row r="9" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>6</v>
       </c>
@@ -17523,8 +16777,7 @@
         <v>195</v>
       </c>
       <c r="J9" s="4">
-        <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K9,[1]属性表!$B$4:$B$26,0))*O9+INDEX([1]属性表!$E$4:$E$26,MATCH(P9,[1]属性表!$B$4:$B$26,0))*S9+INDEX([1]属性表!$E$4:$E$26,MATCH(U9,[1]属性表!$B$4:$B$26,0))*Y9+IF(ISBLANK(Z9),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z9,[1]属性表!$B$4:$B$26,0))*AD9)+IF(ISBLANK(AE9),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE9,[1]属性表!$B$4:$B$26,0))*AI9)</f>
-        <v>32000</v>
+        <v>8000</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>186</v>
@@ -17569,7 +16822,7 @@
         <v>0</v>
       </c>
       <c r="Y9" s="4">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="Z9" s="4"/>
       <c r="AA9" s="4"/>
@@ -17592,7 +16845,7 @@
       <c r="AR9" s="4"/>
       <c r="AS9" s="4"/>
     </row>
-    <row r="10" ht="16.5" spans="1:45">
+    <row r="10" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>7</v>
       </c>
@@ -17621,8 +16874,7 @@
         <v>195</v>
       </c>
       <c r="J10" s="4">
-        <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K10,[1]属性表!$B$4:$B$26,0))*O10+INDEX([1]属性表!$E$4:$E$26,MATCH(P10,[1]属性表!$B$4:$B$26,0))*S10+INDEX([1]属性表!$E$4:$E$26,MATCH(U10,[1]属性表!$B$4:$B$26,0))*Y10+IF(ISBLANK(Z10),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z10,[1]属性表!$B$4:$B$26,0))*AD10)+IF(ISBLANK(AE10),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE10,[1]属性表!$B$4:$B$26,0))*AI10)</f>
-        <v>40000</v>
+        <v>10000</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>186</v>
@@ -17667,7 +16919,7 @@
         <v>0</v>
       </c>
       <c r="Y10" s="4">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="Z10" s="4"/>
       <c r="AA10" s="4"/>
@@ -17690,7 +16942,7 @@
       <c r="AR10" s="4"/>
       <c r="AS10" s="4"/>
     </row>
-    <row r="11" ht="16.5" spans="1:45">
+    <row r="11" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>8</v>
       </c>
@@ -17719,8 +16971,7 @@
         <v>195</v>
       </c>
       <c r="J11" s="4">
-        <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K11,[1]属性表!$B$4:$B$26,0))*O11+INDEX([1]属性表!$E$4:$E$26,MATCH(P11,[1]属性表!$B$4:$B$26,0))*S11+INDEX([1]属性表!$E$4:$E$26,MATCH(U11,[1]属性表!$B$4:$B$26,0))*Y11+IF(ISBLANK(Z11),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z11,[1]属性表!$B$4:$B$26,0))*AD11)+IF(ISBLANK(AE11),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE11,[1]属性表!$B$4:$B$26,0))*AI11)</f>
-        <v>48000</v>
+        <v>12000</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>186</v>
@@ -17765,7 +17016,7 @@
         <v>0</v>
       </c>
       <c r="Y11" s="4">
-        <v>36000</v>
+        <v>30000</v>
       </c>
       <c r="Z11" s="4"/>
       <c r="AA11" s="4"/>
@@ -17788,7 +17039,7 @@
       <c r="AR11" s="4"/>
       <c r="AS11" s="4"/>
     </row>
-    <row r="12" ht="16.5" spans="1:45">
+    <row r="12" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>9</v>
       </c>
@@ -17817,8 +17068,7 @@
         <v>195</v>
       </c>
       <c r="J12" s="4">
-        <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K12,[1]属性表!$B$4:$B$26,0))*O12+INDEX([1]属性表!$E$4:$E$26,MATCH(P12,[1]属性表!$B$4:$B$26,0))*S12+INDEX([1]属性表!$E$4:$E$26,MATCH(U12,[1]属性表!$B$4:$B$26,0))*Y12+IF(ISBLANK(Z12),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z12,[1]属性表!$B$4:$B$26,0))*AD12)+IF(ISBLANK(AE12),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE12,[1]属性表!$B$4:$B$26,0))*AI12)</f>
-        <v>56000</v>
+        <v>14000</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>186</v>
@@ -17863,7 +17113,7 @@
         <v>0</v>
       </c>
       <c r="Y12" s="4">
-        <v>42000</v>
+        <v>35000</v>
       </c>
       <c r="Z12" s="4"/>
       <c r="AA12" s="4"/>
@@ -17886,7 +17136,7 @@
       <c r="AR12" s="4"/>
       <c r="AS12" s="4"/>
     </row>
-    <row r="13" ht="16.5" spans="1:45">
+    <row r="13" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>10</v>
       </c>
@@ -17915,8 +17165,7 @@
         <v>195</v>
       </c>
       <c r="J13" s="4">
-        <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K13,[1]属性表!$B$4:$B$26,0))*O13+INDEX([1]属性表!$E$4:$E$26,MATCH(P13,[1]属性表!$B$4:$B$26,0))*S13+INDEX([1]属性表!$E$4:$E$26,MATCH(U13,[1]属性表!$B$4:$B$26,0))*Y13+IF(ISBLANK(Z13),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z13,[1]属性表!$B$4:$B$26,0))*AD13)+IF(ISBLANK(AE13),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE13,[1]属性表!$B$4:$B$26,0))*AI13)</f>
-        <v>64000</v>
+        <v>16000</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>186</v>
@@ -17961,7 +17210,7 @@
         <v>0</v>
       </c>
       <c r="Y13" s="4">
-        <v>48000</v>
+        <v>40000</v>
       </c>
       <c r="Z13" s="4"/>
       <c r="AA13" s="4"/>
@@ -17984,7 +17233,7 @@
       <c r="AR13" s="4"/>
       <c r="AS13" s="4"/>
     </row>
-    <row r="14" ht="16.5" spans="1:45">
+    <row r="14" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>11</v>
       </c>
@@ -18013,8 +17262,7 @@
         <v>204</v>
       </c>
       <c r="J14" s="4">
-        <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K14,[1]属性表!$B$4:$B$26,0))*O14+INDEX([1]属性表!$E$4:$E$26,MATCH(P14,[1]属性表!$B$4:$B$26,0))*S14+INDEX([1]属性表!$E$4:$E$26,MATCH(U14,[1]属性表!$B$4:$B$26,0))*Y14+IF(ISBLANK(Z14),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z14,[1]属性表!$B$4:$B$26,0))*AD14)+IF(ISBLANK(AE14),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE14,[1]属性表!$B$4:$B$26,0))*AI14)</f>
-        <v>48000</v>
+        <v>8000</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>186</v>
@@ -18074,7 +17322,7 @@
         <v>0</v>
       </c>
       <c r="AD14" s="4">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="AE14" s="4" t="s">
         <v>188</v>
@@ -18089,7 +17337,7 @@
         <v>0</v>
       </c>
       <c r="AI14" s="4">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="AJ14" s="4"/>
       <c r="AK14" s="4"/>
@@ -18102,7 +17350,7 @@
       <c r="AR14" s="4"/>
       <c r="AS14" s="4"/>
     </row>
-    <row r="15" ht="16.5" spans="1:45">
+    <row r="15" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>12</v>
       </c>
@@ -18131,8 +17379,7 @@
         <v>204</v>
       </c>
       <c r="J15" s="4">
-        <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K15,[1]属性表!$B$4:$B$26,0))*O15+INDEX([1]属性表!$E$4:$E$26,MATCH(P15,[1]属性表!$B$4:$B$26,0))*S15+INDEX([1]属性表!$E$4:$E$26,MATCH(U15,[1]属性表!$B$4:$B$26,0))*Y15+IF(ISBLANK(Z15),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z15,[1]属性表!$B$4:$B$26,0))*AD15)+IF(ISBLANK(AE15),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE15,[1]属性表!$B$4:$B$26,0))*AI15)</f>
-        <v>60000</v>
+        <v>10000</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>186</v>
@@ -18192,7 +17439,7 @@
         <v>0</v>
       </c>
       <c r="AD15" s="4">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="AE15" s="4" t="s">
         <v>188</v>
@@ -18207,7 +17454,7 @@
         <v>0</v>
       </c>
       <c r="AI15" s="4">
-        <v>500</v>
+        <v>312.5</v>
       </c>
       <c r="AJ15" s="4"/>
       <c r="AK15" s="4"/>
@@ -18220,7 +17467,7 @@
       <c r="AR15" s="4"/>
       <c r="AS15" s="4"/>
     </row>
-    <row r="16" ht="16.5" spans="1:45">
+    <row r="16" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>13</v>
       </c>
@@ -18249,8 +17496,7 @@
         <v>204</v>
       </c>
       <c r="J16" s="4">
-        <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K16,[1]属性表!$B$4:$B$26,0))*O16+INDEX([1]属性表!$E$4:$E$26,MATCH(P16,[1]属性表!$B$4:$B$26,0))*S16+INDEX([1]属性表!$E$4:$E$26,MATCH(U16,[1]属性表!$B$4:$B$26,0))*Y16+IF(ISBLANK(Z16),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z16,[1]属性表!$B$4:$B$26,0))*AD16)+IF(ISBLANK(AE16),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE16,[1]属性表!$B$4:$B$26,0))*AI16)</f>
-        <v>72000</v>
+        <v>12000</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>186</v>
@@ -18310,7 +17556,7 @@
         <v>0</v>
       </c>
       <c r="AD16" s="4">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="AE16" s="4" t="s">
         <v>188</v>
@@ -18325,7 +17571,7 @@
         <v>0</v>
       </c>
       <c r="AI16" s="4">
-        <v>600</v>
+        <v>375</v>
       </c>
       <c r="AJ16" s="4"/>
       <c r="AK16" s="4"/>
@@ -18338,7 +17584,7 @@
       <c r="AR16" s="4"/>
       <c r="AS16" s="4"/>
     </row>
-    <row r="17" ht="16.5" spans="1:45">
+    <row r="17" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>14</v>
       </c>
@@ -18367,8 +17613,7 @@
         <v>204</v>
       </c>
       <c r="J17" s="4">
-        <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K17,[1]属性表!$B$4:$B$26,0))*O17+INDEX([1]属性表!$E$4:$E$26,MATCH(P17,[1]属性表!$B$4:$B$26,0))*S17+INDEX([1]属性表!$E$4:$E$26,MATCH(U17,[1]属性表!$B$4:$B$26,0))*Y17+IF(ISBLANK(Z17),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z17,[1]属性表!$B$4:$B$26,0))*AD17)+IF(ISBLANK(AE17),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE17,[1]属性表!$B$4:$B$26,0))*AI17)</f>
-        <v>84000</v>
+        <v>14000</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>186</v>
@@ -18428,7 +17673,7 @@
         <v>0</v>
       </c>
       <c r="AD17" s="4">
-        <v>21000</v>
+        <v>17500</v>
       </c>
       <c r="AE17" s="4" t="s">
         <v>188</v>
@@ -18443,7 +17688,7 @@
         <v>0</v>
       </c>
       <c r="AI17" s="4">
-        <v>700</v>
+        <v>437.5</v>
       </c>
       <c r="AJ17" s="4"/>
       <c r="AK17" s="4"/>
@@ -18456,7 +17701,7 @@
       <c r="AR17" s="4"/>
       <c r="AS17" s="4"/>
     </row>
-    <row r="18" ht="16.5" spans="1:45">
+    <row r="18" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>15</v>
       </c>
@@ -18485,8 +17730,7 @@
         <v>204</v>
       </c>
       <c r="J18" s="4">
-        <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K18,[1]属性表!$B$4:$B$26,0))*O18+INDEX([1]属性表!$E$4:$E$26,MATCH(P18,[1]属性表!$B$4:$B$26,0))*S18+INDEX([1]属性表!$E$4:$E$26,MATCH(U18,[1]属性表!$B$4:$B$26,0))*Y18+IF(ISBLANK(Z18),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z18,[1]属性表!$B$4:$B$26,0))*AD18)+IF(ISBLANK(AE18),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE18,[1]属性表!$B$4:$B$26,0))*AI18)</f>
-        <v>96000</v>
+        <v>16000</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>186</v>
@@ -18546,7 +17790,7 @@
         <v>0</v>
       </c>
       <c r="AD18" s="4">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="AE18" s="4" t="s">
         <v>188</v>
@@ -18561,7 +17805,7 @@
         <v>0</v>
       </c>
       <c r="AI18" s="4">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="AJ18" s="4"/>
       <c r="AK18" s="4"/>
@@ -18574,7 +17818,7 @@
       <c r="AR18" s="4"/>
       <c r="AS18" s="4"/>
     </row>
-    <row r="19" ht="16.5" spans="1:45">
+    <row r="19" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>16</v>
       </c>
@@ -18603,8 +17847,7 @@
         <v>211</v>
       </c>
       <c r="J19" s="4">
-        <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K19,[1]属性表!$B$4:$B$26,0))*O19+INDEX([1]属性表!$E$4:$E$26,MATCH(P19,[1]属性表!$B$4:$B$26,0))*S19+INDEX([1]属性表!$E$4:$E$26,MATCH(U19,[1]属性表!$B$4:$B$26,0))*Y19+IF(ISBLANK(Z19),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z19,[1]属性表!$B$4:$B$26,0))*AD19)+IF(ISBLANK(AE19),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE19,[1]属性表!$B$4:$B$26,0))*AI19)</f>
-        <v>72000</v>
+        <v>12000</v>
       </c>
       <c r="K19" s="4" t="s">
         <v>186</v>
@@ -18664,7 +17907,7 @@
         <v>0</v>
       </c>
       <c r="AD19" s="4">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="AE19" s="4" t="s">
         <v>188</v>
@@ -18679,7 +17922,7 @@
         <v>0</v>
       </c>
       <c r="AI19" s="4">
-        <v>600</v>
+        <v>370</v>
       </c>
       <c r="AJ19" s="4"/>
       <c r="AK19" s="4"/>
@@ -18692,7 +17935,7 @@
       <c r="AR19" s="4"/>
       <c r="AS19" s="4"/>
     </row>
-    <row r="20" ht="16.5" spans="1:45">
+    <row r="20" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>17</v>
       </c>
@@ -18721,8 +17964,7 @@
         <v>211</v>
       </c>
       <c r="J20" s="4">
-        <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K20,[1]属性表!$B$4:$B$26,0))*O20+INDEX([1]属性表!$E$4:$E$26,MATCH(P20,[1]属性表!$B$4:$B$26,0))*S20+INDEX([1]属性表!$E$4:$E$26,MATCH(U20,[1]属性表!$B$4:$B$26,0))*Y20+IF(ISBLANK(Z20),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z20,[1]属性表!$B$4:$B$26,0))*AD20)+IF(ISBLANK(AE20),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE20,[1]属性表!$B$4:$B$26,0))*AI20)</f>
-        <v>90000</v>
+        <v>15000</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>186</v>
@@ -18782,7 +18024,7 @@
         <v>0</v>
       </c>
       <c r="AD20" s="4">
-        <v>22500</v>
+        <v>18750</v>
       </c>
       <c r="AE20" s="4" t="s">
         <v>188</v>
@@ -18797,7 +18039,7 @@
         <v>0</v>
       </c>
       <c r="AI20" s="4">
-        <v>750</v>
+        <v>462.5</v>
       </c>
       <c r="AJ20" s="4"/>
       <c r="AK20" s="4"/>
@@ -18810,7 +18052,7 @@
       <c r="AR20" s="4"/>
       <c r="AS20" s="4"/>
     </row>
-    <row r="21" ht="16.5" spans="1:45">
+    <row r="21" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>18</v>
       </c>
@@ -18839,8 +18081,7 @@
         <v>211</v>
       </c>
       <c r="J21" s="4">
-        <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K21,[1]属性表!$B$4:$B$26,0))*O21+INDEX([1]属性表!$E$4:$E$26,MATCH(P21,[1]属性表!$B$4:$B$26,0))*S21+INDEX([1]属性表!$E$4:$E$26,MATCH(U21,[1]属性表!$B$4:$B$26,0))*Y21+IF(ISBLANK(Z21),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z21,[1]属性表!$B$4:$B$26,0))*AD21)+IF(ISBLANK(AE21),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE21,[1]属性表!$B$4:$B$26,0))*AI21)</f>
-        <v>108000</v>
+        <v>18000</v>
       </c>
       <c r="K21" s="4" t="s">
         <v>186</v>
@@ -18900,7 +18141,7 @@
         <v>0</v>
       </c>
       <c r="AD21" s="4">
-        <v>27000</v>
+        <v>22500</v>
       </c>
       <c r="AE21" s="4" t="s">
         <v>188</v>
@@ -18915,7 +18156,7 @@
         <v>0</v>
       </c>
       <c r="AI21" s="4">
-        <v>900</v>
+        <v>555</v>
       </c>
       <c r="AJ21" s="4"/>
       <c r="AK21" s="4"/>
@@ -18928,7 +18169,7 @@
       <c r="AR21" s="4"/>
       <c r="AS21" s="4"/>
     </row>
-    <row r="22" ht="16.5" spans="1:45">
+    <row r="22" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>19</v>
       </c>
@@ -18957,8 +18198,7 @@
         <v>211</v>
       </c>
       <c r="J22" s="4">
-        <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K22,[1]属性表!$B$4:$B$26,0))*O22+INDEX([1]属性表!$E$4:$E$26,MATCH(P22,[1]属性表!$B$4:$B$26,0))*S22+INDEX([1]属性表!$E$4:$E$26,MATCH(U22,[1]属性表!$B$4:$B$26,0))*Y22+IF(ISBLANK(Z22),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z22,[1]属性表!$B$4:$B$26,0))*AD22)+IF(ISBLANK(AE22),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE22,[1]属性表!$B$4:$B$26,0))*AI22)</f>
-        <v>126000</v>
+        <v>21000</v>
       </c>
       <c r="K22" s="4" t="s">
         <v>186</v>
@@ -19018,7 +18258,7 @@
         <v>0</v>
       </c>
       <c r="AD22" s="4">
-        <v>31500</v>
+        <v>26250</v>
       </c>
       <c r="AE22" s="4" t="s">
         <v>188</v>
@@ -19033,7 +18273,7 @@
         <v>0</v>
       </c>
       <c r="AI22" s="4">
-        <v>1050</v>
+        <v>647.5</v>
       </c>
       <c r="AJ22" s="4"/>
       <c r="AK22" s="4"/>
@@ -19046,7 +18286,7 @@
       <c r="AR22" s="4"/>
       <c r="AS22" s="4"/>
     </row>
-    <row r="23" ht="16.5" spans="1:45">
+    <row r="23" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>20</v>
       </c>
@@ -19075,8 +18315,7 @@
         <v>211</v>
       </c>
       <c r="J23" s="4">
-        <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K23,[1]属性表!$B$4:$B$26,0))*O23+INDEX([1]属性表!$E$4:$E$26,MATCH(P23,[1]属性表!$B$4:$B$26,0))*S23+INDEX([1]属性表!$E$4:$E$26,MATCH(U23,[1]属性表!$B$4:$B$26,0))*Y23+IF(ISBLANK(Z23),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z23,[1]属性表!$B$4:$B$26,0))*AD23)+IF(ISBLANK(AE23),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE23,[1]属性表!$B$4:$B$26,0))*AI23)</f>
-        <v>144000</v>
+        <v>24000</v>
       </c>
       <c r="K23" s="4" t="s">
         <v>186</v>
@@ -19136,7 +18375,7 @@
         <v>0</v>
       </c>
       <c r="AD23" s="4">
-        <v>36000</v>
+        <v>30000</v>
       </c>
       <c r="AE23" s="4" t="s">
         <v>188</v>
@@ -19151,7 +18390,7 @@
         <v>0</v>
       </c>
       <c r="AI23" s="4">
-        <v>1200</v>
+        <v>740</v>
       </c>
       <c r="AJ23" s="4"/>
       <c r="AK23" s="4"/>
@@ -19164,7 +18403,7 @@
       <c r="AR23" s="4"/>
       <c r="AS23" s="4"/>
     </row>
-    <row r="24" ht="16.5" spans="1:45">
+    <row r="24" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>21</v>
       </c>
@@ -19193,8 +18432,7 @@
         <v>218</v>
       </c>
       <c r="J24" s="4">
-        <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K24,[1]属性表!$B$4:$B$26,0))*O24+INDEX([1]属性表!$E$4:$E$26,MATCH(P24,[1]属性表!$B$4:$B$26,0))*S24+INDEX([1]属性表!$E$4:$E$26,MATCH(U24,[1]属性表!$B$4:$B$26,0))*Y24+IF(ISBLANK(Z24),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z24,[1]属性表!$B$4:$B$26,0))*AD24)+IF(ISBLANK(AE24),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE24,[1]属性表!$B$4:$B$26,0))*AI24)</f>
-        <v>72000</v>
+        <v>12000</v>
       </c>
       <c r="K24" s="4" t="s">
         <v>186</v>
@@ -19239,7 +18477,7 @@
         <v>0</v>
       </c>
       <c r="Y24" s="4">
-        <v>1200</v>
+        <v>740</v>
       </c>
       <c r="Z24" s="4"/>
       <c r="AA24" s="4"/>
@@ -19262,7 +18500,7 @@
       <c r="AR24" s="4"/>
       <c r="AS24" s="4"/>
     </row>
-    <row r="25" ht="16.5" spans="1:45">
+    <row r="25" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>22</v>
       </c>
@@ -19291,8 +18529,7 @@
         <v>218</v>
       </c>
       <c r="J25" s="4">
-        <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K25,[1]属性表!$B$4:$B$26,0))*O25+INDEX([1]属性表!$E$4:$E$26,MATCH(P25,[1]属性表!$B$4:$B$26,0))*S25+INDEX([1]属性表!$E$4:$E$26,MATCH(U25,[1]属性表!$B$4:$B$26,0))*Y25+IF(ISBLANK(Z25),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z25,[1]属性表!$B$4:$B$26,0))*AD25)+IF(ISBLANK(AE25),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE25,[1]属性表!$B$4:$B$26,0))*AI25)</f>
-        <v>90000</v>
+        <v>15000</v>
       </c>
       <c r="K25" s="4" t="s">
         <v>186</v>
@@ -19337,7 +18574,7 @@
         <v>0</v>
       </c>
       <c r="Y25" s="4">
-        <v>1500</v>
+        <v>925</v>
       </c>
       <c r="Z25" s="4"/>
       <c r="AA25" s="4"/>
@@ -19360,7 +18597,7 @@
       <c r="AR25" s="4"/>
       <c r="AS25" s="4"/>
     </row>
-    <row r="26" ht="16.5" spans="1:45">
+    <row r="26" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>23</v>
       </c>
@@ -19389,8 +18626,7 @@
         <v>218</v>
       </c>
       <c r="J26" s="4">
-        <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K26,[1]属性表!$B$4:$B$26,0))*O26+INDEX([1]属性表!$E$4:$E$26,MATCH(P26,[1]属性表!$B$4:$B$26,0))*S26+INDEX([1]属性表!$E$4:$E$26,MATCH(U26,[1]属性表!$B$4:$B$26,0))*Y26+IF(ISBLANK(Z26),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z26,[1]属性表!$B$4:$B$26,0))*AD26)+IF(ISBLANK(AE26),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE26,[1]属性表!$B$4:$B$26,0))*AI26)</f>
-        <v>108000</v>
+        <v>18000</v>
       </c>
       <c r="K26" s="4" t="s">
         <v>186</v>
@@ -19435,7 +18671,7 @@
         <v>0</v>
       </c>
       <c r="Y26" s="4">
-        <v>1800</v>
+        <v>1110</v>
       </c>
       <c r="Z26" s="4"/>
       <c r="AA26" s="4"/>
@@ -19458,7 +18694,7 @@
       <c r="AR26" s="4"/>
       <c r="AS26" s="4"/>
     </row>
-    <row r="27" ht="16.5" spans="1:45">
+    <row r="27" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>24</v>
       </c>
@@ -19487,8 +18723,7 @@
         <v>218</v>
       </c>
       <c r="J27" s="4">
-        <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K27,[1]属性表!$B$4:$B$26,0))*O27+INDEX([1]属性表!$E$4:$E$26,MATCH(P27,[1]属性表!$B$4:$B$26,0))*S27+INDEX([1]属性表!$E$4:$E$26,MATCH(U27,[1]属性表!$B$4:$B$26,0))*Y27+IF(ISBLANK(Z27),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z27,[1]属性表!$B$4:$B$26,0))*AD27)+IF(ISBLANK(AE27),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE27,[1]属性表!$B$4:$B$26,0))*AI27)</f>
-        <v>126000</v>
+        <v>21000</v>
       </c>
       <c r="K27" s="4" t="s">
         <v>186</v>
@@ -19533,7 +18768,7 @@
         <v>0</v>
       </c>
       <c r="Y27" s="4">
-        <v>2100</v>
+        <v>1295</v>
       </c>
       <c r="Z27" s="4"/>
       <c r="AA27" s="4"/>
@@ -19556,7 +18791,7 @@
       <c r="AR27" s="4"/>
       <c r="AS27" s="4"/>
     </row>
-    <row r="28" ht="16.5" spans="1:45">
+    <row r="28" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>25</v>
       </c>
@@ -19585,8 +18820,7 @@
         <v>218</v>
       </c>
       <c r="J28" s="4">
-        <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K28,[1]属性表!$B$4:$B$26,0))*O28+INDEX([1]属性表!$E$4:$E$26,MATCH(P28,[1]属性表!$B$4:$B$26,0))*S28+INDEX([1]属性表!$E$4:$E$26,MATCH(U28,[1]属性表!$B$4:$B$26,0))*Y28+IF(ISBLANK(Z28),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z28,[1]属性表!$B$4:$B$26,0))*AD28)+IF(ISBLANK(AE28),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE28,[1]属性表!$B$4:$B$26,0))*AI28)</f>
-        <v>144000</v>
+        <v>24000</v>
       </c>
       <c r="K28" s="4" t="s">
         <v>186</v>
@@ -19631,7 +18865,7 @@
         <v>0</v>
       </c>
       <c r="Y28" s="4">
-        <v>2400</v>
+        <v>1480</v>
       </c>
       <c r="Z28" s="4"/>
       <c r="AA28" s="4"/>
@@ -19654,7 +18888,7 @@
       <c r="AR28" s="4"/>
       <c r="AS28" s="4"/>
     </row>
-    <row r="29" ht="16.5" spans="1:45">
+    <row r="29" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>26</v>
       </c>
@@ -19683,8 +18917,7 @@
         <v>225</v>
       </c>
       <c r="J29" s="4">
-        <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K29,[1]属性表!$B$4:$B$26,0))*O29+INDEX([1]属性表!$E$4:$E$26,MATCH(P29,[1]属性表!$B$4:$B$26,0))*S29+INDEX([1]属性表!$E$4:$E$26,MATCH(U29,[1]属性表!$B$4:$B$26,0))*Y29+IF(ISBLANK(Z29),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z29,[1]属性表!$B$4:$B$26,0))*AD29)+IF(ISBLANK(AE29),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE29,[1]属性表!$B$4:$B$26,0))*AI29)</f>
-        <v>48000</v>
+        <v>12000</v>
       </c>
       <c r="K29" s="4" t="s">
         <v>186</v>
@@ -19729,7 +18962,7 @@
         <v>0</v>
       </c>
       <c r="Y29" s="4">
-        <v>36000</v>
+        <v>30000</v>
       </c>
       <c r="Z29" s="4"/>
       <c r="AA29" s="4"/>
@@ -19752,7 +18985,7 @@
       <c r="AR29" s="4"/>
       <c r="AS29" s="4"/>
     </row>
-    <row r="30" ht="16.5" spans="1:45">
+    <row r="30" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>27</v>
       </c>
@@ -19781,8 +19014,7 @@
         <v>225</v>
       </c>
       <c r="J30" s="4">
-        <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K30,[1]属性表!$B$4:$B$26,0))*O30+INDEX([1]属性表!$E$4:$E$26,MATCH(P30,[1]属性表!$B$4:$B$26,0))*S30+INDEX([1]属性表!$E$4:$E$26,MATCH(U30,[1]属性表!$B$4:$B$26,0))*Y30+IF(ISBLANK(Z30),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z30,[1]属性表!$B$4:$B$26,0))*AD30)+IF(ISBLANK(AE30),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE30,[1]属性表!$B$4:$B$26,0))*AI30)</f>
-        <v>60000</v>
+        <v>15000</v>
       </c>
       <c r="K30" s="4" t="s">
         <v>186</v>
@@ -19827,7 +19059,7 @@
         <v>0</v>
       </c>
       <c r="Y30" s="4">
-        <v>45000</v>
+        <v>37500</v>
       </c>
       <c r="Z30" s="4"/>
       <c r="AA30" s="4"/>
@@ -19850,7 +19082,7 @@
       <c r="AR30" s="4"/>
       <c r="AS30" s="4"/>
     </row>
-    <row r="31" ht="16.5" spans="1:45">
+    <row r="31" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>28</v>
       </c>
@@ -19879,8 +19111,7 @@
         <v>225</v>
       </c>
       <c r="J31" s="4">
-        <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K31,[1]属性表!$B$4:$B$26,0))*O31+INDEX([1]属性表!$E$4:$E$26,MATCH(P31,[1]属性表!$B$4:$B$26,0))*S31+INDEX([1]属性表!$E$4:$E$26,MATCH(U31,[1]属性表!$B$4:$B$26,0))*Y31+IF(ISBLANK(Z31),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z31,[1]属性表!$B$4:$B$26,0))*AD31)+IF(ISBLANK(AE31),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE31,[1]属性表!$B$4:$B$26,0))*AI31)</f>
-        <v>72000</v>
+        <v>18000</v>
       </c>
       <c r="K31" s="4" t="s">
         <v>186</v>
@@ -19925,7 +19156,7 @@
         <v>0</v>
       </c>
       <c r="Y31" s="4">
-        <v>54000</v>
+        <v>45000</v>
       </c>
       <c r="Z31" s="4"/>
       <c r="AA31" s="4"/>
@@ -19948,7 +19179,7 @@
       <c r="AR31" s="4"/>
       <c r="AS31" s="4"/>
     </row>
-    <row r="32" ht="16.5" spans="1:45">
+    <row r="32" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>29</v>
       </c>
@@ -19977,8 +19208,7 @@
         <v>225</v>
       </c>
       <c r="J32" s="4">
-        <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K32,[1]属性表!$B$4:$B$26,0))*O32+INDEX([1]属性表!$E$4:$E$26,MATCH(P32,[1]属性表!$B$4:$B$26,0))*S32+INDEX([1]属性表!$E$4:$E$26,MATCH(U32,[1]属性表!$B$4:$B$26,0))*Y32+IF(ISBLANK(Z32),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z32,[1]属性表!$B$4:$B$26,0))*AD32)+IF(ISBLANK(AE32),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE32,[1]属性表!$B$4:$B$26,0))*AI32)</f>
-        <v>84000</v>
+        <v>21000</v>
       </c>
       <c r="K32" s="4" t="s">
         <v>186</v>
@@ -20023,7 +19253,7 @@
         <v>0</v>
       </c>
       <c r="Y32" s="4">
-        <v>63000</v>
+        <v>52500</v>
       </c>
       <c r="Z32" s="4"/>
       <c r="AA32" s="4"/>
@@ -20046,7 +19276,7 @@
       <c r="AR32" s="4"/>
       <c r="AS32" s="4"/>
     </row>
-    <row r="33" ht="16.5" spans="1:45">
+    <row r="33" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>30</v>
       </c>
@@ -20075,8 +19305,7 @@
         <v>225</v>
       </c>
       <c r="J33" s="4">
-        <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K33,[1]属性表!$B$4:$B$26,0))*O33+INDEX([1]属性表!$E$4:$E$26,MATCH(P33,[1]属性表!$B$4:$B$26,0))*S33+INDEX([1]属性表!$E$4:$E$26,MATCH(U33,[1]属性表!$B$4:$B$26,0))*Y33+IF(ISBLANK(Z33),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z33,[1]属性表!$B$4:$B$26,0))*AD33)+IF(ISBLANK(AE33),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE33,[1]属性表!$B$4:$B$26,0))*AI33)</f>
-        <v>96000</v>
+        <v>24000</v>
       </c>
       <c r="K33" s="4" t="s">
         <v>186</v>
@@ -20121,7 +19350,7 @@
         <v>0</v>
       </c>
       <c r="Y33" s="4">
-        <v>72000</v>
+        <v>60000</v>
       </c>
       <c r="Z33" s="4"/>
       <c r="AA33" s="4"/>
@@ -20144,7 +19373,7 @@
       <c r="AR33" s="4"/>
       <c r="AS33" s="4"/>
     </row>
-    <row r="34" ht="16.5" spans="1:45">
+    <row r="34" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>31</v>
       </c>
@@ -20173,8 +19402,7 @@
         <v>232</v>
       </c>
       <c r="J34" s="4">
-        <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K34,[1]属性表!$B$4:$B$26,0))*O34+INDEX([1]属性表!$E$4:$E$26,MATCH(P34,[1]属性表!$B$4:$B$26,0))*S34+INDEX([1]属性表!$E$4:$E$26,MATCH(U34,[1]属性表!$B$4:$B$26,0))*Y34+IF(ISBLANK(Z34),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z34,[1]属性表!$B$4:$B$26,0))*AD34)+IF(ISBLANK(AE34),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE34,[1]属性表!$B$4:$B$26,0))*AI34)</f>
-        <v>132000</v>
+        <v>22000</v>
       </c>
       <c r="K34" s="4" t="s">
         <v>186</v>
@@ -20219,7 +19447,7 @@
         <v>0</v>
       </c>
       <c r="Y34" s="4">
-        <v>2200</v>
+        <v>1400</v>
       </c>
       <c r="Z34" s="4"/>
       <c r="AA34" s="4"/>
@@ -20242,7 +19470,7 @@
       <c r="AR34" s="4"/>
       <c r="AS34" s="4"/>
     </row>
-    <row r="35" ht="16.5" spans="1:45">
+    <row r="35" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>32</v>
       </c>
@@ -20271,8 +19499,7 @@
         <v>232</v>
       </c>
       <c r="J35" s="4">
-        <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K35,[1]属性表!$B$4:$B$26,0))*O35+INDEX([1]属性表!$E$4:$E$26,MATCH(P35,[1]属性表!$B$4:$B$26,0))*S35+INDEX([1]属性表!$E$4:$E$26,MATCH(U35,[1]属性表!$B$4:$B$26,0))*Y35+IF(ISBLANK(Z35),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z35,[1]属性表!$B$4:$B$26,0))*AD35)+IF(ISBLANK(AE35),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE35,[1]属性表!$B$4:$B$26,0))*AI35)</f>
-        <v>178200</v>
+        <v>29700</v>
       </c>
       <c r="K35" s="4" t="s">
         <v>186</v>
@@ -20317,7 +19544,7 @@
         <v>0</v>
       </c>
       <c r="Y35" s="4">
-        <v>2970</v>
+        <v>1890.0000000000002</v>
       </c>
       <c r="Z35" s="4"/>
       <c r="AA35" s="4"/>
@@ -20340,7 +19567,7 @@
       <c r="AR35" s="4"/>
       <c r="AS35" s="4"/>
     </row>
-    <row r="36" ht="16.5" spans="1:45">
+    <row r="36" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>33</v>
       </c>
@@ -20369,8 +19596,7 @@
         <v>232</v>
       </c>
       <c r="J36" s="4">
-        <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K36,[1]属性表!$B$4:$B$26,0))*O36+INDEX([1]属性表!$E$4:$E$26,MATCH(P36,[1]属性表!$B$4:$B$26,0))*S36+INDEX([1]属性表!$E$4:$E$26,MATCH(U36,[1]属性表!$B$4:$B$26,0))*Y36+IF(ISBLANK(Z36),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z36,[1]属性表!$B$4:$B$26,0))*AD36)+IF(ISBLANK(AE36),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE36,[1]属性表!$B$4:$B$26,0))*AI36)</f>
-        <v>224400</v>
+        <v>37400</v>
       </c>
       <c r="K36" s="4" t="s">
         <v>186</v>
@@ -20415,7 +19641,7 @@
         <v>0</v>
       </c>
       <c r="Y36" s="4">
-        <v>3740</v>
+        <v>2380</v>
       </c>
       <c r="Z36" s="4"/>
       <c r="AA36" s="4"/>
@@ -20438,7 +19664,7 @@
       <c r="AR36" s="4"/>
       <c r="AS36" s="4"/>
     </row>
-    <row r="37" ht="16.5" spans="1:45">
+    <row r="37" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>34</v>
       </c>
@@ -20467,8 +19693,7 @@
         <v>232</v>
       </c>
       <c r="J37" s="4">
-        <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K37,[1]属性表!$B$4:$B$26,0))*O37+INDEX([1]属性表!$E$4:$E$26,MATCH(P37,[1]属性表!$B$4:$B$26,0))*S37+INDEX([1]属性表!$E$4:$E$26,MATCH(U37,[1]属性表!$B$4:$B$26,0))*Y37+IF(ISBLANK(Z37),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z37,[1]属性表!$B$4:$B$26,0))*AD37)+IF(ISBLANK(AE37),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE37,[1]属性表!$B$4:$B$26,0))*AI37)</f>
-        <v>270600</v>
+        <v>45100</v>
       </c>
       <c r="K37" s="4" t="s">
         <v>186</v>
@@ -20513,7 +19738,7 @@
         <v>0</v>
       </c>
       <c r="Y37" s="4">
-        <v>4510</v>
+        <v>2869.9999999999995</v>
       </c>
       <c r="Z37" s="4"/>
       <c r="AA37" s="4"/>
@@ -20536,7 +19761,7 @@
       <c r="AR37" s="4"/>
       <c r="AS37" s="4"/>
     </row>
-    <row r="38" ht="16.5" spans="1:45">
+    <row r="38" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>35</v>
       </c>
@@ -20565,8 +19790,7 @@
         <v>232</v>
       </c>
       <c r="J38" s="4">
-        <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K38,[1]属性表!$B$4:$B$26,0))*O38+INDEX([1]属性表!$E$4:$E$26,MATCH(P38,[1]属性表!$B$4:$B$26,0))*S38+INDEX([1]属性表!$E$4:$E$26,MATCH(U38,[1]属性表!$B$4:$B$26,0))*Y38+IF(ISBLANK(Z38),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z38,[1]属性表!$B$4:$B$26,0))*AD38)+IF(ISBLANK(AE38),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE38,[1]属性表!$B$4:$B$26,0))*AI38)</f>
-        <v>330000</v>
+        <v>55000</v>
       </c>
       <c r="K38" s="4" t="s">
         <v>186</v>
@@ -20611,7 +19835,7 @@
         <v>0</v>
       </c>
       <c r="Y38" s="4">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="Z38" s="4"/>
       <c r="AA38" s="4"/>
@@ -20634,7 +19858,7 @@
       <c r="AR38" s="4"/>
       <c r="AS38" s="4"/>
     </row>
-    <row r="39" ht="16.5" spans="1:45">
+    <row r="39" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>36</v>
       </c>
@@ -20663,8 +19887,7 @@
         <v>239</v>
       </c>
       <c r="J39" s="4">
-        <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K39,[1]属性表!$B$4:$B$26,0))*O39+INDEX([1]属性表!$E$4:$E$26,MATCH(P39,[1]属性表!$B$4:$B$26,0))*S39+INDEX([1]属性表!$E$4:$E$26,MATCH(U39,[1]属性表!$B$4:$B$26,0))*Y39+IF(ISBLANK(Z39),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z39,[1]属性表!$B$4:$B$26,0))*AD39)+IF(ISBLANK(AE39),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE39,[1]属性表!$B$4:$B$26,0))*AI39)</f>
-        <v>88000</v>
+        <v>22000</v>
       </c>
       <c r="K39" s="4" t="s">
         <v>186</v>
@@ -20709,7 +19932,7 @@
         <v>0</v>
       </c>
       <c r="Y39" s="4">
-        <v>66000</v>
+        <v>56000</v>
       </c>
       <c r="Z39" s="4"/>
       <c r="AA39" s="4"/>
@@ -20732,7 +19955,7 @@
       <c r="AR39" s="4"/>
       <c r="AS39" s="4"/>
     </row>
-    <row r="40" ht="16.5" spans="1:45">
+    <row r="40" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>37</v>
       </c>
@@ -20761,8 +19984,7 @@
         <v>239</v>
       </c>
       <c r="J40" s="4">
-        <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K40,[1]属性表!$B$4:$B$26,0))*O40+INDEX([1]属性表!$E$4:$E$26,MATCH(P40,[1]属性表!$B$4:$B$26,0))*S40+INDEX([1]属性表!$E$4:$E$26,MATCH(U40,[1]属性表!$B$4:$B$26,0))*Y40+IF(ISBLANK(Z40),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z40,[1]属性表!$B$4:$B$26,0))*AD40)+IF(ISBLANK(AE40),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE40,[1]属性表!$B$4:$B$26,0))*AI40)</f>
-        <v>118800</v>
+        <v>29700</v>
       </c>
       <c r="K40" s="4" t="s">
         <v>186</v>
@@ -20807,7 +20029,7 @@
         <v>0</v>
       </c>
       <c r="Y40" s="4">
-        <v>89100</v>
+        <v>75600</v>
       </c>
       <c r="Z40" s="4"/>
       <c r="AA40" s="4"/>
@@ -20830,7 +20052,7 @@
       <c r="AR40" s="4"/>
       <c r="AS40" s="4"/>
     </row>
-    <row r="41" ht="16.5" spans="1:45">
+    <row r="41" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>38</v>
       </c>
@@ -20859,8 +20081,7 @@
         <v>239</v>
       </c>
       <c r="J41" s="4">
-        <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K41,[1]属性表!$B$4:$B$26,0))*O41+INDEX([1]属性表!$E$4:$E$26,MATCH(P41,[1]属性表!$B$4:$B$26,0))*S41+INDEX([1]属性表!$E$4:$E$26,MATCH(U41,[1]属性表!$B$4:$B$26,0))*Y41+IF(ISBLANK(Z41),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z41,[1]属性表!$B$4:$B$26,0))*AD41)+IF(ISBLANK(AE41),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE41,[1]属性表!$B$4:$B$26,0))*AI41)</f>
-        <v>149600</v>
+        <v>37400</v>
       </c>
       <c r="K41" s="4" t="s">
         <v>186</v>
@@ -20905,7 +20126,7 @@
         <v>0</v>
       </c>
       <c r="Y41" s="4">
-        <v>112200</v>
+        <v>95200</v>
       </c>
       <c r="Z41" s="4"/>
       <c r="AA41" s="4"/>
@@ -20928,7 +20149,7 @@
       <c r="AR41" s="4"/>
       <c r="AS41" s="4"/>
     </row>
-    <row r="42" ht="16.5" spans="1:45">
+    <row r="42" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>39</v>
       </c>
@@ -20957,8 +20178,7 @@
         <v>239</v>
       </c>
       <c r="J42" s="4">
-        <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K42,[1]属性表!$B$4:$B$26,0))*O42+INDEX([1]属性表!$E$4:$E$26,MATCH(P42,[1]属性表!$B$4:$B$26,0))*S42+INDEX([1]属性表!$E$4:$E$26,MATCH(U42,[1]属性表!$B$4:$B$26,0))*Y42+IF(ISBLANK(Z42),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z42,[1]属性表!$B$4:$B$26,0))*AD42)+IF(ISBLANK(AE42),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE42,[1]属性表!$B$4:$B$26,0))*AI42)</f>
-        <v>180400</v>
+        <v>45100</v>
       </c>
       <c r="K42" s="4" t="s">
         <v>186</v>
@@ -21003,7 +20223,7 @@
         <v>0</v>
       </c>
       <c r="Y42" s="4">
-        <v>135300</v>
+        <v>114799.99999999999</v>
       </c>
       <c r="Z42" s="4"/>
       <c r="AA42" s="4"/>
@@ -21026,7 +20246,7 @@
       <c r="AR42" s="4"/>
       <c r="AS42" s="4"/>
     </row>
-    <row r="43" ht="16.5" spans="1:45">
+    <row r="43" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>40</v>
       </c>
@@ -21055,8 +20275,7 @@
         <v>239</v>
       </c>
       <c r="J43" s="4">
-        <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K43,[1]属性表!$B$4:$B$26,0))*O43+INDEX([1]属性表!$E$4:$E$26,MATCH(P43,[1]属性表!$B$4:$B$26,0))*S43+INDEX([1]属性表!$E$4:$E$26,MATCH(U43,[1]属性表!$B$4:$B$26,0))*Y43+IF(ISBLANK(Z43),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z43,[1]属性表!$B$4:$B$26,0))*AD43)+IF(ISBLANK(AE43),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE43,[1]属性表!$B$4:$B$26,0))*AI43)</f>
-        <v>220000</v>
+        <v>55000</v>
       </c>
       <c r="K43" s="4" t="s">
         <v>186</v>
@@ -21101,7 +20320,7 @@
         <v>0</v>
       </c>
       <c r="Y43" s="4">
-        <v>165000</v>
+        <v>140000</v>
       </c>
       <c r="Z43" s="4"/>
       <c r="AA43" s="4"/>
@@ -21124,7 +20343,7 @@
       <c r="AR43" s="4"/>
       <c r="AS43" s="4"/>
     </row>
-    <row r="44" ht="16.5" spans="1:45">
+    <row r="44" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>41</v>
       </c>
@@ -21153,8 +20372,7 @@
         <v>246</v>
       </c>
       <c r="J44" s="4">
-        <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K44,[1]属性表!$B$4:$B$26,0))*O44+INDEX([1]属性表!$E$4:$E$26,MATCH(P44,[1]属性表!$B$4:$B$26,0))*S44+INDEX([1]属性表!$E$4:$E$26,MATCH(U44,[1]属性表!$B$4:$B$26,0))*Y44+IF(ISBLANK(Z44),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z44,[1]属性表!$B$4:$B$26,0))*AD44)+IF(ISBLANK(AE44),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE44,[1]属性表!$B$4:$B$26,0))*AI44)</f>
-        <v>132000</v>
+        <v>22000</v>
       </c>
       <c r="K44" s="4" t="s">
         <v>186</v>
@@ -21214,7 +20432,7 @@
         <v>0</v>
       </c>
       <c r="AD44" s="4">
-        <v>33000</v>
+        <v>28000</v>
       </c>
       <c r="AE44" s="4" t="s">
         <v>188</v>
@@ -21229,7 +20447,7 @@
         <v>0</v>
       </c>
       <c r="AI44" s="4">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="AJ44" s="4"/>
       <c r="AK44" s="4"/>
@@ -21242,7 +20460,7 @@
       <c r="AR44" s="4"/>
       <c r="AS44" s="4"/>
     </row>
-    <row r="45" ht="16.5" spans="1:45">
+    <row r="45" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>42</v>
       </c>
@@ -21271,8 +20489,7 @@
         <v>246</v>
       </c>
       <c r="J45" s="4">
-        <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K45,[1]属性表!$B$4:$B$26,0))*O45+INDEX([1]属性表!$E$4:$E$26,MATCH(P45,[1]属性表!$B$4:$B$26,0))*S45+INDEX([1]属性表!$E$4:$E$26,MATCH(U45,[1]属性表!$B$4:$B$26,0))*Y45+IF(ISBLANK(Z45),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z45,[1]属性表!$B$4:$B$26,0))*AD45)+IF(ISBLANK(AE45),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE45,[1]属性表!$B$4:$B$26,0))*AI45)</f>
-        <v>178200</v>
+        <v>29700</v>
       </c>
       <c r="K45" s="4" t="s">
         <v>186</v>
@@ -21332,7 +20549,7 @@
         <v>0</v>
       </c>
       <c r="AD45" s="4">
-        <v>44550</v>
+        <v>37800</v>
       </c>
       <c r="AE45" s="4" t="s">
         <v>188</v>
@@ -21347,7 +20564,7 @@
         <v>0</v>
       </c>
       <c r="AI45" s="4">
-        <v>1485</v>
+        <v>945</v>
       </c>
       <c r="AJ45" s="4"/>
       <c r="AK45" s="4"/>
@@ -21360,7 +20577,7 @@
       <c r="AR45" s="4"/>
       <c r="AS45" s="4"/>
     </row>
-    <row r="46" ht="16.5" spans="1:45">
+    <row r="46" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>43</v>
       </c>
@@ -21389,8 +20606,7 @@
         <v>246</v>
       </c>
       <c r="J46" s="4">
-        <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K46,[1]属性表!$B$4:$B$26,0))*O46+INDEX([1]属性表!$E$4:$E$26,MATCH(P46,[1]属性表!$B$4:$B$26,0))*S46+INDEX([1]属性表!$E$4:$E$26,MATCH(U46,[1]属性表!$B$4:$B$26,0))*Y46+IF(ISBLANK(Z46),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z46,[1]属性表!$B$4:$B$26,0))*AD46)+IF(ISBLANK(AE46),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE46,[1]属性表!$B$4:$B$26,0))*AI46)</f>
-        <v>224400</v>
+        <v>37400</v>
       </c>
       <c r="K46" s="4" t="s">
         <v>186</v>
@@ -21450,7 +20666,7 @@
         <v>0</v>
       </c>
       <c r="AD46" s="4">
-        <v>56100</v>
+        <v>47600</v>
       </c>
       <c r="AE46" s="4" t="s">
         <v>188</v>
@@ -21465,7 +20681,7 @@
         <v>0</v>
       </c>
       <c r="AI46" s="4">
-        <v>1870</v>
+        <v>1190</v>
       </c>
       <c r="AJ46" s="4"/>
       <c r="AK46" s="4"/>
@@ -21478,7 +20694,7 @@
       <c r="AR46" s="4"/>
       <c r="AS46" s="4"/>
     </row>
-    <row r="47" ht="16.5" spans="1:45">
+    <row r="47" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>44</v>
       </c>
@@ -21507,8 +20723,7 @@
         <v>246</v>
       </c>
       <c r="J47" s="4">
-        <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K47,[1]属性表!$B$4:$B$26,0))*O47+INDEX([1]属性表!$E$4:$E$26,MATCH(P47,[1]属性表!$B$4:$B$26,0))*S47+INDEX([1]属性表!$E$4:$E$26,MATCH(U47,[1]属性表!$B$4:$B$26,0))*Y47+IF(ISBLANK(Z47),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z47,[1]属性表!$B$4:$B$26,0))*AD47)+IF(ISBLANK(AE47),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE47,[1]属性表!$B$4:$B$26,0))*AI47)</f>
-        <v>270600</v>
+        <v>45100</v>
       </c>
       <c r="K47" s="4" t="s">
         <v>186</v>
@@ -21568,7 +20783,7 @@
         <v>0</v>
       </c>
       <c r="AD47" s="4">
-        <v>67650</v>
+        <v>57399.999999999993</v>
       </c>
       <c r="AE47" s="4" t="s">
         <v>188</v>
@@ -21583,7 +20798,7 @@
         <v>0</v>
       </c>
       <c r="AI47" s="4">
-        <v>2255</v>
+        <v>1435</v>
       </c>
       <c r="AJ47" s="4"/>
       <c r="AK47" s="4"/>
@@ -21596,7 +20811,7 @@
       <c r="AR47" s="4"/>
       <c r="AS47" s="4"/>
     </row>
-    <row r="48" ht="16.5" spans="1:45">
+    <row r="48" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>45</v>
       </c>
@@ -21625,8 +20840,7 @@
         <v>246</v>
       </c>
       <c r="J48" s="4">
-        <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K48,[1]属性表!$B$4:$B$26,0))*O48+INDEX([1]属性表!$E$4:$E$26,MATCH(P48,[1]属性表!$B$4:$B$26,0))*S48+INDEX([1]属性表!$E$4:$E$26,MATCH(U48,[1]属性表!$B$4:$B$26,0))*Y48+IF(ISBLANK(Z48),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z48,[1]属性表!$B$4:$B$26,0))*AD48)+IF(ISBLANK(AE48),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE48,[1]属性表!$B$4:$B$26,0))*AI48)</f>
-        <v>330000</v>
+        <v>55000</v>
       </c>
       <c r="K48" s="4" t="s">
         <v>186</v>
@@ -21686,7 +20900,7 @@
         <v>0</v>
       </c>
       <c r="AD48" s="4">
-        <v>82500</v>
+        <v>70000</v>
       </c>
       <c r="AE48" s="4" t="s">
         <v>188</v>
@@ -21701,7 +20915,7 @@
         <v>0</v>
       </c>
       <c r="AI48" s="4">
-        <v>2750</v>
+        <v>1750</v>
       </c>
       <c r="AJ48" s="4"/>
       <c r="AK48" s="4"/>
@@ -21714,7 +20928,7 @@
       <c r="AR48" s="4"/>
       <c r="AS48" s="4"/>
     </row>
-    <row r="49" ht="16.5" spans="1:45">
+    <row r="49" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>46</v>
       </c>
@@ -21743,8 +20957,7 @@
         <v>253</v>
       </c>
       <c r="J49" s="4">
-        <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K49,[1]属性表!$B$4:$B$26,0))*O49+INDEX([1]属性表!$E$4:$E$26,MATCH(P49,[1]属性表!$B$4:$B$26,0))*S49+INDEX([1]属性表!$E$4:$E$26,MATCH(U49,[1]属性表!$B$4:$B$26,0))*Y49+IF(ISBLANK(Z49),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z49,[1]属性表!$B$4:$B$26,0))*AD49)+IF(ISBLANK(AE49),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE49,[1]属性表!$B$4:$B$26,0))*AI49)</f>
-        <v>201500</v>
+        <v>32000</v>
       </c>
       <c r="K49" s="4" t="s">
         <v>186</v>
@@ -21804,7 +21017,7 @@
         <v>0</v>
       </c>
       <c r="AD49" s="4">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="AE49" s="4" t="s">
         <v>188</v>
@@ -21819,7 +21032,7 @@
         <v>0</v>
       </c>
       <c r="AI49" s="4">
-        <v>1750</v>
+        <v>1000</v>
       </c>
       <c r="AJ49" s="4"/>
       <c r="AK49" s="4"/>
@@ -21832,7 +21045,7 @@
       <c r="AR49" s="4"/>
       <c r="AS49" s="4"/>
     </row>
-    <row r="50" ht="16.5" spans="1:45">
+    <row r="50" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>47</v>
       </c>
@@ -21861,8 +21074,7 @@
         <v>253</v>
       </c>
       <c r="J50" s="4">
-        <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K50,[1]属性表!$B$4:$B$26,0))*O50+INDEX([1]属性表!$E$4:$E$26,MATCH(P50,[1]属性表!$B$4:$B$26,0))*S50+INDEX([1]属性表!$E$4:$E$26,MATCH(U50,[1]属性表!$B$4:$B$26,0))*Y50+IF(ISBLANK(Z50),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z50,[1]属性表!$B$4:$B$26,0))*AD50)+IF(ISBLANK(AE50),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE50,[1]属性表!$B$4:$B$26,0))*AI50)</f>
-        <v>272050</v>
+        <v>43200</v>
       </c>
       <c r="K50" s="4" t="s">
         <v>186</v>
@@ -21892,7 +21104,7 @@
         <v>0</v>
       </c>
       <c r="T50" s="4">
-        <v>32400</v>
+        <v>32400.000000000004</v>
       </c>
       <c r="U50" s="4" t="s">
         <v>196</v>
@@ -21922,7 +21134,7 @@
         <v>0</v>
       </c>
       <c r="AD50" s="4">
-        <v>67500</v>
+        <v>54000</v>
       </c>
       <c r="AE50" s="4" t="s">
         <v>188</v>
@@ -21937,7 +21149,7 @@
         <v>0</v>
       </c>
       <c r="AI50" s="4">
-        <v>2363</v>
+        <v>1350</v>
       </c>
       <c r="AJ50" s="4"/>
       <c r="AK50" s="4"/>
@@ -21950,7 +21162,7 @@
       <c r="AR50" s="4"/>
       <c r="AS50" s="4"/>
     </row>
-    <row r="51" ht="16.5" spans="1:45">
+    <row r="51" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>48</v>
       </c>
@@ -21979,8 +21191,7 @@
         <v>253</v>
       </c>
       <c r="J51" s="4">
-        <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K51,[1]属性表!$B$4:$B$26,0))*O51+INDEX([1]属性表!$E$4:$E$26,MATCH(P51,[1]属性表!$B$4:$B$26,0))*S51+INDEX([1]属性表!$E$4:$E$26,MATCH(U51,[1]属性表!$B$4:$B$26,0))*Y51+IF(ISBLANK(Z51),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z51,[1]属性表!$B$4:$B$26,0))*AD51)+IF(ISBLANK(AE51),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE51,[1]属性表!$B$4:$B$26,0))*AI51)</f>
-        <v>342550</v>
+        <v>54400</v>
       </c>
       <c r="K51" s="4" t="s">
         <v>186</v>
@@ -22040,7 +21251,7 @@
         <v>0</v>
       </c>
       <c r="AD51" s="4">
-        <v>85000</v>
+        <v>68000</v>
       </c>
       <c r="AE51" s="4" t="s">
         <v>188</v>
@@ -22055,7 +21266,7 @@
         <v>0</v>
       </c>
       <c r="AI51" s="4">
-        <v>2975</v>
+        <v>1700</v>
       </c>
       <c r="AJ51" s="4"/>
       <c r="AK51" s="4"/>
@@ -22068,7 +21279,7 @@
       <c r="AR51" s="4"/>
       <c r="AS51" s="4"/>
     </row>
-    <row r="52" ht="16.5" spans="1:45">
+    <row r="52" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>49</v>
       </c>
@@ -22097,8 +21308,7 @@
         <v>253</v>
       </c>
       <c r="J52" s="4">
-        <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K52,[1]属性表!$B$4:$B$26,0))*O52+INDEX([1]属性表!$E$4:$E$26,MATCH(P52,[1]属性表!$B$4:$B$26,0))*S52+INDEX([1]属性表!$E$4:$E$26,MATCH(U52,[1]属性表!$B$4:$B$26,0))*Y52+IF(ISBLANK(Z52),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z52,[1]属性表!$B$4:$B$26,0))*AD52)+IF(ISBLANK(AE52),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE52,[1]属性表!$B$4:$B$26,0))*AI52)</f>
-        <v>413100</v>
+        <v>65599.999999999985</v>
       </c>
       <c r="K52" s="4" t="s">
         <v>186</v>
@@ -22113,7 +21323,7 @@
         <v>0</v>
       </c>
       <c r="O52" s="4">
-        <v>6560</v>
+        <v>6559.9999999999991</v>
       </c>
       <c r="P52" s="4" t="s">
         <v>187</v>
@@ -22128,7 +21338,7 @@
         <v>0</v>
       </c>
       <c r="T52" s="4">
-        <v>49200</v>
+        <v>49199.999999999993</v>
       </c>
       <c r="U52" s="4" t="s">
         <v>196</v>
@@ -22143,7 +21353,7 @@
         <v>0</v>
       </c>
       <c r="Y52" s="4">
-        <v>3280</v>
+        <v>3279.9999999999995</v>
       </c>
       <c r="Z52" s="4" t="s">
         <v>197</v>
@@ -22158,7 +21368,7 @@
         <v>0</v>
       </c>
       <c r="AD52" s="4">
-        <v>102500</v>
+        <v>82000</v>
       </c>
       <c r="AE52" s="4" t="s">
         <v>188</v>
@@ -22173,7 +21383,7 @@
         <v>0</v>
       </c>
       <c r="AI52" s="4">
-        <v>3588</v>
+        <v>2050</v>
       </c>
       <c r="AJ52" s="4"/>
       <c r="AK52" s="4"/>
@@ -22186,7 +21396,7 @@
       <c r="AR52" s="4"/>
       <c r="AS52" s="4"/>
     </row>
-    <row r="53" ht="16.5" spans="1:45">
+    <row r="53" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>50</v>
       </c>
@@ -22215,8 +21425,7 @@
         <v>253</v>
       </c>
       <c r="J53" s="4">
-        <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K53,[1]属性表!$B$4:$B$26,0))*O53+INDEX([1]属性表!$E$4:$E$26,MATCH(P53,[1]属性表!$B$4:$B$26,0))*S53+INDEX([1]属性表!$E$4:$E$26,MATCH(U53,[1]属性表!$B$4:$B$26,0))*Y53+IF(ISBLANK(Z53),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z53,[1]属性表!$B$4:$B$26,0))*AD53)+IF(ISBLANK(AE53),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE53,[1]属性表!$B$4:$B$26,0))*AI53)</f>
-        <v>503750</v>
+        <v>80000</v>
       </c>
       <c r="K53" s="4" t="s">
         <v>186</v>
@@ -22276,7 +21485,7 @@
         <v>0</v>
       </c>
       <c r="AD53" s="4">
-        <v>125000</v>
+        <v>100000</v>
       </c>
       <c r="AE53" s="4" t="s">
         <v>188</v>
@@ -22291,7 +21500,7 @@
         <v>0</v>
       </c>
       <c r="AI53" s="4">
-        <v>4375</v>
+        <v>2500</v>
       </c>
       <c r="AJ53" s="4"/>
       <c r="AK53" s="4"/>
@@ -22304,7 +21513,7 @@
       <c r="AR53" s="4"/>
       <c r="AS53" s="4"/>
     </row>
-    <row r="54" ht="16.5" spans="1:45">
+    <row r="54" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>51</v>
       </c>
@@ -22333,8 +21542,7 @@
         <v>260</v>
       </c>
       <c r="J54" s="4">
-        <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K54,[1]属性表!$B$4:$B$26,0))*O54+INDEX([1]属性表!$E$4:$E$26,MATCH(P54,[1]属性表!$B$4:$B$26,0))*S54+INDEX([1]属性表!$E$4:$E$26,MATCH(U54,[1]属性表!$B$4:$B$26,0))*Y54+IF(ISBLANK(Z54),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z54,[1]属性表!$B$4:$B$26,0))*AD54)+IF(ISBLANK(AE54),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE54,[1]属性表!$B$4:$B$26,0))*AI54)</f>
-        <v>201500</v>
+        <v>32000</v>
       </c>
       <c r="K54" s="4" t="s">
         <v>186</v>
@@ -22394,7 +21602,7 @@
         <v>0</v>
       </c>
       <c r="AD54" s="4">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="AE54" s="4" t="s">
         <v>188</v>
@@ -22409,7 +21617,7 @@
         <v>0</v>
       </c>
       <c r="AI54" s="4">
-        <v>1750</v>
+        <v>1000</v>
       </c>
       <c r="AJ54" s="4"/>
       <c r="AK54" s="4"/>
@@ -22422,7 +21630,7 @@
       <c r="AR54" s="4"/>
       <c r="AS54" s="4"/>
     </row>
-    <row r="55" ht="16.5" spans="1:45">
+    <row r="55" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>52</v>
       </c>
@@ -22451,8 +21659,7 @@
         <v>260</v>
       </c>
       <c r="J55" s="4">
-        <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K55,[1]属性表!$B$4:$B$26,0))*O55+INDEX([1]属性表!$E$4:$E$26,MATCH(P55,[1]属性表!$B$4:$B$26,0))*S55+INDEX([1]属性表!$E$4:$E$26,MATCH(U55,[1]属性表!$B$4:$B$26,0))*Y55+IF(ISBLANK(Z55),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z55,[1]属性表!$B$4:$B$26,0))*AD55)+IF(ISBLANK(AE55),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE55,[1]属性表!$B$4:$B$26,0))*AI55)</f>
-        <v>272050</v>
+        <v>43200</v>
       </c>
       <c r="K55" s="4" t="s">
         <v>186</v>
@@ -22482,7 +21689,7 @@
         <v>0</v>
       </c>
       <c r="T55" s="4">
-        <v>32400</v>
+        <v>32400.000000000004</v>
       </c>
       <c r="U55" s="4" t="s">
         <v>196</v>
@@ -22512,7 +21719,7 @@
         <v>0</v>
       </c>
       <c r="AD55" s="4">
-        <v>67500</v>
+        <v>54000</v>
       </c>
       <c r="AE55" s="4" t="s">
         <v>188</v>
@@ -22527,7 +21734,7 @@
         <v>0</v>
       </c>
       <c r="AI55" s="4">
-        <v>2363</v>
+        <v>1350</v>
       </c>
       <c r="AJ55" s="4"/>
       <c r="AK55" s="4"/>
@@ -22540,7 +21747,7 @@
       <c r="AR55" s="4"/>
       <c r="AS55" s="4"/>
     </row>
-    <row r="56" ht="16.5" spans="1:45">
+    <row r="56" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>53</v>
       </c>
@@ -22569,8 +21776,7 @@
         <v>260</v>
       </c>
       <c r="J56" s="4">
-        <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K56,[1]属性表!$B$4:$B$26,0))*O56+INDEX([1]属性表!$E$4:$E$26,MATCH(P56,[1]属性表!$B$4:$B$26,0))*S56+INDEX([1]属性表!$E$4:$E$26,MATCH(U56,[1]属性表!$B$4:$B$26,0))*Y56+IF(ISBLANK(Z56),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z56,[1]属性表!$B$4:$B$26,0))*AD56)+IF(ISBLANK(AE56),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE56,[1]属性表!$B$4:$B$26,0))*AI56)</f>
-        <v>342550</v>
+        <v>54400</v>
       </c>
       <c r="K56" s="4" t="s">
         <v>186</v>
@@ -22630,7 +21836,7 @@
         <v>0</v>
       </c>
       <c r="AD56" s="4">
-        <v>85000</v>
+        <v>68000</v>
       </c>
       <c r="AE56" s="4" t="s">
         <v>188</v>
@@ -22645,7 +21851,7 @@
         <v>0</v>
       </c>
       <c r="AI56" s="4">
-        <v>2975</v>
+        <v>1700</v>
       </c>
       <c r="AJ56" s="4"/>
       <c r="AK56" s="4"/>
@@ -22658,7 +21864,7 @@
       <c r="AR56" s="4"/>
       <c r="AS56" s="4"/>
     </row>
-    <row r="57" ht="16.5" spans="1:45">
+    <row r="57" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>54</v>
       </c>
@@ -22687,8 +21893,7 @@
         <v>260</v>
       </c>
       <c r="J57" s="4">
-        <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K57,[1]属性表!$B$4:$B$26,0))*O57+INDEX([1]属性表!$E$4:$E$26,MATCH(P57,[1]属性表!$B$4:$B$26,0))*S57+INDEX([1]属性表!$E$4:$E$26,MATCH(U57,[1]属性表!$B$4:$B$26,0))*Y57+IF(ISBLANK(Z57),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z57,[1]属性表!$B$4:$B$26,0))*AD57)+IF(ISBLANK(AE57),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE57,[1]属性表!$B$4:$B$26,0))*AI57)</f>
-        <v>413100</v>
+        <v>65599.999999999985</v>
       </c>
       <c r="K57" s="4" t="s">
         <v>186</v>
@@ -22703,7 +21908,7 @@
         <v>0</v>
       </c>
       <c r="O57" s="4">
-        <v>6560</v>
+        <v>6559.9999999999991</v>
       </c>
       <c r="P57" s="4" t="s">
         <v>187</v>
@@ -22718,7 +21923,7 @@
         <v>0</v>
       </c>
       <c r="T57" s="4">
-        <v>49200</v>
+        <v>49199.999999999993</v>
       </c>
       <c r="U57" s="4" t="s">
         <v>196</v>
@@ -22733,7 +21938,7 @@
         <v>0</v>
       </c>
       <c r="Y57" s="4">
-        <v>3280</v>
+        <v>3279.9999999999995</v>
       </c>
       <c r="Z57" s="4" t="s">
         <v>197</v>
@@ -22748,7 +21953,7 @@
         <v>0</v>
       </c>
       <c r="AD57" s="4">
-        <v>102500</v>
+        <v>82000</v>
       </c>
       <c r="AE57" s="4" t="s">
         <v>188</v>
@@ -22763,7 +21968,7 @@
         <v>0</v>
       </c>
       <c r="AI57" s="4">
-        <v>3588</v>
+        <v>2050</v>
       </c>
       <c r="AJ57" s="4"/>
       <c r="AK57" s="4"/>
@@ -22776,7 +21981,7 @@
       <c r="AR57" s="4"/>
       <c r="AS57" s="4"/>
     </row>
-    <row r="58" ht="16.5" spans="1:45">
+    <row r="58" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>55</v>
       </c>
@@ -22805,8 +22010,7 @@
         <v>260</v>
       </c>
       <c r="J58" s="4">
-        <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K58,[1]属性表!$B$4:$B$26,0))*O58+INDEX([1]属性表!$E$4:$E$26,MATCH(P58,[1]属性表!$B$4:$B$26,0))*S58+INDEX([1]属性表!$E$4:$E$26,MATCH(U58,[1]属性表!$B$4:$B$26,0))*Y58+IF(ISBLANK(Z58),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z58,[1]属性表!$B$4:$B$26,0))*AD58)+IF(ISBLANK(AE58),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE58,[1]属性表!$B$4:$B$26,0))*AI58)</f>
-        <v>503750</v>
+        <v>80000</v>
       </c>
       <c r="K58" s="4" t="s">
         <v>186</v>
@@ -22866,7 +22070,7 @@
         <v>0</v>
       </c>
       <c r="AD58" s="4">
-        <v>125000</v>
+        <v>100000</v>
       </c>
       <c r="AE58" s="4" t="s">
         <v>188</v>
@@ -22881,7 +22085,7 @@
         <v>0</v>
       </c>
       <c r="AI58" s="4">
-        <v>4375</v>
+        <v>2500</v>
       </c>
       <c r="AJ58" s="4"/>
       <c r="AK58" s="4"/>
@@ -22894,7 +22098,7 @@
       <c r="AR58" s="4"/>
       <c r="AS58" s="4"/>
     </row>
-    <row r="59" ht="16.5" spans="1:45">
+    <row r="59" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>56</v>
       </c>
@@ -22923,8 +22127,7 @@
         <v>267</v>
       </c>
       <c r="J59" s="4">
-        <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K59,[1]属性表!$B$4:$B$26,0))*O59+INDEX([1]属性表!$E$4:$E$26,MATCH(P59,[1]属性表!$B$4:$B$26,0))*S59+INDEX([1]属性表!$E$4:$E$26,MATCH(U59,[1]属性表!$B$4:$B$26,0))*Y59+IF(ISBLANK(Z59),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z59,[1]属性表!$B$4:$B$26,0))*AD59)+IF(ISBLANK(AE59),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE59,[1]属性表!$B$4:$B$26,0))*AI59)</f>
-        <v>201500</v>
+        <v>32000</v>
       </c>
       <c r="K59" s="4" t="s">
         <v>186</v>
@@ -22984,7 +22187,7 @@
         <v>0</v>
       </c>
       <c r="AD59" s="4">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="AE59" s="4" t="s">
         <v>188</v>
@@ -22999,7 +22202,7 @@
         <v>0</v>
       </c>
       <c r="AI59" s="4">
-        <v>1750</v>
+        <v>1000</v>
       </c>
       <c r="AJ59" s="4"/>
       <c r="AK59" s="4"/>
@@ -23012,7 +22215,7 @@
       <c r="AR59" s="4"/>
       <c r="AS59" s="4"/>
     </row>
-    <row r="60" ht="16.5" spans="1:45">
+    <row r="60" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>57</v>
       </c>
@@ -23041,8 +22244,7 @@
         <v>267</v>
       </c>
       <c r="J60" s="4">
-        <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K60,[1]属性表!$B$4:$B$26,0))*O60+INDEX([1]属性表!$E$4:$E$26,MATCH(P60,[1]属性表!$B$4:$B$26,0))*S60+INDEX([1]属性表!$E$4:$E$26,MATCH(U60,[1]属性表!$B$4:$B$26,0))*Y60+IF(ISBLANK(Z60),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z60,[1]属性表!$B$4:$B$26,0))*AD60)+IF(ISBLANK(AE60),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE60,[1]属性表!$B$4:$B$26,0))*AI60)</f>
-        <v>272050</v>
+        <v>43200</v>
       </c>
       <c r="K60" s="4" t="s">
         <v>186</v>
@@ -23072,7 +22274,7 @@
         <v>0</v>
       </c>
       <c r="T60" s="4">
-        <v>32400</v>
+        <v>32400.000000000004</v>
       </c>
       <c r="U60" s="4" t="s">
         <v>196</v>
@@ -23102,7 +22304,7 @@
         <v>0</v>
       </c>
       <c r="AD60" s="4">
-        <v>67500</v>
+        <v>54000</v>
       </c>
       <c r="AE60" s="4" t="s">
         <v>188</v>
@@ -23117,7 +22319,7 @@
         <v>0</v>
       </c>
       <c r="AI60" s="4">
-        <v>2363</v>
+        <v>1350</v>
       </c>
       <c r="AJ60" s="4"/>
       <c r="AK60" s="4"/>
@@ -23130,7 +22332,7 @@
       <c r="AR60" s="4"/>
       <c r="AS60" s="4"/>
     </row>
-    <row r="61" ht="16.5" spans="1:45">
+    <row r="61" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>58</v>
       </c>
@@ -23159,8 +22361,7 @@
         <v>267</v>
       </c>
       <c r="J61" s="4">
-        <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K61,[1]属性表!$B$4:$B$26,0))*O61+INDEX([1]属性表!$E$4:$E$26,MATCH(P61,[1]属性表!$B$4:$B$26,0))*S61+INDEX([1]属性表!$E$4:$E$26,MATCH(U61,[1]属性表!$B$4:$B$26,0))*Y61+IF(ISBLANK(Z61),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z61,[1]属性表!$B$4:$B$26,0))*AD61)+IF(ISBLANK(AE61),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE61,[1]属性表!$B$4:$B$26,0))*AI61)</f>
-        <v>342550</v>
+        <v>54400</v>
       </c>
       <c r="K61" s="4" t="s">
         <v>186</v>
@@ -23220,7 +22421,7 @@
         <v>0</v>
       </c>
       <c r="AD61" s="4">
-        <v>85000</v>
+        <v>68000</v>
       </c>
       <c r="AE61" s="4" t="s">
         <v>188</v>
@@ -23235,7 +22436,7 @@
         <v>0</v>
       </c>
       <c r="AI61" s="4">
-        <v>2975</v>
+        <v>1700</v>
       </c>
       <c r="AJ61" s="4"/>
       <c r="AK61" s="4"/>
@@ -23248,7 +22449,7 @@
       <c r="AR61" s="4"/>
       <c r="AS61" s="4"/>
     </row>
-    <row r="62" ht="16.5" spans="1:45">
+    <row r="62" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>59</v>
       </c>
@@ -23277,8 +22478,7 @@
         <v>267</v>
       </c>
       <c r="J62" s="4">
-        <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K62,[1]属性表!$B$4:$B$26,0))*O62+INDEX([1]属性表!$E$4:$E$26,MATCH(P62,[1]属性表!$B$4:$B$26,0))*S62+INDEX([1]属性表!$E$4:$E$26,MATCH(U62,[1]属性表!$B$4:$B$26,0))*Y62+IF(ISBLANK(Z62),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z62,[1]属性表!$B$4:$B$26,0))*AD62)+IF(ISBLANK(AE62),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE62,[1]属性表!$B$4:$B$26,0))*AI62)</f>
-        <v>413100</v>
+        <v>65599.999999999985</v>
       </c>
       <c r="K62" s="4" t="s">
         <v>186</v>
@@ -23293,7 +22493,7 @@
         <v>0</v>
       </c>
       <c r="O62" s="4">
-        <v>6560</v>
+        <v>6559.9999999999991</v>
       </c>
       <c r="P62" s="4" t="s">
         <v>187</v>
@@ -23308,7 +22508,7 @@
         <v>0</v>
       </c>
       <c r="T62" s="4">
-        <v>49200</v>
+        <v>49199.999999999993</v>
       </c>
       <c r="U62" s="4" t="s">
         <v>196</v>
@@ -23323,7 +22523,7 @@
         <v>0</v>
       </c>
       <c r="Y62" s="4">
-        <v>3280</v>
+        <v>3279.9999999999995</v>
       </c>
       <c r="Z62" s="4" t="s">
         <v>197</v>
@@ -23338,7 +22538,7 @@
         <v>0</v>
       </c>
       <c r="AD62" s="4">
-        <v>102500</v>
+        <v>82000</v>
       </c>
       <c r="AE62" s="4" t="s">
         <v>188</v>
@@ -23353,7 +22553,7 @@
         <v>0</v>
       </c>
       <c r="AI62" s="4">
-        <v>3588</v>
+        <v>2050</v>
       </c>
       <c r="AJ62" s="4"/>
       <c r="AK62" s="4"/>
@@ -23366,7 +22566,7 @@
       <c r="AR62" s="4"/>
       <c r="AS62" s="4"/>
     </row>
-    <row r="63" ht="16.5" spans="1:45">
+    <row r="63" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>60</v>
       </c>
@@ -23395,8 +22595,7 @@
         <v>267</v>
       </c>
       <c r="J63" s="4">
-        <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K63,[1]属性表!$B$4:$B$26,0))*O63+INDEX([1]属性表!$E$4:$E$26,MATCH(P63,[1]属性表!$B$4:$B$26,0))*S63+INDEX([1]属性表!$E$4:$E$26,MATCH(U63,[1]属性表!$B$4:$B$26,0))*Y63+IF(ISBLANK(Z63),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z63,[1]属性表!$B$4:$B$26,0))*AD63)+IF(ISBLANK(AE63),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE63,[1]属性表!$B$4:$B$26,0))*AI63)</f>
-        <v>503750</v>
+        <v>80000</v>
       </c>
       <c r="K63" s="4" t="s">
         <v>186</v>
@@ -23456,7 +22655,7 @@
         <v>0</v>
       </c>
       <c r="AD63" s="4">
-        <v>125000</v>
+        <v>100000</v>
       </c>
       <c r="AE63" s="4" t="s">
         <v>188</v>
@@ -23471,7 +22670,7 @@
         <v>0</v>
       </c>
       <c r="AI63" s="4">
-        <v>4375</v>
+        <v>2500</v>
       </c>
       <c r="AJ63" s="4"/>
       <c r="AK63" s="4"/>
@@ -23484,7 +22683,7 @@
       <c r="AR63" s="4"/>
       <c r="AS63" s="4"/>
     </row>
-    <row r="64" ht="16.5" spans="1:45">
+    <row r="64" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>61</v>
       </c>
@@ -23513,8 +22712,7 @@
         <v>274</v>
       </c>
       <c r="J64" s="4">
-        <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K64,[1]属性表!$B$4:$B$26,0))*O64+INDEX([1]属性表!$E$4:$E$26,MATCH(P64,[1]属性表!$B$4:$B$26,0))*S64+INDEX([1]属性表!$E$4:$E$26,MATCH(U64,[1]属性表!$B$4:$B$26,0))*Y64+IF(ISBLANK(Z64),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z64,[1]属性表!$B$4:$B$26,0))*AD64)+IF(ISBLANK(AE64),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE64,[1]属性表!$B$4:$B$26,0))*AI64)</f>
-        <v>201500</v>
+        <v>32000</v>
       </c>
       <c r="K64" s="4" t="s">
         <v>186</v>
@@ -23574,7 +22772,7 @@
         <v>0</v>
       </c>
       <c r="AD64" s="4">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="AE64" s="4" t="s">
         <v>188</v>
@@ -23589,7 +22787,7 @@
         <v>0</v>
       </c>
       <c r="AI64" s="4">
-        <v>1750</v>
+        <v>1000</v>
       </c>
       <c r="AJ64" s="4"/>
       <c r="AK64" s="4"/>
@@ -23602,7 +22800,7 @@
       <c r="AR64" s="4"/>
       <c r="AS64" s="4"/>
     </row>
-    <row r="65" ht="16.5" spans="1:45">
+    <row r="65" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>62</v>
       </c>
@@ -23631,8 +22829,7 @@
         <v>274</v>
       </c>
       <c r="J65" s="4">
-        <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K65,[1]属性表!$B$4:$B$26,0))*O65+INDEX([1]属性表!$E$4:$E$26,MATCH(P65,[1]属性表!$B$4:$B$26,0))*S65+INDEX([1]属性表!$E$4:$E$26,MATCH(U65,[1]属性表!$B$4:$B$26,0))*Y65+IF(ISBLANK(Z65),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z65,[1]属性表!$B$4:$B$26,0))*AD65)+IF(ISBLANK(AE65),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE65,[1]属性表!$B$4:$B$26,0))*AI65)</f>
-        <v>272050</v>
+        <v>43200</v>
       </c>
       <c r="K65" s="4" t="s">
         <v>186</v>
@@ -23662,7 +22859,7 @@
         <v>0</v>
       </c>
       <c r="T65" s="4">
-        <v>32400</v>
+        <v>32400.000000000004</v>
       </c>
       <c r="U65" s="4" t="s">
         <v>196</v>
@@ -23692,7 +22889,7 @@
         <v>0</v>
       </c>
       <c r="AD65" s="4">
-        <v>67500</v>
+        <v>54000</v>
       </c>
       <c r="AE65" s="4" t="s">
         <v>188</v>
@@ -23707,7 +22904,7 @@
         <v>0</v>
       </c>
       <c r="AI65" s="4">
-        <v>2363</v>
+        <v>1350</v>
       </c>
       <c r="AJ65" s="4"/>
       <c r="AK65" s="4"/>
@@ -23720,7 +22917,7 @@
       <c r="AR65" s="4"/>
       <c r="AS65" s="4"/>
     </row>
-    <row r="66" ht="16.5" spans="1:45">
+    <row r="66" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>63</v>
       </c>
@@ -23749,8 +22946,7 @@
         <v>274</v>
       </c>
       <c r="J66" s="4">
-        <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K66,[1]属性表!$B$4:$B$26,0))*O66+INDEX([1]属性表!$E$4:$E$26,MATCH(P66,[1]属性表!$B$4:$B$26,0))*S66+INDEX([1]属性表!$E$4:$E$26,MATCH(U66,[1]属性表!$B$4:$B$26,0))*Y66+IF(ISBLANK(Z66),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z66,[1]属性表!$B$4:$B$26,0))*AD66)+IF(ISBLANK(AE66),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE66,[1]属性表!$B$4:$B$26,0))*AI66)</f>
-        <v>342550</v>
+        <v>54400</v>
       </c>
       <c r="K66" s="4" t="s">
         <v>186</v>
@@ -23810,7 +23006,7 @@
         <v>0</v>
       </c>
       <c r="AD66" s="4">
-        <v>85000</v>
+        <v>68000</v>
       </c>
       <c r="AE66" s="4" t="s">
         <v>188</v>
@@ -23825,7 +23021,7 @@
         <v>0</v>
       </c>
       <c r="AI66" s="4">
-        <v>2975</v>
+        <v>1700</v>
       </c>
       <c r="AJ66" s="4"/>
       <c r="AK66" s="4"/>
@@ -23838,7 +23034,7 @@
       <c r="AR66" s="4"/>
       <c r="AS66" s="4"/>
     </row>
-    <row r="67" ht="16.5" spans="1:45">
+    <row r="67" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>64</v>
       </c>
@@ -23867,8 +23063,7 @@
         <v>274</v>
       </c>
       <c r="J67" s="4">
-        <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K67,[1]属性表!$B$4:$B$26,0))*O67+INDEX([1]属性表!$E$4:$E$26,MATCH(P67,[1]属性表!$B$4:$B$26,0))*S67+INDEX([1]属性表!$E$4:$E$26,MATCH(U67,[1]属性表!$B$4:$B$26,0))*Y67+IF(ISBLANK(Z67),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z67,[1]属性表!$B$4:$B$26,0))*AD67)+IF(ISBLANK(AE67),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE67,[1]属性表!$B$4:$B$26,0))*AI67)</f>
-        <v>413100</v>
+        <v>65599.999999999985</v>
       </c>
       <c r="K67" s="4" t="s">
         <v>186</v>
@@ -23883,7 +23078,7 @@
         <v>0</v>
       </c>
       <c r="O67" s="4">
-        <v>6560</v>
+        <v>6559.9999999999991</v>
       </c>
       <c r="P67" s="4" t="s">
         <v>187</v>
@@ -23898,7 +23093,7 @@
         <v>0</v>
       </c>
       <c r="T67" s="4">
-        <v>49200</v>
+        <v>49199.999999999993</v>
       </c>
       <c r="U67" s="4" t="s">
         <v>196</v>
@@ -23913,7 +23108,7 @@
         <v>0</v>
       </c>
       <c r="Y67" s="4">
-        <v>3280</v>
+        <v>3279.9999999999995</v>
       </c>
       <c r="Z67" s="4" t="s">
         <v>197</v>
@@ -23928,7 +23123,7 @@
         <v>0</v>
       </c>
       <c r="AD67" s="4">
-        <v>102500</v>
+        <v>82000</v>
       </c>
       <c r="AE67" s="4" t="s">
         <v>188</v>
@@ -23943,7 +23138,7 @@
         <v>0</v>
       </c>
       <c r="AI67" s="4">
-        <v>3588</v>
+        <v>2050</v>
       </c>
       <c r="AJ67" s="4"/>
       <c r="AK67" s="4"/>
@@ -23956,7 +23151,7 @@
       <c r="AR67" s="4"/>
       <c r="AS67" s="4"/>
     </row>
-    <row r="68" ht="16.5" spans="1:45">
+    <row r="68" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>65</v>
       </c>
@@ -23985,8 +23180,7 @@
         <v>274</v>
       </c>
       <c r="J68" s="4">
-        <f>INDEX([1]属性表!$E$4:$E$26,MATCH(K68,[1]属性表!$B$4:$B$26,0))*O68+INDEX([1]属性表!$E$4:$E$26,MATCH(P68,[1]属性表!$B$4:$B$26,0))*S68+INDEX([1]属性表!$E$4:$E$26,MATCH(U68,[1]属性表!$B$4:$B$26,0))*Y68+IF(ISBLANK(Z68),0,INDEX([1]属性表!$E$4:$E$26,MATCH(Z68,[1]属性表!$B$4:$B$26,0))*AD68)+IF(ISBLANK(AE68),0,INDEX([1]属性表!$E$4:$E$26,MATCH(AE68,[1]属性表!$B$4:$B$26,0))*AI68)</f>
-        <v>503750</v>
+        <v>80000</v>
       </c>
       <c r="K68" s="4" t="s">
         <v>186</v>
@@ -24046,7 +23240,7 @@
         <v>0</v>
       </c>
       <c r="AD68" s="4">
-        <v>125000</v>
+        <v>100000</v>
       </c>
       <c r="AE68" s="4" t="s">
         <v>188</v>
@@ -24061,7 +23255,7 @@
         <v>0</v>
       </c>
       <c r="AI68" s="4">
-        <v>4375</v>
+        <v>2500</v>
       </c>
       <c r="AJ68" s="4"/>
       <c r="AK68" s="4"/>
@@ -24074,7 +23268,7 @@
       <c r="AR68" s="4"/>
       <c r="AS68" s="4"/>
     </row>
-    <row r="69" ht="16.5" spans="1:45">
+    <row r="69" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -24121,7 +23315,7 @@
       <c r="AR69" s="4"/>
       <c r="AS69" s="4"/>
     </row>
-    <row r="70" ht="16.5" spans="1:45">
+    <row r="70" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -24168,7 +23362,7 @@
       <c r="AR70" s="4"/>
       <c r="AS70" s="4"/>
     </row>
-    <row r="71" ht="16.5" spans="1:45">
+    <row r="71" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -24215,7 +23409,7 @@
       <c r="AR71" s="4"/>
       <c r="AS71" s="4"/>
     </row>
-    <row r="72" ht="16.5" spans="1:45">
+    <row r="72" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -24262,7 +23456,7 @@
       <c r="AR72" s="4"/>
       <c r="AS72" s="4"/>
     </row>
-    <row r="73" ht="16.5" spans="1:45">
+    <row r="73" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -24309,7 +23503,7 @@
       <c r="AR73" s="4"/>
       <c r="AS73" s="4"/>
     </row>
-    <row r="74" ht="16.5" spans="1:45">
+    <row r="74" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -24356,7 +23550,7 @@
       <c r="AR74" s="4"/>
       <c r="AS74" s="4"/>
     </row>
-    <row r="75" ht="16.5" spans="1:45">
+    <row r="75" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -24404,22 +23598,21 @@
       <c r="AS75" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="9.75" customWidth="1"/>
     <col min="6" max="7" width="11.25" customWidth="1"/>
@@ -24429,7 +23622,7 @@
     <col min="13" max="13" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:10">
+    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -24461,7 +23654,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -24493,7 +23686,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="1:10">
+    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
@@ -24525,7 +23718,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:13">
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -24560,7 +23753,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:13">
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -24595,7 +23788,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:13">
+    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -24630,7 +23823,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:13">
+    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -24665,7 +23858,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:13">
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -24700,7 +23893,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:13">
+    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>6</v>
       </c>
@@ -24735,7 +23928,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:13">
+    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>7</v>
       </c>
@@ -24770,7 +23963,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="1:13">
+    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>8</v>
       </c>
@@ -24805,7 +23998,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="12" ht="16.5" spans="1:13">
+    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>9</v>
       </c>
@@ -24840,7 +24033,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="13" ht="16.5" spans="1:13">
+    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>10</v>
       </c>
@@ -24875,7 +24068,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="14" ht="16.5" spans="1:13">
+    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>11</v>
       </c>
@@ -24910,7 +24103,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="15" ht="16.5" spans="1:13">
+    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>12</v>
       </c>
@@ -24945,7 +24138,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="16" ht="16.5" spans="1:13">
+    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>13</v>
       </c>
@@ -24980,7 +24173,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="17" ht="16.5" spans="1:13">
+    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>14</v>
       </c>
@@ -25015,7 +24208,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="18" ht="16.5" spans="1:13">
+    <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>15</v>
       </c>
@@ -25050,7 +24243,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="19" ht="16.5" spans="1:13">
+    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>16</v>
       </c>
@@ -25085,7 +24278,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="20" ht="16.5" spans="1:13">
+    <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>17</v>
       </c>
@@ -25120,7 +24313,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="21" ht="16.5" spans="1:13">
+    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>18</v>
       </c>
@@ -25155,7 +24348,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="22" ht="16.5" spans="1:13">
+    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>19</v>
       </c>
@@ -25190,7 +24383,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="23" ht="16.5" spans="1:13">
+    <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>20</v>
       </c>
@@ -25225,7 +24418,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="24" ht="16.5" spans="1:13">
+    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>21</v>
       </c>
@@ -25260,7 +24453,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="25" ht="16.5" spans="1:13">
+    <row r="25" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>22</v>
       </c>
@@ -25295,7 +24488,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="26" ht="16.5" spans="1:13">
+    <row r="26" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>23</v>
       </c>
@@ -25330,7 +24523,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="27" ht="16.5" spans="1:13">
+    <row r="27" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>24</v>
       </c>
@@ -25365,7 +24558,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="28" ht="16.5" spans="1:13">
+    <row r="28" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>25</v>
       </c>
@@ -25400,7 +24593,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="29" ht="16.5" spans="1:13">
+    <row r="29" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>26</v>
       </c>
@@ -25435,7 +24628,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="30" ht="16.5" spans="1:13">
+    <row r="30" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>27</v>
       </c>
@@ -25470,7 +24663,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="31" ht="16.5" spans="1:13">
+    <row r="31" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>28</v>
       </c>
@@ -25505,7 +24698,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="32" ht="16.5" spans="1:13">
+    <row r="32" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>29</v>
       </c>
@@ -25540,7 +24733,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="33" ht="16.5" spans="1:13">
+    <row r="33" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>30</v>
       </c>
@@ -25575,7 +24768,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="34" ht="16.5" spans="1:13">
+    <row r="34" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>31</v>
       </c>
@@ -25610,7 +24803,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="35" ht="16.5" spans="1:13">
+    <row r="35" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>32</v>
       </c>
@@ -25645,7 +24838,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="36" ht="16.5" spans="1:13">
+    <row r="36" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>33</v>
       </c>
@@ -25680,7 +24873,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="37" ht="16.5" spans="1:13">
+    <row r="37" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>34</v>
       </c>
@@ -25715,7 +24908,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="38" ht="16.5" spans="1:13">
+    <row r="38" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>35</v>
       </c>
@@ -25750,7 +24943,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="39" ht="16.5" spans="1:13">
+    <row r="39" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>36</v>
       </c>
@@ -25785,7 +24978,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="40" ht="16.5" spans="1:13">
+    <row r="40" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>37</v>
       </c>
@@ -25820,7 +25013,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="41" ht="16.5" spans="1:13">
+    <row r="41" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>38</v>
       </c>
@@ -25855,7 +25048,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="42" ht="16.5" spans="1:13">
+    <row r="42" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>39</v>
       </c>
@@ -25890,7 +25083,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="43" ht="16.5" spans="1:13">
+    <row r="43" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>40</v>
       </c>
@@ -25925,7 +25118,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="44" ht="16.5" spans="1:13">
+    <row r="44" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>41</v>
       </c>
@@ -25960,7 +25153,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="45" ht="16.5" spans="1:13">
+    <row r="45" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>42</v>
       </c>
@@ -25995,7 +25188,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="46" ht="16.5" spans="1:13">
+    <row r="46" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>43</v>
       </c>
@@ -26030,7 +25223,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="47" ht="16.5" spans="1:13">
+    <row r="47" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>44</v>
       </c>
@@ -26065,7 +25258,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="48" ht="16.5" spans="1:13">
+    <row r="48" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>45</v>
       </c>
@@ -26100,7 +25293,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="49" ht="16.5" spans="1:13">
+    <row r="49" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>46</v>
       </c>
@@ -26135,7 +25328,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="50" ht="16.5" spans="1:13">
+    <row r="50" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>47</v>
       </c>
@@ -26170,7 +25363,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="51" ht="16.5" spans="1:13">
+    <row r="51" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>48</v>
       </c>
@@ -26205,7 +25398,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="52" ht="16.5" spans="1:13">
+    <row r="52" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>49</v>
       </c>
@@ -26240,7 +25433,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="53" ht="16.5" spans="1:13">
+    <row r="53" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>50</v>
       </c>
@@ -26275,7 +25468,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="54" ht="16.5" spans="1:13">
+    <row r="54" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>51</v>
       </c>
@@ -26310,7 +25503,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="55" ht="16.5" spans="1:13">
+    <row r="55" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>52</v>
       </c>
@@ -26346,7 +25539,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>